--- a/ecological-modeling/reyes-datasets/Reyes_dataExp2_source.xlsx
+++ b/ecological-modeling/reyes-datasets/Reyes_dataExp2_source.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Relative_abundance" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="DNA_yields" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Genome_size" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Perturbations" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Taxonomy" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="39">
   <si>
     <t xml:space="preserve">Day</t>
   </si>
@@ -42,13 +44,13 @@
     <t xml:space="preserve">M4</t>
   </si>
   <si>
-    <t xml:space="preserve">M10</t>
+    <t xml:space="preserve">M5</t>
   </si>
   <si>
-    <t xml:space="preserve">M11</t>
+    <t xml:space="preserve">M6</t>
   </si>
   <si>
-    <t xml:space="preserve">M12</t>
+    <t xml:space="preserve">M7</t>
   </si>
   <si>
     <t xml:space="preserve">B_cellulosilyticus_WH2</t>
@@ -61,6 +63,84 @@
   </si>
   <si>
     <t xml:space="preserve">Genome_length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HF/HS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phylum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GACAGTATATCTTATCTTTATGATGCTGCGGGCAGGAAACTCCGTACCGTGCACGTTCTGGAAGGAGACAGTGTTACAACGGATTACTGCGGCAATGTGGTCTATGAAAATGGAGTACCTCAGATTCTATTGACAGAAGTCGGTTATGTGTCCCTTACTGACGGTAAGTATCATTATTATTTGAAAGATCATCAGGGTAATAATCGTGTGGTTGTAGATGAGGAGGGAACGGTTGAGGAAGTGAATCATTATTATCCGTTTGGAGGTGTGTTTTCTTCTACCGGAGATGCTCAGCCTTATAAGTATAATGGCAAGGAGTTGGATCGTAAAGGTGGGTTGGACTGGTATGATTATGGAGCGAGGATGTATGATGCTGCATTAGGGAGATTTATGAAAACTGATAGATTTTCAGAGAAGTATGTTTCTTTATCACCTTATCAATATGGCGCAAATAATCCGGTGAATAATATTGATGTGAATGGAGATAGTATTACAGTTTTAAATTATGGTTATATAAGGAAACAACATATGGCTATTTTGATTCAAAATGATGCAGGTGAATGGCAATATTTTTCAGTGAATGGAGATAATGTTTATGTCTCTGGTGAGTTTTCTGGAGGGCGAAAATTTAACGACATAGCAGTGGGAGAATTTGATAGTCCTCAAGAATTTTTAAATAGTCCATATAATTCCTATGGTGCTTCTGATGATATGTCTATAAATACGTATGGTTTTTCTGAAGGCTATATGATTCCGACATCGAAAGAGCAAGATGATATTATAAGGGATACCTTTATAAGTATTAGTAAGAATGAGTCATATGATTTTTTAGGAAATAATTGCTCCACAGTGGTACAAAAATCTTTGGAAGCAGCCGGTATAATAACTTTTACTCAAAAGAGTACTAGGCATAGGATTCCAAGTAGCCATTATTTAGGAGAATCATCTTTTATTGCTACTATTTCTACCTCTAGACCCGTTATTCCTAGTGTTTCATTTAGAGCAATTATAAAAAATAATCCACAAGGTAAAATGATTTATAGATAATATATTATGAAAAGAATAAAATGGACTCCTGTATTATTGTTATTTCCTATATCAATAATAATATTTATAATTGATATGCGTTCTGAAGCATGGACACCATTTAGTCTTTTTTTCATTATTGGATTTATATTGATGATGTGTTTATTACTTTTGATAGACCGTTTTTTTATTATCTGGTTTAAACAAAAAAGTGTTTGGATCGTAGAAATAGTATTAATAATACTTGTACTTATTTATGTTTTTAAGGAAAGTACTTTATTCTGATGTATAGGCTATTATTTTGAATACTAATGACTCCTTAGTTAAAAATACAATATAAAGCAGTTAATATGCCAAATAAGGACAATGGAACTACCGGATGGGTAGTTCCTGTAACAGGAGGATTCTGCTGTTGATAATGTAAAAAGAGAACTTTTGTAAGTTGGAGGATATGTTTCTCATGGTAGATTAGACATTTATTATTTTATGTAAAAGATGTATGTGAAATTAATAAATGAAGGTTCTGTTGCGTATCAATCAGTTCCTTCATCAAAATTTAGTAGCAATATCTATAAATTGGAAGGATCTGATATATATGATATTGAAGATGAAATATGGGAATTTTTACCAGCTATTTTAGTACTTACTAAAAGGAAAGAGCTGGAAGGAAAATTAGTTTTGGTTGCAGTGGAGGAAATTTGACTCTAATAGGATTATTTTTACCCTGGTACAAGTTGATTGACTATCAATTTGTATCAGGGTATTTTATTCATAACTCTTATGGGAAAAAGTATATTTGTTTTTTAAGTTAGATGAAAATAATACAATGGAAGGATATAGTTATGTTTATTGAATATGAAGTTTTGACCTGTAATGACAACTAATTAAAAGGTGAGAGACCATTCAACTACGCCTGCTTTAATAACGGCTTCGAGTTCAAGGACGGTGTTGACTTGTCAACCGAATATGAATATGATGAAAACGGCAACCTGACTAAAGATTTAAACAAAAATATAACTGCTATTCAGTATAATTGTTTAAATTTGCCTAGTCGTGTAATGTTTGCGAATGGTAACAGTATATCTTATCTTTATGATGCTGCGGGTAGGAAACTCCGTACCGTGCACTTTCTGGAAGGAGACAGTGTTACAACGGATTACTGCGGCAATGTGGTCTATGAAAATGGAGTACCTCAGATTCTATTGACGGAAGTCGGTTATGTGTCCCTTACTGACGGTAAGTATCATTATTATTTGAAAGATCATCAGGGTAATAATCGTGTGGTTGTTGCTGAACATGGCAACGCGGAGGAAGTGAACGATTATTATGCTTTCGGCGGATTGATGTCAACAAGTTCCCGGCAGAGCGTCCAGCCTTATAAGTATAATGGCAAGGAGCTGGATAGTAAAGGTGGGTTGGACTGGTATGATTATGGAGCGAGGATGTATGATGCTGCATTAGGGAGATTTATGAAAACTGATAGATTTTCAGAGAAGTATGTTTCTTTATCACCTTATCAATATGGTGCAAATAATCCGGTGAATAATATTGATGTGAATGGAGATAGTATTTGGTATACTCGGAATGGTGATATTGTCACTATGCATGTAACTGCAAAGATATTTAATAATTCAAGTGATAATATAAATATGGCTAGAGCTGCCAAAGATATAGTTTCTGATATAAAAAGTACTTATGAAGGAAAATTTGAATGGAGCGATAATAAAACTTACAATTTAAAGGTTGATATGGATCTTAAAGTTGCAACTTCTATGAAAGATGTCGAAAACTCTGATCATTTATTTGTATTAGCAGATAGCGATAGTAAAGGAGCGCGTGGAGCAACAAGTATGTTAGGTGGAAAGGTTATGACTTTGGCTTCAAGCGATTTTGCTAATAATAATTGGTTGTCGAATAATTTGTCTTATAATAAAACTTTTACAGCTACTCATGAGTTTGGGCATGCAATTGGATTATCACATTCGCAGAATCCATTTAATATAATGAAGCAGGGAGGAGTTGTTCACAACAGCAATAGCAACCAAAGAGTTATCATGTTGCAGCAACAAAATAATCTAAATAATAATCTTGTTGTCGATATATATAATTTAGGTCTTAAATGGCGATAATATAGATGAAATTATGAAAGGAAAAAAAATAATAATAACGATAGGAATAATATTATGTGTGTGTTGTGTGTGTTTTACATCCAGAACTGCGTTAATATTTGTAGGTAACTCTTATGAAAATAGCAAAGAAATTAATGTTACTATTTCGGTGGATGATAAGGTATTATATAATGGCTTTTTAAAAGCTTATGAGATTCCAATGCTGTTGGAAAAGAAGAAAATGAGGGTCGGCTTTTACAAGGTTTCTGCGAAATGTAATAATATCCAAGTGCAGCATAGATTCTTTTATTTTTTTCAGAAAACTATTTGGATTGATTTTGATTTTGCAACTAATGACATATTATTAGTTTCGAAATTTTATAAACAAATACCATTATAATTTTATGTTATCTGTCTTATCGTAATATAAAGTTAATAAAACAGTCTTGCTCTGATATATAAGTTGTCTAAACTAAATCAGCATATTAGAGCAAGATTATTTTGTATGATGCAGCTATTGGATGTTGGTATGTAGTAGATCCGGAGTCTGAGAGATATCATTTGTTAAATCCTAACAATTACTGTGTGAATCTCTAGAGAAGGGCGGGTTAGTACAAATAGTAAGATGCCCTTTTATATTTCAAAAAGCTAGTATAATCTAACTGATATTTTATTTTTTTTCTTCTCCATAGCCTATTTCTATATGCAATTCTCCCCTTTTTCTTTCTTTTTTCTCATAAGAAAGAATATATTTGTACCTAAGTTAAATGAAAACCAGCGTATGATATGATAACAACCCAGTTGCTTCGCCCTGAAAGTATTGTTGTAGTAGGGGCTTCGAATAATGTACATAAGCCGGGTGGCGCAATATTAAAGAACTTGATAAACGGAGGTTATCAGGGAGAACTTCGGGCGGTAAACCCGAAGGAGAAGGAAGTACAAGGAGTTCCCGCCTTTGCAGATGTGAAAGATCTTCCTGATACGGATTTGGCAGTATTGGCTGTGCCTGCCGCACTGTGTCCCGATATTGTGGAAACATTGGCTGGTACAAAACAAACTCGGGCATTTATCATACTCTCTGCCGGATTTGGAGAGGAAACGCATGAAGGGGCGCTATTGGAAGAACGTATCCTGGAAACTGTGAATAAATACGGCGCTTCGCTGATTGGACCTAATTGTATCGGTTTGATGAATACCTGGCATCATAGCGTGTTCAGCCAACCTATCCCTAACCTGAACCTGAAAGGAGTTGATCTAATCTCCAGTTCCGGTGCAACAGCGGTGTTTATTCTGGAAAGTGCGGTGACGAAAGGATTGCAATTTAATTCTGTCTGGTCGGTAGGTAATGCCAAACAGATCGGTGTAGAAGATGTCTTGCAATTTATGGACGAGAACTTTGATCCCGAGAAAGATTCACATCTGAAATTGCTTTATATTGAAAGTATTCAGAACCCGGACAGATTATTGTTTCATGCTTCCTCTTTGATAAGAAAAGGATGTAAGATTGCTGCTATCAAGGCCGGAAGTTCGGAGAGCGGAAGCCGTGCGGCATCTTCTCATACGGGAGCGATTGCAAGTTCCGACTCAGCGGTAGAGGCGTTGTTCCGTAAAGCAGGAATTGTGCGTTGTTTCTCTCGTGAGGAACTGACGACCGTAGGTTGTGTATTTACTTTACCCGAATTGAAAGGAAAGAATTTTGCCATTATCACTCATGCCGGAGGACCGGGGGTAATGTTGACAGATGCGTTGAGTAAAGGCGGTTTGAACGTACCGAAGCTCGAAGGCGAATTGGCGGAAGAACTGAAAGCTCAACTTTTTCCCGGTGCTGCCGTTGGAAATCCGATAGATATTCTGGCTACCGGGACACCAGAGCATTTGCGTCTCTGCATTGATTACTGTGAAGAAAAGCTTGAAAACATAGATGCCATGATGGCTATCTTCGGAACTCCGGGATTGGTTACTATGTTTGAAATGTATGATGTGCTTCACGAAAAGATGCAAACTTGCAAGAAACCGATTTTCCCGATTCTTCCTTCTATCAATACTGCCGGAGCTGAAGTTGCAGCGTTTCTTGCTAAAGGGCACGTGAACTTTGCCGATGAAGTAACACTCGGGACGGCCCTTTCGCGTATCGTTAATGCTCCTAAACCGGCTGTTCCTGAAATAGAATTGTTTGGAGTGGATGTCCCGAGGATTCGTCGTATTATTGATTCGATTCCGGAAGACGGATATATCGAGCCTCATTATGTACAGGCATTGCTCCATGCGGCAGGTATCCCGTTGGTAGACGAATTTGTTTCGGATAATAAGGAAGAGATCGTAGCCTTCGCCCGCCGATGTGGATTCCCCGTAGTGGCTAAGGTTGTCGGTCCGGTGCATAAATCGGATGTCGGCGGAGTGGTGCTGAATATTAAAAGCGAGCAACACTTGGCGCTGGAATTTGACCGGATGATGCAGATCCCTGATGCCAGGTCGATAATGGTGCAGCCTATGCTGAAAGGGACAGAACTGTTCATTGGTGCGAAATATGAGGAGAAGTTCGGCCATGTAGTGCTTTGCGGTTTAGGGGGTATTTTTGTGGAAGTGCTCAAAGATGTATCTTCCGGTTTGGCTCCGCTTTCTTATGAGGAGGCTTATTCGATGATTCACTCATTGCGCGCCTATAAAATCATCCAGGGAACGCGAGGCCAGAAGGGAGTAAACGAGGATAAATTTGCTGAAATTATTGTCCGTTTGTCTACCTTGCTCCGGTTTGCAACGGAAATCAAAGAAATGGATATCAATCCGCTTCTCGCAACGGAAAAGGCTGTTGTGGCCGTAGATGCACGTATTAAAATAGAGAAATAAGACTATTTTTTCATTCATTGGGACGTATCTTCTATTTTTCGATTGTTATTTCACCTACATTTGGTAAGTTGAATAAAAGAAGTGTTATAAACCGAATATATGAAAAAAATTATAATAACGTTTATTTCTTTAATAATTGGAATTCTTAGCCGTGCACAAACGGTTAATGAACATTATTATTTTAAGAATCTTAGTAGCCAGAATGGGTTGTCACAAAACACAGTCAGTGCTATCTTGCAGGACTCGAAAGGTTTTATGTGGTTTGGTACGAAAGATGGATTAGATCGATATGATGGGGTATCTTTCCGGCATTTTAAGTACGATAGAAACAATCCGAGAAGTCTGGGCAATAATTTTGTGACTTCTCTTTATGAAGATATCGAAGGTAATATCTGGGTAGGGACTGATGTGGGAGTCTATATCTATTATCCGGAGAAAGATACTTTTCGTCATTTTGTAGAACAGAGTGACAAAAACACAAGGGTGGAACGAGCCGTTGCTATGATTTCAGGAGACAGTCAGGGAAGGGTATGGATAGCTGCAGAGGCGCAAAACTTGTTTTGTTATGATTTGAAAAAGCAAACCTTGAGAAACTATATTCTGACCGATCATCCATTGGTCTCTACCAATGTGAAATGCCTGACGGTTGATAATAGTGGTACTATCTGGATTGGCTTCTACGGTGACGGATTGTTTTATTCGAAAGATGAGTTGAAAACTCTTCATCCTTATATATCACCTATTGATAATGAGGAAACTTATAATAATGACGTTGTGAGCGAAATACTCCCGGGAGCATACAATTGTTTATATATTGGTTCTTTAAAAGGAGGAGTGAAAGAATTGAATCTGACTTCGGGTAAATTACGGGATTTGTTGTTGAAAGATGAAGATAATGAATCCATCTATTGTCGGACATTACTTTTTGCTACGGATAATGAGTTATGGATAGGTACAGAAAGCGGAGCTTATATTTATAATCTCCGTACGGGGAAGTATACGCACTTGCGTAGTTCTGAGTATGATCCCTATTCTTTGTCTGATAATGCAATTTATTCTTTTTGCAAAGACCGTGAAGATGGTATATGGATCGGTTCGTATTTTGGCGGAGTAAACTATTATCCGCGCTCGTATACCCATTTTGAGAAATATTATCCGAAAGGAGAGGAAAATAGTCTGCATGGTAAGCGGGTACGTGAATTTTGTCGTGATAACTATGGTGTGTTATGGATTGGTACGGAAGATGGCGGGTTGAACCGTTTTAATTTGAATACAAAAGAATTTTCTTTTTTTGCTCCTAGTGCGGGATTTACCAATATACATGGGTTATGTTTAGTGGACGATAAACTTTGGGTTGGCACATTCTCTAAAGGATTGAAGATTATAGATACCCGTACAGGGACTGTTTTGAAGACATATCAGAAGAACAGCTCTCCCCGTTCTTTGATTGATAATAGTATTTTTGCAATTTGTAGAACCGCTACAGGTGACATCTACTTAGGAACGATGTTCGGACTGGTCAAATATAATAAGCAATCGGACGATTTTGACCGTATACCGGAATTGAATGGGAAGTTTGTATATGATATAAAGGAAGATTCCGGTGGTAATATCTGGTTGGCAACTTATGCTAATGGTGCTTATTGTTATAATGTGAACGATCGGAAATGGAAAAACTATGTGCATGATGAAAAAGATACCACAAGTCTTTCATATAATAAGGTTTCTAGTATTTTTGAAGATTCCTATCACCGGATTTGGTTAACAACTCAGGGAGGAGGTTTTTGCTTATTTCATCCGGAGTCAGAGACGTTTACTAGTTATAACTCAACTGACGGACTACCTAGCGATGTTGTTTATCAGATTGTAGAGGATAAAGATGGACAGCTGTGGCTAACAACTAACAATGGACTTGTCTATTTTCAGCCAAAAACTGAAACGATGAAAGTATACACTACTGCCAATGGTCTGTTGGGTGATCAGTTTAACTATCGGTCCAGTTTTGAAGATGAAAATGGAATGATTTATTTTGGTGGAATTGATGGTTTTATAGCTTTTAATCCTAAAAGCTTCTCGGAGAATAAGAATCTTCCCACAGTAGTGATTACAGATTTCTTGCTGTTTAATAAAGAAGTGTATGCAGATGAACCTAATTCGCCTTTGGAAAAGAATATCACTTTTTCTGATAAGATAGTACTCCGGGCTGATCAGAATTCATTTTCTTTCCGCATCTCGGCTCTTGGTTATCAAGCTCCCGGAATGAATAAACTGATGTATAAATTGGAAGGGTTTGATAATGAGTGGTTATCTATCGGTGAGAGTCCGTTGATAACCTATGCTAATCTGCGTTATGGTGATTATATATTTCGGGTGAAAGCTGCAAATGACAATGGCGTTTGGAATAATAATGAAATCTCGTTGAGCATCCGGATTTTACCTCCTTTCTATCTGTCAATTTGGGCTTATTGCATTTATATACTTTTGATTATTGGATGTTCCGTTTATTTGATTCTTTATTTAAAACGCCGTAGTAATAGAAAACATCATCGGCAAATGGAGAAATTTGAGCAGGAGAAGGAACGTGAAATATATTATGCGAAAATAGATTTCTTTACGAATGTAGCTCATGAGATACGTACTCCTTTGACGTTGATTAATGGTCCTCTGGAGAATATTCTTCTGAAAAAGACGGTGGATCCTGAGATACGGGAGGATTTGAATATCATGAAACAGAATACGGAACGGTTGTTAAGTTTGACGAACCAGTTGCTGGATTTCCGTAAAACAGAGAGTCAGGGATTCCGCTTGAACTTTGCCGAGTGTAATGTTACTGAGGTACTGAAAGAAACTTATAACCGTTTTACATCTTTGGCGAGACAGAGAGAACTGGACTTTGTATTGAATGTAGCCGAACAGGACTTCTATGCACATGTCAATAAGGAAGCATTTACTAAGATTGTTAGTAATTTGTTGAATAATGCTGTGAAATATGCAGAAACATATGTACATGTGTTTTTGGAAATGAACGGGATAGGAGAAAAGAGGATGTTTTATATTCGTACAGTGAATGATGGCGTTATCATCCCGAATGAAATGAAAGAGGAAATCTTTAAACCTTTTGTCCGTTTCAATGAAAAAGAAGATGGTAAAGTTACCACAGGAACAGGAATCGGATTAGCTCTCTCACGTTCATTAGCTGAATTACATCAGGGAAGTTTGATGATGTTGGAAGGTGAAGAGGCAAATGTGTTCTGTCTGTCGCTTCCTGTGGAACAGGATAGTGTAATAAAGCTGACTTCGGAATATAAATCCGTAGAAGAGGAGAATGTGGTGGAACGGCGGACGGAACTAGCGGACAGCAGGGGAGACAAACCGGTAGTGTTGGTAGCGGATGATAATCCGGATATGTTGTCTTTCATTGTTCGTCAGTTGGAAAGTAATTATGTCGTTGTGACTGCCAATGATGGTGTGGAAGCATTGAAAGTATTGGATAATCAGGAGGTTTCATTAGTGGTAAGTGATGTTGTTATGCCTCGTATGGATGGATTTGAATTGTGCAAGTTGATAAAGTCTAAATTGGATTATAGTCATATTCCGGTGATTTTGCTTACTGCTAAAACGAATATTCAATCAAAGATAGAAGGGTTGGAATTAGGGGCAGATGCATATATTGAAAAACCTTTTTCTGTTGGGTATTTACAGGCTTGCATCGCCAATCTGATCAATAGTCGTGAAAAGTTGCGGCAAGCTTTTGCCCAATCTCCTTTTGTTGCAGCTAATACGATGGCTTTGACAAAAGCTGATGAGGAGTTTATGAAAAAGCTGAATGAAATCATTCAGAATAATTTGCATAATCCGGATTTTAGTATGGATGATATAGTAGACTCTTTAAATATGAGTCGTTCTAATTTCTATAGGAAAATTAAAGGTGTACTTGATTTAAGTCCGAATGAATATCTACGGTTGGAAAGATTGAAACGGGCTGCTCAGTTATTGAAAGAGGGAAATGGGCGGGTAAATGAAATTTGTTATATGGTAGGCTTTAATTCTCCTTCCTATTTCTCTAAATGTTTTCAAAAGCAATTTGGTGTACTCCCTAAGGAGTTTGCCGGTTAAGTTTATTATTTGGTTCTCACAAAAGTATTGGTGTTGTATATAGATATCTGTAGGGTACATATCCTGCAGATCGTAGACTTATGTGCTTGATAGATAGAGGGATTAGAGCGTTGTAATAATGCAGCGGAGGAGCTCTATATCTTTCTAAAAAATAGGCTAATATGATAATTTATGGGATATTTGTTCCATTTATATTTCATTTGAAACGAATTTGCTATTCTTTCTTTTGTTTGAGACAGTATTGCGATTTATTGGGATATTTATTTTATCAGGAAATCCTCTCATCCGTTAATTTTGCCTATGTTAATCAATCAAAAATACTATGATAAAACCATTGCATCAATTAAAGAAGCTTTTTATCCTTTGTGGGCTTCTTATCAACTGGTATCGGGAATATTTATAATGAAATAACCTTTTTATTAATAATTATGAAAACAAAAACAAGAGATCTAAGCACATGCTTAAAAAGGCGGTTGTGGATTGTAGGTGTATGTCTGACGACCTTTTCTTTTCTTTCTGTATCTGTTGCATATGCAGTCAGTGATAATCAGACTGTCCAGCAGCAAAAAAAAGGAATGGTGATTAAAGGTAAGGTTTTGGGTACAGACGGTGAACCTATTATCGGTGCATCTGTATTGGTGAAAGGCTCTACTACTGGAGTTGTTACTGATTTGGATGGTAACTATACACTGTCTAACGTTTCTAAAGGAGCTATTTTGGAATTTAGTTATGTAGGTTATGTAAAGCTGACTAAAACCGTAGGAAATGAAACAACCATAAATGCAATTCTGTATGAGGACTCTCAGATGTTGGAGGGAGTTGAGGTTGTGGCTTTTGGTACACAGAAAAAGGAGAGTGTTATTGGTGCTATTTCAACCGTGAAAGTGGCGGAACTGAAAACACCCTCCAGTAATCTTACGAATGCACTTGCCGGGCGTATTGCAGGAGTAATCTCTTATCAGAGAACTGGTGAACCGGGGGTGGATGACGCCTCTTTCTTTGTTCGCGGTGTTACAACTTTCGGATATAAAAAAGATCCGTTGATTTTGATTGACGGCATTGAGTTAACTTCTACCGATCTGGCTCGTTTACAGCCAGATGACATCGCCAGCTTTTCTATTATGAAGGATGCTACTGCTACCGCTCTTTACGGTGCCCGTGGTGCAAATGGTGTGATTCTGGTGAAAACCAAAGAAGGTCAGAAGGGAAAAGCACGGTTAAGCTTAAGAGTTGAGAACTCAATATCCACTCCGACTCAAGAGATAGAATTGGCAGATCCTGTTACTTATATGCGTCTGCACAATGAGGCCTATTTAACTCGTAATCCGTTGGCGCCGTTGATGTATTCTGAGGAAAAAATAGACAATACTGTACCGGGGGCGGGATCTGTAATTTATCCGGCTACGGATTGGAGAAAGGAATTATTAAAAGATTTTACGATGAACCAGCGCGTCAACCTGAATATTACAGGTGGTGGTGATGTCGCACGTTACTATGTGGCAGCTTCGTATAGTCAAGACAATGGTATTCTGGAGGTTGATAAGAACAGTAATTTTAATAATAATATCAAACAGAGAGTTTATACTCTTCGTTCTAATGTGAATATCAACGCTACCAAGACAACAGAATTGATTGTCCGTCTAAGTGGTGTGTTCGATGATTATAACGGACCGTTATATGGTGGTTCGGCTATGTACAATCTGATTATGAAGAGTAATCCGGTATTGTTTCCCGCTAAATATCCCAAAGATGAAGCTCATACATACACGAAACATACTTTATTTGGTAATGCTGAAAATGGACAATATTTGAATCCGTATGCAGAAATGGTAAGAGGATATAAAGAATCCGGCCGTTCTAATTTGAGTGCGCAGTTTGAAGTGAAACAGGATCTGAAATTCTTGACGGAAGGTTTATCGGCACGCTTGTTGTTTAATACTTCCCGTATCTCCAGTTATGATGTTTCACGTAAACTGAATCCATATTATTATAAGATGACTAATTATGATTATCTGACCGGTGATTATGCCATTGATATCATTAATCCGGATGACGGTTCGGAATATCTGATTTATGATCCGGGTGGTAAGAGTATTACGGCTAATATGTATATAGAGGCTGCATTGAATTATAATCGTGATTTCGGAAAACATGGAGTAGGCGGATTATTAGTCTATCAGTTGAGAAATAACCTTCAGCCGAATGCAGGCTCGCTTCAGGCATCTCTGCCTTACCGCAATGTCGGTTTATCGGGGCGTTTCACTTATGCATATAATAATCGTTATTTTGCAGAGTTCAACTTCGGGTATAATGGTTCCGAACGCTTCCATAAAAGTAAACGGTTCGGTTTCTTCCCTTCTGCCGGTTTGGCATGGGTTGTTTCTAATGAGTCTTTTTGGGATCCATTTAAAGATGTAGTATCCAAGTTGAAATTGAGAGCGTCTTATGGTATTGTTGGTAATGATGCTATCGGAAGCGGGCGTTTCCTGTATTTGTCGGATATCAATATGAATGATAGTAAGTATGGGGCAAACTTCGGATATAATTATGATTATCATCGGGATGGTATTTCGGTAAAGCGATATTCTGATCCTGAAATTACATGGGAAAAGTCTGCTAAAACAAACTTTGCACTTGAGTTCACTTTATTTAATGATTTGAATGTGACGGCAGAGTATTATACGGAACGCCGTAAGAGTATTTTGCAACAACGAACTTCGATCCCGGCATCTATGGGACTTTGGGTACAACCTTATGCAAACTTGGGAGAGGCCAAGGGGCACGGAGTTGACTTATCGTTAGATTATAATAAATATTTCGCCAATAAATCATGGTTGCAGTTGAGAGGAAACTTTACTTATGCGACAAGTGAATATATGGTGTATGAGGATTATGAATATCCGGGAGCATGGTGGAAACAGAAAGTGGGTTATCCAACTAATCAGACTTGGGGATATATAGCAGAAGGTCTATTTGTTGACGACAATGAAGTGGCTAATTCTCCTGTGCAATTTGGAGAATATGGTGCAGGTGATATTAAGTATCGTGATGTGAACAAGGATGGTAAGATTACTGATCTCGATCAGGTACCTATCGGATATCCGAAAGAACCGGAAATTGTATATGGTTTTGGTGCCTCTTATGGATATAAGAATTGGGATATATCAGTGTTTTTCCAAGGATTGGCTAGAGAATCATTTTGGATTGATTATAATAATGTATCTCCATTTTTTAACACGGTTGATACAAAAGTTGTAGGTAATAGAGTTGGGCATAATGCACTTGCAAAGTTTATTGCAGATAGTCATTGGTCGGAGGATAATAGAGATGCTTATGCGGTATGGCCGAGATTAAGCCCGACTTCTATTGAGAATAACAGTAAAACGAGTACTTGGTTTATGCGGGATGGTTCGTTCTTGCGTTTAAAACAATTGGAGATTGGTTATACTATTCCTGAAAAAGTGACTAATAAAGTAGGAATCAAGAACCTTCGATTCTATGTTACAGGAAACAATCTATTATGCTTTAGTAAATTTAAACTTTGGGATCCTGAAATGGCAGGTTCCGGCTTAGGTTATCCTGTACAGCGTGTGTATAATATAGGACTAAATTTAACTTTCTAAATTTGATATAAAATGAAAAAAATACAACTGTTTATATTAAATTGTTTGATTATCGCTTTATCTTCATGTGATTCATTCTTGGATATTGTTCCGGATGATATTGCTACAATCGATAATGCATTTACAATGAGGGCACAGGCAGAGAAATATTTGTTTACCTGTTATTATTATCTTCCGGCTCATGGCCTGTTGGAGGCAAATCCGGCAATTGCCGGTGGTGACGAACTGTATATTACGGAGTCTTTTCGTAGTGCAGCACACGTACATGCATGGTATATTTCACATAATATGCAAAGTTCGGCAAGACCACGCTGTGATTATTGGACCGGAGCCGATCAACAGAATAACAAATCATTGTATCAAGGAATCAGTGACTGTAACATCTTTCTGGAGAATATTCAGAAGGTACCTGATATGACACAAGCAGAGAAAGACCGTTGGGCGGCAGAAGTACGTTTCTTGAAAGTCTATTACCATTATTGGCTGATTAGAATGTATGGACCAATTCCTATTATGGATCGGAATATTCCGGTAAATGCAAGTGAGGATGAAGTAAAGGTTTTTAGGAGTACTATAGACGAATGCTTTGATTATGTAATCAATTCTTTAACCGAGATTATCAACAGTAATCATTTGCCTGATAAGATAATGAATGAGGCTGAAGAGTTGGGACGAATTACTCAAGGAATTGCAATGGCAATAAAAGCCGAAGTGATGGTAACTGCTGCCAGTCCTTTATTTAATGGAAATGCTGATTATAAAGGATATACTGATTCCAGAGGTATTGAACTATTCAATCCGAATAAATCGGAACAGGCCAAAAAACAGCGTTGGATAGATGCTGCGGAAGCTTGTAGGCAGGCTATTGATTTTCTGAAAGCTCAGGGACATGATTTATATAAATATACTTCTCTTGAATACACAATATCCGATCAGACCCGTGCGAAAATGAATATTCGTAACATTGTGACGGAAAAGTGGAATCAAGAAATTATTTGGGCTAATTCAAATAGTATTATCGGACAGTTACAGGATCATGCTATTCCACGTGGATTGGAACCGGGAAAAGAAGGAAATGCGAGTGTTGGTGGTAATTTGGCTGTCCCTCTAAAAATAGCAGATTTGTTTTATACAAAAAATGGAGTTCCTATTACAGAAGATAAGACATGGAATTATGATGATCGTTTTGAATTGAGAAAAGCAACAGCTAATGATAAGTACTTTATCAAGGAAGGGTATACAACAGCTAATCTGAATTTTGACAGAGAAGTACGCTATTACGCAAGTTTAGGATTTGATGGTGCAGTCTGGTTCGGGCAGGGAGTGACAGATGAGACGAAACCGATTTATGTGCAATGTAAACAAGGACAGTCTGCTGCCAATCAGATTGCGAATTCATGGAATGAAACAGGTATATGGCCTAAAAAACTAGTTCATTTTAAGAGTGTGGTAGGGCAGACCAGTGGTTTTACTAAGATTACATATCCGTTCCCGGTGATGAGATTGGGTAACTTATATCTGTTGTATGCTGAAGCTTTGAATGAAAGTGGTGCTACTAAAACTGATGTTCTGACTTGGGTCGATTTGATCAGAGAAAGAGCAGGACTGAAAGGTGTGGAAGAAAGCTGGGATACATATACGAACAATAAGAAATATGAAACAATAGATGGCAGACGTGAGATCATACAACAGGAACGTGGAATTGAATTGGCATTCGAAGCACAGAGATTTTGGGACTTACGTAGATGGAAATTGGCATTTCAGGAACAGAATAAGCCGATAACTGGTTGGAATACTCAGTATAGCACAAATGAAGATTACTATACAGAACAATTGATTTATACTCAAGAGTTTAGAATAAGAAACTATTTCTGGCCGATTTTAGATAAGGAACTATATTCGAATAAAAACCTGGTACAGAATTATGGTTGGTAAACTTTAAAATAAAAACGTTATGAAGAAGAAATTTTATAAATATGGGTTGTTTTATATAGGAGTTGTTTTGGCTGCTTGTGCCGACAATGCTGATCTGAACGAACCTACGGGAAGTACGACACCACCGTCACAGGTGCTGAATGCGACGGTAAAGAATCTGCCTGGTGCAGCAATTATCTATTATGATTTGCCGGATGATCAAAATTTAAAATATGTTCGGGCTAGCTATAAAGTTGATAATATGATTCGTACAGTTAATGCTTCTTTCTATACAGATTCTTTGGTAGTAGAAGGATTCCCTACTAAGGGAGAGTATGACGTTGAACTTTATTCCGTTAGTTATGGTGAGGCTGTCTCTACTCCGCTTGTGGTAAAAGTAAGTCCGGATACTCCTCCTTATCAGAAAGTGCGTGGAACATTAATTTCAGCTGAAACATTTGGCGGTATCAAAGTGAACTTTGATAACCCGGAAAAGGCTAAATTGGGACTGGGGGTCATAAAGAAACAGGCAGAAGGGATTTGGACACAGGTATATATGCATTATACTGAGGCTAAAGGTGGTGATTTCTATGTACGCGGCCTGGATGCTGTTACTACAGATTTTGGTATTTTTGTCAGAGATAGATGGGGACATCTTTCTGATACATTGTATGTCACTGAGACTCCTTTGTATGAAGAACAATGCGATAAGTCTTTGTTCAGGAAGATGGCTTTGCCGACTGACTCTTATGAGTGCCACTCATGGAATGAAGTGACGAAAGGAAATGATATGACGCGGCTTTGGGATGGAATCACAGATACAGATCCTTGTTTTCAAACCAAGACGACAACAGTAATGCCGCAATGGTTTACCTTTGATATGGGGGAAAAGTATAAATTGAGCCGATTTGTAATGGTTTCACGTTATTATCCGGGTAAGTATGGTAATACATTTAAAGCAGGACACCCGAAGCATTTTGAACTGTGGGGTAGTAATGATCCAAATCCAGATGGTAGCTTTGATGATTCTTGGGTATTACTTTCTGAATATGAGTCGGTGAAACCTTCAGGAGGTGGTGTAAACGATGCTCTTACAACAGAGGATCAGGAAGCTGCGAAAAATGGTGAGAATTTTATTATTCCTGATAATGCTCCGGCTGTACGTTATATTCGTTTTAAAACGAATGACACATGGGGGAAAACACGTTATATGCATCTTCACGAACTTACGTTTTTCGGTGCGAGGCATAATTAGTAACAAGTAAAAGATAATGCTATGAAACTATTTAAAAAACTGATTTTTATATTTTTAAGTATAGGTGCCTTGATCTCTTGCGATGGTATGGATGCCACGTATAAAGAGTTTATAGAAGAAGGGCCTATTGTATATATTGGAAAAGTAGATTCACTGAAAGCTTATGCAGGACGTAATCGGGTTATGCTCGAATGGCAGAAATTATTTGATCCTCGTGCTAAAACGGCAAAAATATTCTGGGAAAACAGAACGAAGTCTACTGAATTACAATTGACAGATAAAGCAACTCTTACTCAGGTTGTAGTAGAGGATTTGGCGGAAGGCTCGTATGTCTTTGAAATCTGTACATACGATACGTATGGTAATTCTTCTATTATGTCGGAGGTTCCTTGTGCAGTATATGGTGATGTTTATGAGAAATTGTTGTTCAATACAAAAGTAAAGACGGCGGTTTTAAAGAATGATGTATTGACCGTTACTTTTGCAGCTTCGCTTGAACCAACTTTTTTTGCTTCTGAAATTACTTATATGAGTTCTGAGGGGAAAAATAAAACTGTGCTTTTGAAAGCTCCCGCAACACAGGTGAAGATAGATGATTTCGCAGGAGACCATATCACTTATCGTTCCGTTTATTTGCCGGAAGAAACCGCCATAGATTATTTTTATAGTGAGTCGGATGAGCTTGAAATCAATTAAAAGAAATAGCAGAGATAACAAAAAGGATTTATAAGGTCATTTTTCTTACTATAGAATTATATGAAAGCCTTGTATCTTTTGTAGTAACGGGTACTACAAATGGTACAAGGCTTTTTTTTATGCTATATGCATCAATTATCCCATTCATGTTTCATTTGTCTATATCATTTTATTTTGAGACGTTTTTGTGATTTATTGGGATGTTTATATCATCTATATATTGTGCGAACCTCTAATTTTGCCTGTGTTGATTACTGCAAATGATAAAACTAGTTATATATGATAAAACAATTATTTTCAATAGGAATAGCTCTGTCATTATTTTCTCAGATGTTATGGGCACAATGGACCCCTGTAGGAGATAGGATCAAAACTTCTTGGGCGGAGAAGATAGATGTGAACAATGTATTACCGGAATATCCGCGTCCTATTATGGAGCGTTCTGAGTGGTCTAATTTGAATGGTTTATGGAAGTATGCAGTTTTACCGTTGGGAAAATCAATTCCGGATTCTTTTGAAGGTGATATATTAGTACCATTTGCTGTCGAATCCAGCCTTTCGGGAGTCGGAAAGACATTGGGAGAAGATAAAGAATTATGGTATCAGCGTGAGTTTGTTATACCCTCTAAATGGAGAGGAAAAAGGATTTTGCTTCATTTTGGAGCTGTTGATTGGAAAACTGAGGTATGGGTTAACAATATAAAAGTAGGAGAACATACAGGAGGATTTACTCCGTTTACATTTGATATAACCCAAGCTTTGAAGAACTCGGAAAATAATTTGGTTGTCAAAGTGTGGGACCCGACAGAAAAAGGTACGCAGCCACGCGGAAAGCAAGTGAGTAATCCTCATGGTATCTGGTATACGCCGGTGAGTGGTATCTGGCAGACTGTATGGTTGGAACCGGTGTCTGAACACTATATTACAGATATAAAAACAACACCTGATATAGATTTGAATAAGGTTAAAGTAAAGGTTGAAACAGATGACAATAGGTATTCAGATAAATTTGAGGTAAAAGTGTTTGAAGGAGGGCGTCTGGTGGCTGTGGGAACATCAATTAATGGGTTACCAGTTGAGGTTTCCATGCCGGCTGATGCCAAACTTTGGTCGCCGGATGAACCATTCTTATATCAGATGGAAGTTTCTTTATTTGAGGGAGGAAAACGGGTAGACTGTGTAAGGAGTTATATGGCGATGCGTAAGTACTCTATGAAAAGAGACAAAAAAGGTATTGTGCGTTTACAGTTAAACAATAAAGATCTGTTTCAATTTGGTCCGTTAGATCAGGGTTGGTGGCCGGATGGATTATATACAGCTCCTACGGATGAGGCATTGTGTTATGATATCAAGAAAACGAAAGATTTGGGCTTTAATATGATAAGAAAACATGTAAAGGTAGAGCCTGCACGTTGGTATACATACTGTGATCAAATGGGAGTAATTGTTTGGCAGGATATGCCTAATGGTGATAAAACCTTGGAGTGGCAGAGAAAGAAGTATTTTGATGGAACGGAACTGACACGTTCTCCTGAATCTGAGGCTACTTATCGTAAGGAATGGAAAGAAATTATTGATTATCTCTATTCTTATCCTTGTATTGGGACTTGGGTGCCCTTTAATGAGGCTTGGGGGCAATTTAAGACAAGTGAGATTGCAGAATGGACCAAACAATATGACTCTACACGTTTGGTCAATCCGGCAAGTGGTGGAAATCATTATACTTGCGGTGATATGCTTGATTTGCATAATTATCCGGGGCCGGAAATGTATTTGTATGATGCACAACGTGCTACGGTACTAGGAGAATATGGGGGGATTGGTTTAGTTTTGAAGAATCATCTTTGGGAACCCAACCGGAATTGGGGATACATCCAGTTTAATACATCTACGGAAGCTACTGCTGAATATCTGAAGTATGCAGAAATGCTGAAAGAAATGATAAAGCAAGGCTTTTCTGCAGCTGTTTACACACAAACGACAGATGTAGAAGTAGAAGTGAATGGACTGATGACTTATGACCGTAAAGTAATAAAGCTGGATGAAGCAACATTGAAGAAGATCAATAATGAGATTTGTAAAACGTTAAAATAACAAATATAGAGATTTTATATTTACCATGAGAAAAATACTTATTTTGGTTTTTAGTCTTTTTTCGATATTCTCTACAGTAGAAGCGAAAAGTAAGAAGGGACAAGATCGTGTGTTAATTGATAAAGTTGCCATGTGGCAGGTAAATCATCAGTCAAAAGTTAAACATCATGATTTGGCGTGGACAAACGGAGTCTTGTTCCGGGGGATGGTAGAATGGGCAGATTATACTCAAGACTCCCGTTATTATGATTTTCTGATGCAGATAGGGAAGAAACATCATTGGGGGTTCTTAAAACGTCTCTATCATGCGGACGATCTTGTTATAGCACAGATGTATATTCGTATGTATGAGAAATACCATGATCCTGCAATGATTCAGCCTACAATTGCCCGTGTAGATTCTGTTGTTGCTAAACCTTCGAAGGCCCGTTTGTGGCTCGGAGCAAAGAATTGGTCGGAACGTTGGTCATGGTGTGATGCGTTATTTATGGCTCCGCCGGTATACGGGTTGTTGAATAAGCTCTATCCGGAGAAAAACTATTTGGCTTTTATGGATAGGGAATTTAAAGAAGCTACAGATTCTTTATATGATGCGGATGCTAAGTTATACTATCGTGATAGAAGATATATTCCCAAAAGAGAGAAGAATGGCGAGAAGGTATTTTGGGGAAGAGGTAATGGTTGGGTGTTTGCAGGAATACCTTTGTTGTTGCAAACTTTGCCTAAAGATCATCCTACTTATGATTATTATCTGAACATTTATAAAGAAATGGCTTCCGCTATAGTTCAGTGTCAGGATAAGAATGGTTCTTGGCATGCCAGTATGCTTGATCCGGATTCATATCCTTCCCCTGAAAATAGTGCTTCCGGATTTTTTGTTTATGGCTTGGGCTGGGGAGTGAATCAAGGAATTTTGAAAGATAGAAAATATAAAAAAGCTGCCCGTAAGGGGTGGAAGGCTTTGAAAAGCTATGTTCATGAAGATGGCATGCTTGGATATGTCCAACCGGTTAGTGCTGCTCCTGAACAAGTGACTCAGAATATGACTGAGGTATATGGGGTTGGAGCATTCTTGATGGCAGGAATTGAGATGTTGAAAATGAAATAGCCTTTTAATAATAATTAAACTTATACGAAATGGAAAGACATTGTTTTATGAAAGTGAGAATCTTATGGTTAATCGCTTTTCTGTTGTTTACCGTTCAACTGTCTGCTCAACAAAAAGTAACAGTGAAAGGTAAGATAACTGATGAACATAATGAGCCTGTTATTGGGGCTAATATAATGGAGAAAGGTACAACGAATGGAGTTATTTCTGATTTTGACGGATTTTTTACTTTAAATGTTTCTTCCGGAGCTACCCTTGTAGTATCATATATAGGATTTGCTCAGCAAGAAATTCCTGTCAAAGACAAACGCGATTTTGTGATTCGTCTGGCAGAAGATTCAGAAACGTTGAATGAAGTAGTTGTGATTGGTTATGGTAGTGCTCGCAAAAGAGACTTGACTGGTGCAGTAATGCAAGTAAAGTCTGCGCAGTTGGAAAATGAAAGTCCTTCCTCCATGCAAGACTTATTAAGAGCGAATGTTCCGGGATTGAGTGTTGGTTTTAGTGCAGGTCCCAAACCGGGTGGAAGTCTTTTGATTCGTGGAAAGAACTCAATTAATGCTGGAACTGATCCGTTGATTGTATTGGATGGAGTTATATATCCGGGTGACTTGGCCGATATTAATCCGAATGATATAGAACAAATTGATGTGTTGAAGGATGCTAGTTCTGCTGCTATTTACGGAGCGCGTTCTGCTAGTGGAGTTATTATCATCACTACAAAGATGGGTAAAAGTGAAAAACCGACAATTAGTTTTGATGCTTCTATAGGTGTAGCTACTCAGGCTATAGTTCCTGAAGTATATCAGGGAGATGAGTTTACTGCTTGGAGGACGGATGTCTTTAATAGTGCAAATCCGAACCATAGACCTTATGAGTTTAATGACCCTCGTAAATTACCCGCAGATGTTTCTATTGAAGATTGGATGAAATATGATAATTCGACGGGAGATCCTGTAGAGACTTGGTTGCGTCGAATTGGCTTTAAGAACTTGGAAATACAGAATTATTTGGATGGTAAATCTGTAGATTGGGCCGATATGGTTTTTCAGAATGGTCTTCGTCAGGATTATAATGCAAGTATTTCGGGAAAGACAAAAGGGGTAAATTATTATTGGTCTATGGGATGGACAGACAATGAGGGCATTATTGTAAATAACGGATATAAATCATTTAAGACTCGTTTAAATCTGGATGCCAAAATAAATAAGTTTCTGACTGTGGGATTAAATGCGCAATTTGTACAACGTGATGCCAGTGCTATCGGAGCGGATTGGGTTCAGTATCAGAAGCTGACTCCATATGGAAGTCCTACTAATGAAGATGGAACAATGAAGTTGAATCCGGGAGATGACACGTCAGCGAAGCATCCTTTGATCGATTCTTATTATACAGATAAGAGAAATGTGATAAATAATTTGAATGCTAATATCTATGCTAAGGTATCTTTACCTTTTAATATATCTTATCAGATGAATTTCTCTCCACGATATGAGTGGGCTACAGATTATGTACATAAATCTTCGGAACATCCAAGCTGGAAAGATTTTGGGGGTTCTGCTTCACGAACTTTTAGAAATGATTTTCTATGGCAACTTGACAATATAGTAAAGTGGAAACAAACTTTCGCCAAAGTACATGACGTGGATTTCACTTTCTTATTTAATGCGGAGAAGTTTCAAAGATGGAGTGATGAAATGAATAATGAAGGATTTGATCCAAATGATGATCTTGGATATCATTATATGAAAGGTGGAATATTGCCTACAATTAGTAGTAATGATGAATATAGAACCGGTGATGCATTGATGGCACGTTTATTTTATTCGTATGACAACCGTTATATGATTACCGGTACGGTTCGGAGAGATGGCTATTCTGCGTTTGGACAAAAAAATCCTCGGGCGGTATTCCCCTCAGTTGCTGTCGGCTGGGTATTCTCTGATGAACCTTTTTTGAAGAAGTTAAATTGGTTGGACTATGGAAAGCTAAGGTTCTCATGGGGATTAAATGGTAATAGAGACATTGGGGTTTATAGAGCTTTAGCCAGAATGGGTAATAGTAAATATATGTATGTAAGTCCGGATGGAAAGGTTTATAATGGATCCTATCTTTATGTGAATTCTTTGGCTAATAAAGAATTAAAATGGGAACGTACGGCTTCATTCAACTTAGGATTGGATTTTTCTATATTTAATGAACGGTTAAAAGGAAATATCGATATTTATAAAGCTAACACGAAAGACCTTCTTATTGAACGTACATTACCCGAATTGATCGGATTCAGTTCAGTGATGTCTAATTTAGGTGAAGTAGAGAATAAAGGCATTGAACTTAGCCTGACATCGAAGAATATTGATACAAAGAATTTTGCATGGAGTTCAACATTCAATTTTACTTTGAACAGAAATAAGATTGTTCACCTGTACGGAGATATGGTTGATGTTTTAGATGAAAATGGGAACGTAGTAGGACAGAAAGAGGCTGACGATATCAAGAATAAATGGTTTATAGGTAAGTCTTTGGATGAAATATGGGGATTGGAAGTTATTGGAGTCTGGCAACAGGATGAAGCGGAAGAAGCAAAGAAGTATGGTGTAGCTCCTGGTGATTTTAAGTTGAGGGATGTTGATGGAAACGGACAGTATACAGATGAGGATAAAGTATTCCAAGGGACAACTAGTCCGAAATTTACATGGACATTGCGCAATGATTTCAAGATATATAAGAATATAGATGTTTCTTTCATGTTGTATTCTCTTTGGGGGCATAAAGGTACATATGATGTAGCTAAGCATAGTGGAACCACGGTATATAATGATAGACAGAATGCTTACAAGTTACCATACTGGACTCCGGAAAATCCGACAAATGAGTGGGCAAGAATTGATTCCAGTACAGGAGGAAACAGTTTTTCTGTATATCGGAAAAAATCATTTATTCGATTAGATAATATATCTGTCGGATACAATGTTCCATCACGTTGGATTACTAAATTGGGATTAGGCTCATTGAGAGTTTATGCTAATGTAAGAAATGTAGCGGTTTGGGCTCCGGATTTTAAACTTTGGGATCCGGAAAATAGTAGTCCTACTCCTCGTACGTATACTTTTGGTATTAATGTGACTATGTAATTAACTTTTAAGAATCAATGTTATGAATAATATTAGTAAATTAGTGATAATAGGATCTGTTGCGATAACTCTTTCGAGTTGTGGGGACAGCTGGTTGGAACCTAAACCTCTTTCATTTTATTCTCCGGAGAATACTCTGGTAGATGCTAAAGGTATGTGGGCTGCACTTGGTACTTGTGAGAAAAGGATTAAAGCGGAGTTTTATGGAGATGGACCTGCCATTATTACCGAACATATTTTTTCTGAGGTAGCTATTGAAGGAACTACGGACAAAACAAGTGTTGCTCAAGATCTAAATGCGGTTATTACGCCTGATAAAAATTTGAATAGTCCTAATGCCAATAGAGTAGGTTGGTATTGGAATGAAGCGTATGATAATATTAGGTATGCTAATACTGTGATTACACGTATTGATGAAGCAACTTACTCGTCTGAACAGGAGAAGAACGAGATATTGGCTACTGCTTATTTCTTTAGAGCTTATCACTATTATCGTTTGATAAATCAATTTGGTGATGTGCCTTTACTATTGAAAGAATTTACAGAGGCGAAACTCGACTTCTATACAACGAAGCGTGAGGTCATTTTAAATAAAATGATCGATGATATGAAGTTTGCTTGTCAATGGATGCCTGAGGTGGTTGATAGAGGAAAAGCTCCACGTGCGGCAGGCTATCATTTGTTGGCAAAGTTATATTTGGCTGCCGGTTTGTTTGATGAAGCCATAACAGCAGCTACGGCTGTAATAAGTGACCCGCGTTATGAATTGATGAAAAATAGATTCGGAGCAGAAAAAGCTGATGCTACTAAAAATGTGATTTGGGATTTACATCGCCCTGAAAATAAGGCATTGGCAGAAAATAAAGAGACTATCTTGTTGGTTATTGACAGATACCTTGTAGAAGGAAGCCAAGGTGATGGAATCAGAACGATGAGAAATGCAGTGCCTTATTATGGAAATACGAAGAATGCTATATTGACTCCTGATGGTAAACAGGGAGTAACAGACAAAAAGGATCCGACAGGAACAGTTAAAATTTCACTAGTTAAAAAGTATGGACGTGGAATCGGACGCTGTCGGGGAACAGCTTATTCTACCCAGTATATTTGGGATGATCCGAATGATTTGCGTCATGCAAAAGGAAATTGGATGAATATGGAGGATTTAGTATATAATGAACCTAAGTTGGAGGGGAAAAATAAATATTATGGCAAACCTTTACAGCTTTATGGAGAGACTGGACAGCTGTTGTGTAAAGATACAATTCGTAGTTGGTTTGGTTGGCCGCATTACAAATTATTTATACCGGATCCGGACAGAGTAGATCAACCGGAAGGTGGTAATACAGACTGGTATGTATATCGTTTGGCGGAAACCTATTTGTTGCGTGCAGAGGCTTATTGTTGGAAAGGCGATGCTGCTAGTTTGCAGAAAGCGGCAGATGATGTGAATGAAGTAAGAAATAGAGCGGGTGCAGGTGATTTGGCGGCATCTGATATGAATATTGGAACAATTTTGGATGAACGTGCGAGAGAGTTATATTATGAAGAACCTAGAAAAACAGAGTTGACTCGTATTGCTTATATATTTGCACAAACGGGAAAACCCTCTTATACTGGTAAGGTCTATAAAATGGATAATTTCTCAGAAGATAATTTCTTTTATGATAGAATTATGGAGTCCACCGATTTTTATAATAAAGGAGTTAAAACTATTTCTAATGTGGAATTTACAATGAGTCCGTATCATGTCTTATGGCCTATTCCTGCATCTACGATTAATTCTAATACTAAAGGGCATATTAATCAGAATAAGGGATATGCAGGATCTGAAAATAATATTCCTCCTTTGGAAACAATAGAAGCTAATTAATTTATTTAGATAAAATCTCAGTATCTTTGGTGTGACCGAAGATACTGAGAACTAATAATTATAAAATTATGAATAATAAAAATCATAGAATATTCTTCTTTTTTCTAGTATTTTCTCTTTTGGTAAATGGGGGGAATGCTTTTGCAAAGAAAAGTAAGGATCGTGAGTATTGGGTGAAAACAATGATCAAGATTATTGATCCGCTATATACCAATTTGAGTCAGAATACTTTGAGGAAAAACATGCCTGTTGAAACCTTTGATGGATTAAACAATGGCAATACAAGAAAGAATGTGACGCATTTGGAAGCTTTAGGACGTTCATTTGATGGTATTTCTGCATGGTTGAATTTACCTCCTGATGATACGGAAGAAGGTCAGCTTCGTGCTAAATATACCAATTTAGTGGTGAAATCTATTGCTAATGCTGTAAACCCGGAATCACCTGATTATATGCGTTTTGATGGGCCTGGAGGACAGCCGTTGGTTGATGCTGCTTTTTTTGCACAAGGCTTGTTACGTTCTAAGGATCAGATTTGGCCGAAGTTAGATAAAGTGACTCAAGAGAGAATTATTAAGGAATTGAAAGCTTCGCGCAGGATCAAGGCTTCAGAGTCTAATTGGTTGATGTTCTCTGCTACTATTGAAGCGGCCTTATTGGAGTTTACGGGTGAATGTGATTTGAAACCAATTCACTATGCGTTAAAGAGACATAAAGAATGGTATAAAGGAGATGGCTGGTATGGTGACGGGCGTAATTTTCATTTGGATTATTACAACAGTTATGTGATTCAACCCATGTTGATAGATGTATTGGCGGTCATGAAAGAGCATAAAGTGGAAGGGGCTGATTTTTATGACGTACAGTTACAACGCCTGATCCGTTATGCTGATCAACAAGAAAAGATGATATCTCCGGAAGGGACCTATCCTGTATTGGGAAGATCAATGGGCTATCGTTTTGGGGCTTTTCAGGTATTAGCTCAGGTATCCTGGATGAAATTATTACCTGAACATATCAAACCGGCACAAGTGCGTTGCGCTCTAACTAAGGTTATGAAAAGACAATTGGCCAAAGGTACATTTGATAAGGATGGATGGCTGAATCTGGGATTTTGTGGGCACCAGCCCGAGATTGCCGACAGATATGTATCTACTGGCAGTAATTATTTGTGTACTTTTATTTTCTTGCCTTTGGGTTTACAGGCGGATGATGAATTCTGGACGGCCAAGCCTGAGAAATGGTCTTCGGTTAAAATATGGAGCGGAAGTCGTGATATAAAGAAAGATGGTTCTATTAGAAACTAGAATTAAATCTCGAAGGTATGTTCTATTTAAGTAACAATAGTACAACATACCTTCAACTGAGTTGAATAAAAATAGAAATATTATGAAAAAACATTTGAGATTGGCAGCTTTATTGGCTACTACAATTCTGGTATTGTCAAGTTGCAGTACACAGAAACAGGTCAGATTGGTTTTATTGCCGGACATACAAACTTATTCACGACTTTACCCGGACATTCTGAGATCGCAGACCCAGTGGGCGGTGGAACATGCAGATAGTATTGATTTTGTTTTACAGCAAGGGGATATGACGGATCACAATATTGATAAAGAGTGGGCGGTGGCAGCTTCTACCTTGAATATGATGGATGATAAAGTTCCTTATGCTTTTGTTATGGGAAATCACGATTTGGGAAAAAATTCGAATAAAAGAGATTCCCAATTGTTTAATAACTATTTTCCTTATGCAAAATACAGTAAGATGAAGAATTTCGGAGGTGCGTTTGAAGAAGGGAAAATGGATAATGTATGGTATACTTTCAAAGCTGCCGGAATAAAATGGCTAATTCTTTGTTTGGAATTCGGGCCTCGTAATAATGTACTTGATTGGGCGGGAGAGGTTGTGAAGAAACATCCGCATCATAAGGTGATTATTAATACGCATGCGTATATGTACTCAGACGATACGCGTATGGGAGAAGGAGACCGTTGGTTGCCGCAGAAATATGGTTTGGGAAAGGATACCGGTGAGAATGCGGTGAATAATGGTGAGCAAATGTGGGATAAGTTGGTGAGCAAATATCCCAATATCCTCTTTGTCTTTAGTGGACATGTTTTGAATGGCGGTGTTGGGACGTTGGTTAGTATAGGCGAACAAGGTAATAAGGTATATCAGATGTTGGCTAACTTTCAGGATGGAGTGAAAGGAACGAATAGAGGACAAACCGGTTTTTTACGTATTGTAGATATAGATGTGAAAAAGAAACAGGTAAAAGTGGACACTTATTCTCCTTATTTGAAAGAATATAAGACTGACGCTAAGAATAGATTCTCATTTGAGGGAGTTAATTTTAAATAATCTGGTTTTACATTCCAAAGGATATAGCTATGAGCAGCATTCAATCATTTTATTTTGTAGGTGTGATTACTTTAGTCTCTTCTGCCCATGTTTATGGACAGAAGAAAGATAAGATGAATGTTTTATTTATCATTGCTGATGATATGCGGCCTGAATTGGGGTGTTATGGAATAGAGGATATTGTGACTCCTCACATTGATAGATTGGCGGAGCAGGCTACGGTCTTTCAAAATGCATATTGTAATATTCCTGTGAGCGGGGCTTCCAGAGCGAGTCTGTTTACAGGAGTATATCCTTGTTATCCGGAACGTTTTACTGCTTTCGATGCTAATGCAGAGAAAGATTGTCCCAAGGCACTTTCGCTTCCGGAGTGTTTTAAGAAAAACGGATATTATGTTATTTCCAATGGAAAAGTTTTCCATAATATAACCGATCATGCCCGTAGTTGGTCAGAATATCCGTGGAGAGTATATCCTGATGGTTACGGTAAGGATTGGGCTGAATATAATAAGTGGGAATTGTGGCAGAACGAAGAGTCTTCCCGTTATATCCACCCTAAGACTTTGCGAGGACCGTTCTGTGAATCGGCTGATGTCTCGGATACAACTTATATTGATGGTAGAGTAGCGCAGAAGACGATTGCAGATTTAAGGAGATTGAAAGAGATGAAAGTACCTTTCTTCTTGGCATGTGGCTTCTGGAAGCCACATTTGCCGTTCAATGCTCCTAAGAAATATTGGGATTTATATCAAAGGGAGAAGATTCAGTTGGCATCGAATCCTTATCGACCTAAAGCATTGCCGAAGCAGGTTACTTCCTCCGGTGAGATTCGTGGATATGGGAAATTTACGACAACAAAGGATGAGGCTTTTCAGCGAGAGGCAAAACACGGTTATTATGCATGTGTGAGTTACATAGATGCGCAGATCGGTTTAGTACTTGATGAACTTGAACGCTTGGGATTGGCAGAGAGTACGATAGTAGTGATATTAGGAGATCATGGCTGGCATTTGGGTGAACATGGTTTCTGGGGAAAACATAACCTGATGAATCATGCGACCCGTGCTCCATTGATTGTCCGTGTGCCTCATTGTAAAGGCGGAAAAGCTGGGGGAGTTGTAGAATTTGTGGATATTTATCCCACATTGTGTGAGTTGTGTAAAGTTCCGGTTCCTGAGGGGCAATTACAGGGAAAAAGCTTTGTTCCTATTCTGCAGGATAGTGAGAAGAGGATAAAAGAATACGCTTTTGTTCAATGGCAAGGTGGGTATAATATTGTTTCGGAGCGATATAGCAGTGCTATATGGTTGAAAGGTGATTCTGTTGTAGGTCGGATGGTGTTTGACCGCCAATCGGATGTTGCAGAGAATGAAAACAAAGTGGGTTCTGTCTCATTAAGTGAAGAGATAAAAGAACTGGAAACTCAGATAAGAATAAAAAAACTTCAATTAGAAAAATAATTTTAAAGAATATATAAATGAAAGTAGGTTCATCTATTATTGCATTTTTGGGACTGATGGCAGTTTGTAGTTGTTCAGCTCCCAAAAGCGAAATGAGTACTCTTGTGAATAATAGTTTGCAAATAGCGACTGTTCAATCAAAGTTAATGGCTGAGAATTTATTGAATGAAGAGGAGAAATTGCCACGTACTATTGGTAAGGATGGTAAACTGATGACTTCAAAGGCCAAATGGTGGACAAGTGGTTTTTTCCCTGGGGTATTATGGTATTTGTATGAGGTGAATCAAGATGATTCCTTGAAAATGTATGCAGAAAATTATACCAAAAGGATAGAAAATGAGAAATACACAACAGATAATCACGATGTGGGATTTATGTTGTATTGTAGTTTTGGTAATGGATTGCGTCTGACAAGCAATGATGAGTATAAACAGGTATTGTTGCAAGGAGCGGAATCATTGAGTACTCGTTTTCGTCCACAAGTCGGTTGCATACGTTCATGGGACTGGAATCAGAAAGTGTGGGAATATCCGGTAATTATTGATAATATGATGAATTTAGAGATGTTGATGTGGGCTTCCAAGAATTCCGATAATCCGAAATTTGCGGAAATAGCCAAGTCACATGCAGATGTGACGATGAAGCATCATTTCCGTCCGGATTATAGCTCATACCATGTGATTTCTTATGATACGATCTCGGGACAGCCTGAAAAGAAAAACACTTGTCAGGGATATGCTCATGAATCATGTTGGGCACGTGGCCAGGGCTGGGCATTATATGGCTATACAATGATGTATCGTGAGACCGGGCAAGAGAAATATCTGCAACATGCTACGAATGTGGCTAGATTTATTATGAATCATCCTCGTTTGCCTGAAGATAAAATTCCATATTGGGATTTTGATGCTCCTGGTATTCCCAATGAACTTCGTGATGCTTCTGCGGGAGCATTAATGGCCTCGGCTTTCATCGAACTTAGCCAGTATACTGAAGGTGATTTCTCAAAACAATGTCTTTCTGTTGCCGAAACACAGTTGAAGACTTTGTCATCGCCGGAATACTTGGCTGAGCCTGGTACAAATTGTAATTTTATTCTGAAACATTCAGTAGGTAATAATCCGGGTAAGGCAGAGGTTGATGTACCGTTAACTTACGCTGATTATTATTATGTTGAAGCTTTAGTACGTTATAAAAGAGATATTTTAAAAGAAAAACTTCATTAAAAACTTCATTTTAAATGATACAAAGATTATCTTTCTGGATAATGATGATTGTCTGTTCGGTGATGGTGAGTGGGCAAGAATATGACGGATATTACACAAATCCTATCCTGCCTTCGGGTGCTGATCCGTGGGTTGTAAAACATGAAGGATGGTATTATTATTGCTGCGGGGTGCCGGGTGGCATCGGAGTTTCCCGTTCTCGTGATTTGCATAAGATAAATCCTCCTGTACGTGTTTGGAAGGCACCGGAAAAAGGGCAATGGAATTCGACTTGTATTTGGGCACCCGAACTTCATTTCTGGAAAGGTAAATGGTATATTTTTTATGCGGGCGGATATAGCGGTCCTCCTTTTATTCACCAAAAGACGGGCGTGTTGGAATCTGTTACATCAGACGCAATGGGCGAGTATATCGACAAAGGAATGCTGTTTACGGGGGATGTTTTGGGAGACTGGAAAAACAATCGCTGGGCGATTGATATGACTTTGTTGGAGCATAAGGGACAATTGTATGCTGTCTGGTCCGGTTGGGAGAATAGTGAACCGACTGACAAAACTCAGCAACATCTTTATATCGCAAAAATGGAGAATCCTTGGACAATGGCTTCCGGAAGAGTAAAAATATCGTCACCGGACCGCTATTATGAACAAGGAGAGTTGCCATTGAATGAGGGACCGCAGATTTTAAAACACGGGAAAGATGTGTTTGTTGTTTATTCCTGCGGGCAATCATGGCTGGATACATATAAACTTTCTTATTTGCGTCTGAAGGACCCGGACGCAGATTTGTTAGATCCGAAAAGCTGGATTAAAAGTGATAAACCTGTATTTGAAGGTACCGATCAAGTATTTGGGGTAGGGCATGCCAGTTTTACAACTTCTCCTGATGACAGGGAACATTATATTTATTACCATACGAAAAAAGAGAGAAAACCTGGTTGGAAACGGGATATTCGTCTTCAGAAGTTTACTTTTGATGCATCTGGCGTTCCATGTTTTGGGAAGCCGCTTCCGGTAAGCGAGAAACTTCCTTTGCCTTCAGGCACTGCTCATCCTGTAAAAGTTAAGCCGATGAGTGAGCTGGAAAAAGACTTTACCCAATTGTCTTCGACTGCCCGGCCTTATACATATTGGTTCTGGATGAATGGAAATATCACAAAGGAAGGCATTACAAAGGATCTGGAGGCGATGCATCGTATTGGGATAGGTGGTGTTTTCAATCTGGAAGGGGGAACTGGAATTCCAAAGGGGCCTGTTACTTACTTAAGTCCGGAGTGGTCGGAATTAAAAGCACATGCTATAAAAGAAGCAGCTCGTTTAGGCATTGATTATGTGATGCATAATTGTCCGGGTTGGTCGTCAAGTGGTGGTCCTTGGATTACTCCTGAGTATTCAATGCAAAAATTGACTTGGAGTGAGACTGAGGTGGCAGGCGGTAAACGGGTGGATACTTTATTACTCCGGCCGGTAACGGAATTAGGATATTATAGAGATATAGCTGTGTTAGCTTTCCCTTCTTTCAAGAATGGTAAACCTGTGGGCTTTTCTGATTGGCAGTTATTGAATAACAGTGTTTTTAATCATAGAGGGAAGATCGGTATACAAACGTATGACAAAGAACAAGTTATTCGCTTGGAAGATATTATTGACTTGACGAATCAGGTTGATTCTTTGGGACGTCTGAATTGGGAGGCACCTTTGGGAAACTGGACTGTCATCCGTTTGGGACATACTTCTACCGGAAGAAAAAACTGTGCAGCTCCGGATACAGGCGTGGGGCTTGAATGCGATAAGTTTAGCAAACAGGCGATTCAGCTTCATTTTAATAAAATGATGGATTTATTGTATCCACTAATCAAACCTTATGTTCACCAGATTCAGATAGGACTGGAGATAGATAGTTGGGAAGTCGGTATGCAAAACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacteroidetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacteroidia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacteroidales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacteroidaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacteroides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caccae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAACTTTCCGATTTACCGACCCACATGCCAAGGACTTCTTTCAAACCGTTCTGTTTCAGTCCGACACAAAGGTAAACGGTCTTGTTTATGATCTTGCCGTTATCCCGTACTTTAAAGACGATGCCGTCCATCCATACTATCAGATAAACCGGATCCAAAGGGCGGTTCTGCCATTCCTGGGCAGCCTGGTTTACCTTGTTTGTAATGATGGAAATGGCGGATGTTGAGAGTTCTATCTCATAAATCTCACGCATTTCTTCCTCTATATCAGAAACACTCATTCCTTTGGCGTATAGAGAAATAACAAGCTTTTCTATAGAAAGTCCACGACTTTCATGCTTGGGTACTGCTATCGGTTCAAACTGACCGCTACGGTCACGTGGAATAGATATGACAGCTTCCCCATGTTCGGTTTGGATTTTCTTCGGATAGCTACCGTTACGTGAATTACCAGTGTTGTTCCCTGCCACAGAATTCTTTTCATAACCCAAATGGGCATCCATTTCGCCTTCAAGCATCTTTTCCAACACTTGGGCATGCAGCTGCTTCAGAAACTTGCTCACATCGGCTTCTGTCTTGAACTGGCTAAGGAACTCCTTGCTTAATACCTCATCAGGCACTACTTGATTCTTTTCTTTCATAATCTTCTTCATTTTGCAAAGCTATAAAATAAAAAATACGGAACTCAACCTGAATCCCGTATTTTCCATTTACACAAAATATTTTATAGTGCCCCCCCCAACGCGCCCCACCGTTTGAAAAAAACTTCGCGCGTGTAAAAACTAGAGGGAGTGGGTTTAAGCACCCCTACCCCCTTCTTTAAAAAAGTCGCCCCCCTTAACCTAATTGAAACGATTTCATTCGGTCAGGCGATGAACGTTTAACATGCACCAACAGCAGATTTCAAACATTGCGGGTTCATCGCTTTCGACAATTTTTGGTTAATGTTTGGTTTCAGTTTGGTTATGCTTTGGTTTTCGTTTGGTTCATCCTTAGTTATTTCATTTACACCGGAATAATTCATTAGGGGTTTCGTTGGGGTTTTCTTGGGGTTTCGTTGGGGTTATTTGGGGGATTTCTACCGGGTTATTTGCCGGGTTTTCTGATAACCCGCAAACCCCGATGGATTATTCGGCTTTTCATAAACCAACGAGCGTTAACCATATTGAACGGAATCAACGCTCGTTAGCAAAACAAGCAAGTGTTAGCAAATGCTATCAATACTAAGCAAAGCTAACATTTGCTACATTCAGGTATTAAGCGGATCAGTCGCCCGGCTTTTTAAATCCAATTGGATTACGCGGTCTTTCGTCCCATGCCTTCTTTGCTTGAAGTTCTGCCAATGTCTGATTGATTAGTTCTAATTGCATCCGGGTATCATCGTTAATGTCGTTGTAGTCGGCAAACACTTCTTCGATGTATTCCTTTAGTTCTTTGACTTCGTTCTGTAGTTCTACCACCTTATCAGGTTTAGGCAATGCTATCAACTGGCGAACGGCGACAAACGCGCGCATGATCCCCATATTTATTTGTATCGCAGTCTTTGAATTAAGAACACTACTAAGCATTGCAACACCAAGTTCAGTAAAGGCATAGGGATTACGGCGCATACCCATCTTTACAGAATTGGTTATCACAATTTGTGATTTCCAATTTTGGGTTTCTTCATCTGTCAACTGGAACATAAAGTCTTCGGGGAAGCGGTCTACATTACGTTTTACCGCTTGATTTAAGGTTCGTGTTTCAACTCCATACATTTCTGCCAAGTCTCTATCTATCATTACCTTTTGCCCGCGTATATCGTATATCTTACTTTGTATTACTTCAAGTTGTTTCATGTCATTCGGCTTTGATAGTGATATTTTTTCCACAATGCGGGCAGGTTATCCCGGCTGTATTGCTTTGTGGGTATACTTCATTGGGTGATGCAAAGAGTTGCCACATAGGAACGTTTAAAGCTGCCGCTATCTTTCCCAATGTTTCAAGCGTAGGATTTCCGTTAATTGCTCTACTTAAACTTTCTTGTTTAATTCCCATCTTTTCAGCAAGTTGACTTACAGTGATACCTTTCTCTTTACATACTTCTTTTATTATCATAACAATGATATTTTAAGTTATAATTCAAATTATATGCAAATATAGGAATAAATAACGCAAGAGTTATATTTCAAAGTTAAATATAGTTTATGATATCATTATTTTATGGCAGGCACAACTACGATATGACATTAAGAGTTATATTTGCAGCACAATAATAACAATGAAAGTTATAAATCATGAACCGATACAATTTAAGCGAGATAATGAAAGGTGCTCACAATATGTATAGAACTGGAAAGTATGTAACGTTTGCCGATGCACTTCGTAGAAGCTGGGCAGTAGCCAAGAACCGTAAAGCCATAGAGAACCGTAGAGAGGCTAACGAGGCTTATTTGTCAGCAAAGAAACAGGCGGAAGTAGAAAAGGCTACATGGACTGTAAAGGTTGAGGCGACAAGCAAAGAACGACTGAGCGAACAGGTTAAAGAAACCGCACGCGTTGAGGCTGATTGCAAGGCATACGGTTACGGACTGGGAAATCATTATTCAACCTTGAGCGGCTGGGGTAACTATTGCGGAGATTGATTATTTACAAATTAAATAAATTACTCAAATGAAAGAATTAGAGATTATCATTAAGCAAGACTTTGGTATGTGGCGAATGAGTATTAAATGCGAGGCGAATTTAGCTAACACTGGAATAATTAAAATGTTATTCGGCTGTCTGCAAACGGACGGCGTTGTTATTCGTTCAGGCATGTTATCGACTAACATAATGAAGTTATTAAGCGTTCAGGCAGAACTATTAAGTTTTTCACTATGAAAGTATTCTATCTAAGCGGATTAATGGCAGGCATTATCCTACTATTCGCTACGGAAGCGGAAACAGCCGTGCCGAACCTAACGGGGCTTGTCTTATGTGTAGCCTCATCGTATAAACTGAATTTATTCACATCTAACAAAATATAAATCATGGAACAAGTTATTATTTTAGATGCCAAAGGGCAACTGGTTAAAAAGGGCGTATTAATAGACAGAGAACGCATGTACCTGTATAAGGTTGGCAATGACTACATGAATTGCAATAGTGAAAGCGTAGAAGTGCTACAAGCTGAATGCTTGGAGCAATATAGGAAGAAGGTGAAAGAACATGCAGCTGAATATATGTCTTCATCTACTGACCTATTCCCTGTAAAGCTGGCAGGATTCCAAAACCCGTATGATGAAATTCATAATCTACTCAAACAGTCATATAACAACTTATGGGCAGGACAGCACTTATTTTGTGAAACAGTACGTCAACGTGCGGAAAATATGCAGCTACGCAAAGAAAAGGCAGATTTACAACGGGCGAAAGACTTACTTTGTGAGTTTATATGCAGCAAAGGCTATAAAGAAGACTTTGAACGTTTTTGCATAGGGAAAGTATCACAGTGAACAGGGTGCTTTATTGAGATCAAAGAGAGGCGACCGGAAACGGTGAGCCTCTTTCTGATAAATATGTGTATCTTTGTCGCTAATAACATTAAGAATATGGCAACTAAAAATAGAAAAGTAGAAACCCGATTAGATGATGATACATACAGGCTATTGGAACAAATTGCAGAAGATAGTGAAACGTCAATCTATGAACTAATACAAAGATTTATTGAGTGGGGAGTAGAAAGCAGAAGACCATTAAAAGAGCAAAGCGAAGTAAGAATTGTATCGGGGATTGTAAGCAAAGAAGTATATAAGATGCTAGAGCACTTTTCAAACAAAGAAAATGCATCTATATCGGAAGTTGTAACCACTTGCATAAATCACGTATATGATGAGATAGTCAAGAACTCAAAGTAAATACAGTGCATCAAAGAGAGGCGACCTAAAGCGGTAAGCCTCTTTTTTGTTTTCAGAACCACAACGAATAAACTATATAGAAAGCGAGTCATTTGTTACACCATGGTTAGAATGTTACACCTATGTTACACTCATACAAATAAAAAAGCCTCAAAATCAATCGATTAAGAGGCTTTCTTGGTACTCGAAGCGGGACTTGAACCCGCACAGCCGCAATGGCCAAAGGATTTTAAGTCCTTCGTGTCTACCATTCCACCATTCGAGCATCCTATAAAGGAGAGCGGAAAACGAGACTCGAACTCGCGACCCTAACCTTGGCAAGGTTATGCTCTACCAACTGAGCTATTTCCGCAGGTCTTTTTTGTAGAACGGGTGCAAAGATAAGGAGTTTCCCCGTTACAGCCAAATTTTTTACATGGAAAATGTTACAGTTTTATTAGTTCCTCACTTGCAAAGAAGTGCCGGACACAGTGACTTTATAATGTTTCAGATACTCTGTACCTTCCCCCGTAGGAAATCCGCCACTACTCAAATTATATTGGGTATGGCATTTAGGACATTCTGCCGTCCCTAATCCATCTTCTAAGACCTCTACCGAAACATTACGACTGGCCTCCACTGGACAAGCTGCATCATAAGCAACATAAGTATTCCCCTCTGAGAAAACACTCTGCCCGATAATCAATCCCGCATAGCCCACCGGCAGCCCATTTACATTCTTCTCTATCTTCAGAAACTGACCGGGAGTCGTAATCTTATAATAAGGAGACTGTGAAAGACTACATGAAAAATTAAAGGTAACGGAAGGAATGCTCGATTGGTAGGAATCACCACAACTGGTGACACACAACCAAAGCATTCCTATGACTATACAGAGTTTCCGCATACAATATCGTATTTATCGACCAAGCAAAGCTTTTTCAGCTACTTCCATTCCATGGAAATTGAAACCATCTACCACTTCCTGCATCAGCGCCGAGATTTCATCGTTACAGAGATTACCGATACTTCCCTCATGTGTGTGATGCACTTGCTTGCTGTGTGAGAAGTTTCCGGCTTCAATGTCCAATCCCACTTTCTTATAAGCATCCCGGAAAGGCATACCTTCACGTGCCAAGCGGTTCACTTCTTCCACACTGAAAATAAGCAGATATTTGTCATCGTCGAGGATATGTTCGTTCACCTTTATTTCATTCATGATATAGGTAGTCATCTGCAAACAGTCTTTCAATTCTTGGAAAGCAGGCAAAAAGACTTCCTTAATAATCTGCAAATCCCGGAAATAGCCGGACGGCAAATTATTGGCAATCATCATAATCTGTTGTGGCAATGATTGCAGTTTATTGCACTTGGCACGCGTCAATTCAAAGACATCCGGGTTCTTCTTATGGGGCATAATGCTGGAACCTGTCGTGCAATCATCAGGCAGCTTCACGAAACCGAAGTTCTGACTGTTGAACATACAAGCATCAAAAGCCAGTTTGGAGATAGTTCCGGCAATACTCGCCAAAGCAAAAGCTACATTACGTTCCATCTTGCCACGCCCCATCTGGGCATAAACAACATTATAGTTTAAAGAGTCAAAGCCCAACAAACGTGTTGTCATCGTACGATTCAATGGGAATGAAGAACCATACCCGGCAGCCGAACCCAAAGGATTACGATTACACATCTTGAATGCTGCCTGCAAAAAGAGCATATCATCCACCAGACTCTCGGCATAAGCACCAAACCACAATCCGAAAGAAGACGGCATAGCTATCTGCAAATGAGTATAACCCGGCATCAGCACATCTTTAAAACGCTCACTCTGGCATATCAGCACATGAAACAGTTGTTCCACAGCTTCAGCAATCTCCTTAATCTGCGCACGCGTGAAAAGTTTCAGATCGAGCAACACCTGATCGTTGCGCGAACGACCACTATGTATCTTCTTGCCTATATCACCCAATTTACGCGTCAGCATCAATTCCACCTGCGAGTGTACATCTTCCACTCCTTCTTCTATCACAAACTCCCCTTTCTCGGCAGCCGCATAGATATTTTTCAGTTCTTCAAGCAAAAGAGCCAGCTCTTCCTTCGTCAGCAGACCAATACTTTCGAGCATGGTGATGTGAGCCATAGAACCTACCACATCATGTTTAGCCAGATAAAGGTCCATCTCGCGATCACGTCCCACCGTGAAGCGTTCTATATCCTTATTTACTTGAACGGATTTCTCCCAAAGTTTCTGAGCCATTTATTTAGTGATTAACAGTTAGTGATTAATAAGGTATTATCGACAGCATATCCGCCATCTTTTCCAACCCTTCTTGCAAAGGTTTCTGAACCATACCTTTCATGAAAGGATTCAGTTCCAAGCCAATGGTCAATTTCAGTTTACATTCTGTTTCTGTTACCGGAACAATCTGTATCCACAAATTGAAGGGCAGTGGTGAAGTAGTTGTGGCAAACTTAATACACTTGCATGGTTCTTTTTCTACTATGCTCAGCGCTATTTTACCCACAGGAGCTACTTCTATCATCATACTCTCCGAGTCAAAGCTCAAATTCTTAACTTTATCCTCCGGCAAGCTGTCTTTAAACTTCTCCAGATTATTCAAATCAGAAAGTTTCTCATAAACAGCCTCCTGTGAGGCAGGTATAGTTTTTACACTACTTTCAAATTTTGTCATATTTTGATTCTCTTTAAAAGACAAAAAAAGAACTATCCGGACAGAAACTATCCGAATGGCCCTTTTATCATATTAATTATTTTATAGTATAAACCGCCGTTACTTTCCAGCATCCCAATGTGCAGGGTCCTTACGCCATTCGTTCAGCGTTGCAATATCATCTTCTTCGATGTAACCCGTACGAAGTGCAACATCCAGAACCGCTTCATAATTCGTCAGCGTCACCAAAGGAACTTTGGCATCCTTGAATGCTTTTTCTGCAACCGGGAAACCATAGGTATAAGCTGCAACCATACCGATTACTTCACATCCGTCGCGACGAATAGCTTCTACGGCCTTCAAGCTACTTCCACCTGTAGAAATCAAATCTTCAACCACCACAACTTTCATACCCGGGCGAAGCTCTCCTTCGATCAGGTTTTCCAATCCATGGTCTTTCGGGGTAGAACGTACATACACAAACGGCAAATTCAGCGCATCGGCAACCAAAGCTCCCTGAGGGATAGCGCCTGTTGCTACGCCGGCAATTGCATCCACCTGCCCGAAACGTTCCAATATCAAACGGGTAATCTCAATCTTTACAAAATTACGCAAAGAAGGATAAGAAAGTGTTTTGCGGTTATCACAGTAAAAGGGAGATTTCCATCCGGAAGCCCATGTAAAGGGATTTGCCGGTTGTAGTTTAATCGCTTTTATCTTCAGCAACTTCTCTGCGAATAGTTTTTCTAAAGTTCTCATAACTAAATTAGCTATTTATAGTAAATATGGCACAAAAATACAGAAACAGAACGAGAATAAAAAAAAGAATAAAGAGATTTTTCACTCAAAGTCGTCATTTTCGTCAGAAAGTTGTATACAATGACGAATATCTTTCATTTCAAAACCCCGACTCAGGGCAAAACGCATCAATTTTCCATTCAGTTCATACTCATTCTCCGCATGTATGCTTTTCCTTTTTGCAGTCAGCAAACTATCTAAAATAGACAAGTATTCTTCTTCATCTATTTCATTCAAGAACTGCCGGCATGTATTATAAGAAATTTTCTTCAGTTGCAGTGCTTGGGCAATTTTCACTTTCCCCCATTTGGCAAAGCGATATTTATCATTCACAAAGGCACGACAGAAGCGCTCTTCATCAATATATTTCTCATCTACCAGCCGCTTGAGAATGCGGTCAATGACATCATAGGGCAATCCCCAACGCTGTAGTTTTTCAGAAATCTCAGCACGGCAATGTTCCGCTGTAGAGCAATAGGCAGCTACTTTATTCAGCGCCTCTGTTTCAGTAATATTCGTCATTTTTCGGCTATTACAAATCGATCATTATGAGATATGTCCTTTTGGAGTCTGACCGCGCGATATCCTGTTTCACACAACATCGCTACAGTATCCTTTCCAAAAGCACGGTTAATTTCAAAATAAAGTTTTCCACCGGACGTAAGCATCTCAAGTCCCAGCACGGCTATGCGACGATAAAAACGTAAAGGATCTGTATCGGGCACAAACAATGCCAACGAAGGCTCCCAGTCCAGCACATTATGTTCCATCTCCTGTTTCTCAGCTTCAGTAACATAAGGCGGATTGCTCACAATTACATCATAACAGTCCACCACACAAGGTTCATAAGTTAACACATCGCGCTGTTCGAACCGTACAGATGCCTGCAAAGCCTTACTATTAGCAGCAGCAATAGATAAAGCTTCTCCCGATACATCCCAAGCGGTGACTTGCGACTCCGGTAATTCTTTCGCCAAAGAAATGGCGATACAACCGCTACCTGTCCCAACGTCTAAAACACGAGAAACGGGAGAAAGTTCTTTCAACATCATCTCTACCAGTTCCTCGGTTTCCGGACGGGGAATGAGTACACCCGGAGTCACGCGAAAAGTTCTTCCCAAGAAGCGGGCTTCCCCTAAAATATATTGTATCGGTTCAAAATTATGTAAACGGGCAAGAATGCTTTCCAATTCCTGTTCCTCTTTTACAGATAAAATTATATCTTTGCCCAGATAATAATCCACAGTTTGCTGCCCCAATATCTCGCAACAGATAATCCGGGACAGGTTTCCGGCTTCGCGGGGATCATAACGACCCTGCAATTTCCGGCGAATGTAAGAGGCGGTAATGTTCATAATGGATATTTAGCGGATTCTTCACCTGTTCGGCTTCCCGGTCAGACCGATCTCTGTTCGTATCCTACTGCGAAGAATCCATTTTGGGGTGCAAAAGTAAGAATTATCATAGAAAAATGGCACACATAGAAGAAGAAAAATACATGCGCCGCTGTATACAATTGGCGCAAAACGGACTTTGCAACGCCGCTCCCAACCCGATGGTAGGTGCGGTAATCGTATGCGACGGGAAAATCATCGGTGAGGGCTATCATGTACGTTGCGGAAAAGCACACGCTGAAGTCAATGCTATTCGTTCCGTAAAAGATATCTCATTACTAAAGCGTTCCACCATCTATGTAAGTCTGGAGCCCTGCTCTCATCACGGGAAAACTCCCCCCTGTGCAGATTTGATTATTGAAAAACAAATCCCCCGTATCGTCATCGGCTGCCAGGACCCTTTTTCCAAGGTTGCCGGACGGGGCATACAGAAGCTGAAAGATGCCGGACGAGAAGTAATCGTAGGAGTACTGGAAGACGAATGTCGACACCTAATCAAAAGATTCATAACCTTTCACACCTTGCACCGCCCATATATCACACTGAAATGGGCAGAATCCGCAGACGGGTTTATTGACTTATGCCGGACCGAGGGTAATCCTGTGATTCTATCCACTCCCTTAACCTCCATGCTGGTACATAAAAAGAGAGCGGAACATTCTGCCATTCTTGTAGGCACACGTACTGCTAAACTGGACAATCCATCTTTAAATGTACGCAACTGGTATGGGCGCCCTCCTATACGTCTCGTCATCGACCGGAAACAGAGTCTGTCTCCTACCCTTCATTTGTTTGACGGAAGCGTACTGACACTCGTCTTTACCGAACACTTTCATGACGCTCTGCCCAACGTGGAATATCTCCCGATAGATTTCCAACAGGACATATTGCCTCAGATCATGCAGATATTGTATGAGCGTGGTATTCAATCTCTGTTGGTGGAGGGCGGAAGCACCTTACTACAATCTTTCATCGATGCGGGGCTTTGGGATGAAGCATATGTTGAAGAAAGCCCCAGATCACTGATATCCGGTGTTAAAGCTCCTGAAATGAACGATAAAATTAGTTATGCCAGTGAGCAATCTTTCGGCAGAAGTATACGGCATTATACAGCAACGAAATAGTCCGAATTACCTCATTTTGATGCTTTTTTATCGAGAAAAACAGGGGTATTATCTATAATTTTATATAAAACTTCCCCGGGATGCTAATTATAGAAAAAAATGTTCCTATTTTTGCAACTTGTAAATAAACACTATCTTTAGAAAATGAGAATAAAGTTTTTATCCGTAATACTGAGTTTTCTTCTTATGTCAATTGCCATAAGTTCGTGTCTTGACTCAGATGAAAATTATGAATATAGTTCCGACGCGACGATACGTGCCTTTGGTATTGATAGTATAACAAAAGGCGTATATTATAAGTTTACGATTGACCAGTTGAAAAGAGAAATTTATAATGTAGACTCGCTTCCTATGGGTGCTGATTCTATCTTAAAACGTATCTTAATTGACACACTGACGGTAACAGGATGGGTAACTTCTGGTCTGAATGATACTATATTCAACATGAACGACTCAGTTGATTTGAGCACCGAGACAGGTGGAATTACACTGAAAGTACACGCTGCCGATGGAATTACGACCCGCGAATATAAGATTTGGGTAAATGTTCACACACAGGATCCGGACTCACTGATTTGGAGAGAAATGCCATCACTTCCTGCTTCTCCGGCTTCCGGTAAGCAAAGATCTGTCGTTTTGAATGAAGATTTATTAGTCTACACCTCTACGACAACAGCATATCGCACTTCCGTATCAAATCCAAATTTTGAAAGCATCCAATGGGGAAACCTGATTATCAGCGGACTTCCTTCAGATACAAAATTAACTTCTATCATTAACTTCAACAACCGATTATATACTACAGCAGAGAGTGGAAAAGCATTCTACTCCGATAATGGTACAAATTGGGAAGAAATGGATATGCAGGGAATGTACATGGTAACATTCTTAGCAGGTATTCCTGCAGATGAGGTAACAGGAAGTGAAAATATGCTTACCGGTATCTTTGCAAAAGATGGAAAGAATTTCTTCTGTGCAAAAAGCGCCGGAGAAACAACTTGGAAAGAAGGCGAAGAAGTTCCCTCTGATTTCCCTTTAAAAGAAATATATTCTACTGTATTCACGAATGCAAGTGGTATCAAACAAACAGTAGTAGTAGGCAATGTTGAAGAAACGGTTGAAGCTACAATACCTTGGTTCTCAAAGGACGGACTTGTTTGGGCCGATATGAGTACCCCGACAGACTTTTCTTGCCCAGCTATGAAGAATCCAGCAATCATGTATTATGGAAGCCAATTCCACATGATGGGTGGAGAGTTTAAAACCATCTATTCTTCCCTTGCAGGCATTGCATGGAATGAATCTGCTGATAAATTCAGATATGCATCAGAAAAAGTTATCATTAAGGGAGACGAAGACGAGGAAGAAACAATTGAATATGAGAGCTTATTCGAAGGTAAGGGAGATTATTCTCTGGCTATTGATAAGAACCATTATATTTGGATTGTATGGAATCAAGACGGTTCTGTTTGGCGTGGACGTCTAAACAAACTGGGATTCAAGCAACAATAATAAAATAGTCAAATTTCCGTTTCCTTATATAGTTAAGGAGTAACAAGAAAACGGTATGACTATTACAAGAAATATAAAGATAGTATTTTGCCTGCTCATGTTCCCATTCTGTTGTGCCATGGCACAGGAAGAATATACTTGGGAGATGGGAGGAGTCATTGGAGGAAGTTTTTATATGGGAGATGCAAATAGCAGCACCCCGTTTAAAGATACAGGTATAGCGGGAGGTTTTATAGCCCGGTATTTACTGAATCCACACATGGCAATAAAAGGCAACCTGACAGCCGGCAGGATTTCCGGTGACACGAGAGATTTCAAAAATGTGTATCCGAATGGAGAGTATGCCACTTTCAAACGGACTATAATCGATTTGGGAGCACAGTTTGAATATAACTTTTTGGGATATGGTATCGGTAATACGTACCGGGGTGACCGTCGATTTACACCTTATATATTAGGTGGATTGGGTTTTACGTTTGCACCAAAGCCTGTAAAAACGGTCTTTACGATGAACATCCCCATAGGAGTGGGAATAAAATTCAAAGCAACCCCACGCATCAATATAGGATGCGAGTTTACGATGCGGTTCAGCCTTAGCGACCAGTTGGATGTTACTCAACGGGAAGGTTTGCAACTGGAAGACCCATACCAGATAAAAGGAAAAGGTTGGAAGAATAAAGACAGTTATGCATTTACCGTCTTTTTCGTCACCTACGACCTCTTCCCAAGATGTAAGGAATGTAACAACTAAAAAAGATGCAATATAAAGAACAAATTGATTTGAGCCGGATACCCCAGCATGTGGCGATTATCATGGATGGCAACGGACGATGGGCGAAGCAGCGCGGACACGAGCGCAGCTACGGACATCAGGTCGGTGCAGAAACCGTCCATGTAATAGCCGAAGAGGCAGCCAGACTGGGCATCAGATATCTGACCCTATATACGTTCTCAACCGAAAATTGGAACCGCCCGACAGATGAAGTGGCAGCCTTGATGAGCCTTCTTTTCGACTCCATCGAAGAGGACACGTTCATGAAGAATAACATCAGTTTCCGGATCATCGGAGATATAGAAAAGTTACCCGCAAATGTACAGACACGTTTATACAATTGCGTAGAAAATACTTCTAAGAATACAGGTATGTGCCTGGTACTTGCACTCAGCTACTCTTCACGTTGGGAAATCACAGAAGCCAGCCGGCAAATTGCCGCTTTGGTGCAGAAAGGAGAATTGACGCCCGAACAGATCGACTGCGATTTAATGTCAAAGCACCTGACTACCCACTTCATGCCTGACCCCGACTTGCTGATACGCACCGGTGGAGAAATCCGTCTGAGTAATTACCTTCTTTGGCAATGCGCGTATTCGGAACTTTATTTTTGTGAAACCTATTGGCCCGATTTTCGGGAAGAGGAACTTTGCAAAGCCATTTGCGACTACCAGAGACGGGAACGCAGATTCGGCAAAACCAGTGAACAAATCAGTTAAACTCAAACATATTTAATCAAAAACATAAATGCACTATCGTATTTTCTCTATACTCACAGCGTTTATCTGCCTCTTCGGTTGTGTACTGACAAGTGCGGCTCAAGATGCCAATGGCACCGATAATGATGCAGCAAAACCGGTTATTCTCTATTCGGGAACACCCAAGAAGTATGAAATTGCAGAAATTAAAGTAGAAGGAGTTAAGAACTATGAGGACTATGTACTGATCGGACTATCCGGTTTGTCTGTAGGACAAACGATTACCATACCGGGTGACGAAGTCACTCAGGCTTGTAAGCGTTACTGGAAGCATGGTCTGTTCTCCAATGTTCAAATCACCGCAGATAAGATAGAAGGCGATAAGGTCTGGCTTACGATTCATCTGACTCAGCGTCCGCGTGTATCCGATATCCGCTATCACGGCGTGAAGAAGTCAGAGCGCGAGGATATAGAAAGCCGGATTGGTATGATTAAGGGCGGACAGGTGACCCCGAATGTCATTGACCGCGCCAAAACTTTGATTAAGCGCTACTTTGATGATAAAGGCTTTAAGAACGCAGAAGTTATCATCTCGCAGAAAGACGATGTATCCAACGATAACCAGGTGATCGTGGATATCGACATTGACAAAAAGGAGAAGGTAAAAGTACACGAAATCACCATCGTTGGCAATGAAGCGATTGCAACTAAGAAGTTGAAACGCATCATGAAGAAAACCAACGAAAAGAATAAATTGCTCAATCTGTTCCGTACCAAGAAGTTCGTGGAAGAAAACTTCGAGGCAGACAAGCAGTTGATCATCGATAAGTACAACGAATTAGGCTATCGCGATGCTATGATCGTAGAAGATAGCATCAAACCGTACGATGACCGCACCGTAGACATCTTCATGAAGATTGATGAAGGAGAAAAATATTATCTGCGTAATGTAACGTGGGTAGGTAACACCTTGTATCCTTCCGAACAGTTGAACTTTATGCTTCGCATGAAGAAAGGTGATGTATACAACCAGAAATTACTGGAAGAACGTACCATGTCAGATGAAGATGCTATCGGTAACCTCTACTATAACAACGGTTACTTGTTCTACAGCCTCGAACCCGTAGAAGTAAATATCGTAGGAGACTCCATCGACCTGGAAATGCGTATTTACGAAGGCCGTCAGGCTACCATTAATAAGATCAGCATCAATGGTAACGACCGTTTGTACGAAAACGTAGTACGCCGTGAACTCCGTACCCGTCCGGGTGACCTGTTCAGCCGTGAAGACCTGATGCGTTCTATGCGTGAAATCCAGCAGATGGGACACTTTGACCCGGAACAAATCAAACCGGATATTCAACCAAGACCGGAAGACGGAACTGTAGATATAGGTTACGATCTGGTATCCAAAGCTAACGACCAGGTGGAATTCTCTGCCGGTTGGGGACAAACCGGTATCATCGGTAAGTTGAGTTTGAAGTTCACTAACTTCTCGCTGGCCAACTTGTTGCATCCGGGTGAAAACTACCGTGGTATCCTGCCGCAGGGTGATGGCCAGACCTTGACCGTCAGCGGACAGACTAATGCCAAGTATTACCAATCCTATAGCATTTCATTCTATGACCCGTGGTTCGGTGGTAAACGTCCGAACGCATTCTCTCTGTCGGCCTTCTATTCCGTACAGACAGATATCAGTAGCCGCTACTACAACTCGGCATATATGAATAGCTACTACAACAGTATGTATAGTGGTATGTATGGTTATGGTATGTATAACTACGGTAACTACAACAGCTATGAGAACTATTACGACCCCGACAAGTCTATCAAGATGTTCGGTGTAGCAGCTATGTTCGGTAAACGTTTGAAATGGCCGGATGACTACTTCCAGTTTACCGCTGAGTTATCTTACCAACGCTATATCCTGAGCGACTGGCAGTACTTCCCCGTTACAAACGGTAAGTGTAACAACCTTAGTATCAACCTGACATTGTCTCGTAGTTCTATTGACAATCCGATCTATCCCCGTTCCGGTTCAGAGTTCTCATTGTCAGTACAGTTAACTCCGCCGTACTCACTGTTTGATGGAACTGACTACAGCAAGTACAGTACTACCAGCCAGGACGACATGAACAAGATGCACAAATGGATTGAATATCACAAATGGAAATTCAAATCCAAGGTGTACATCCCGTTGATGGACCCGGTAGCAGTTAAACGTACTCCGGTATTGATGGGCCGTGTTGAATTCGGTTTGCTGGGACACTACAACAAGTATAAGAAGTCTCCGTTCGAAACATTCGATGTAGGTGGTGACGGTATGACCGGTTACTCCAGCTACGCAACGGAAAGCATTGCCCTTCGTGGTTATGAAAACAGTTCATTGACTCCTTACGGTTACGAAGGTTATGCTTATACCCGTCTCGGACTTGAGTTAAGATATCCGCTGATGCTGGAAACAAGTACCAGTATTTATGCGTTAGGTTTTGTAGAAGCCGGTAATGCATGGCATGATGTGAAGAATTTCAATCCATTCGAATTGAAACGTTCCGCAGGTGTCGGTGTCCGTATCTTCCTGCCGATGATCGGTATGATGGGTATTGACTGGGCTTATGGTTTCGATAAAATACGTGGTTCCTCAGATTACGGTGGCAGTCAATTCCACTTTATCTTAGGACAAGAATTCTAATTGTATCACAAAAACCAAACGTTATGAGAAAGTCTGTTTTATTAATGATCTTGCTGTTTGCCGTAGGTATGACAGCCAGCGCACAAAAGTTTGCCTTGATCGATATGGAGTATATCCTGAAGAACATTCCGGCTTACGAACATGCTAACGAACAGTTGAACCAGGTTTCCAAGAAATGGCAGAGTGAAGTAGAGAAAGTTGCCGAGGAAGCCAAAACCTTATACAAGAACTATCAATCGGAAGCCGTCTTTCTTTCAGAAGAACAAAAGGGAAAGAAAGAGGAAGCGATTGTCGCTAAGGAGAAAGAAGCCGCTGAACTTCGCCGCACTTATTTTGGTCCTGAAGGAGAATTATTCAAGAAACGTGAAAGTCTGATGCAACCTATTCAGGATGAAATTTATAATGCGGTTAAAGAAATATCGGAGCAGAAAGGATATTCGGTAGTTGTAGACCGTGCATCCGCAACAAGCATTATTTTTGCTTCTCCGCGTATTGATATCAGTAATGAAGTGCTTGCTAAGTTAGGATATTCAAATTAATTTCATACATTTGCTTCGCGAACATAGCCGCACCTCAGCATTAAAAATAAGCAAGCTTATTTTGTTTTGCGTTCAGTTTGCACTATATTTGCATTTATTCAACGACTAATTATTAAAATAAACAATAAACATTATGCTTAAAAAAATCGCACTACTCGTGGTACTGTTCGCTCTTCCTTTGGGAGCGATGGCACAAAAATTTGCTCACATGAACTCTCAGGAGGTTATTGTTGTTATGCCGGAATATACTAAGGCACAAGCTGATCTGGAAGCTATGTCAAAGAAGTATTCTCAAGAAATGGAACGCACTCAATCAGAATTCAACAAGAAAGTGCAAGAATTCCAACAGCAAGCTGACTCTCTGCCGAGAAATATAGCAGAAAGACGCCAGAAAGAATTGCAAGAGATGGCTCAAAGACAAGAAGAATTCCAACAGGAAGCATATCAAAGCATGCAGAAAGCACAGCAAGATGCATTGGCTCCCATCTATAAAAAATTGGATGACGCCATCCAGGCTGTAGGCAAAGCAGAAGGCGCAATCTATATCTTTGATTTGGCTCGCACACCAATACCTTATGTAGGTGCAGAGAGTGTAGATGTTACTTCTAAAGTTAAAACCCAACTGGGAATTAAGTAAAGACATATCTTATTTAAAGATAGAAAAAGGCGTGGACTGCAAACAGTTCACGCCTTTTTCTATCTTTAAATAAGATAAGCGGTACCTCAGCATAACTTTTTTCATGCAAGCATGAAAGTTCTGCATTCGATTTGCATTATCTTTGCATTGTGTACAAAGTATTTCTGTTATGAAGCAAAAATTACCCACTATCCCCGGCCCTATCGGTGTATTCGACTCCGGATATGGCGGACTGACTATCCTGAGCAAGATACGGGAAGCCTTGCCCCAGTACGATTACATCTATTTGGGAGACAATGCACGTTCACCCTATGGTACACGTTCTTTCGAAATCGTGTATGAGTTCACATTGCAAGCTGTCACCCGATTGTTCGAAATGGGATGCCATCTCGTTATCCTGGCATGCAATACGGCGTCCGCCAAGGCATTACGCAGCATACAAATGAACGATCTTCCCGAAATGGATCCTGCACGTCGCGTACTGGGCGTCATCCGTCCTACTGTGGAATGTATCGGGAATATTACCCATAGTCGCCATGTAGGAATTCTGGCTACTGCGGGAACCATAAAGTCGGAATCCTATCCGCTGGAAATACATAAACTTTTTCCGGATATCCAGGTAGAGGGTGAAGCTTGTCCGTTATGGGTATCCCTCGTAGAAAACAATGAGGCGGAAGGAGACGGAACTGATTATTTTGTACGCAAATATATCAACGAACTTCTGTCAAAAGATGAACAAATCGATACGGTCATTCTCGGATGTACCCATTATCCAATACTGCTACCTAAAATAGAGAAGCATATGCCCAAGGGCATTACCACCGTAGCACAAGGGGAATTAGTAGCAACTAGTCTGAAAGATTATTTACAGCGTCACCCGGAAATGGATACCAAATGTACAAAAGGCGGAAATTGCACCTACTACACTACGGAAGCAGAAGAGAAGTTCACCGAATCGGCATCTACCTTTCTGAATGAAGCGGTAACTGTGCAGCGAATAGAGTTATAATTGCCAAACATTTAAGGATAAAACAAATCTTTTCTCCGAAATACTTGTTATATTTGTAATATATAAATCTATTAATTCTTACCATTATGAAATCAACAGACTATAGCCGCACAGTTGAAGTGTTCAAAGGATCACCGTGGGAAGCAGAACTTGTTAAGGGTTTACTCGAAAACAATGGTATAGCAACTATTATCAAAGATGGACTTATGAGCACCATCGCACCTTATATAGCACCGGATGTAACCATTCTCGTCAGCGAGGAAACATATGAAGATGCCATGGAGATAATCCGTGAACGTGATAAAGGAAAAGACGAAGAATAATCCTTTCACTTTCCTCCAGAAACCACATAAGAACGATATACAACACATGGAACAACAATTTTCGAGAATAGCTGTAAAGGTAGGCAGCAATGTCCTGACACGCCGTGACGGTACTCTGGACGTAACACGCATGTCCGCTTTGGTCGATCAGATAGCTGAACTGCATAAGACAGGAGTAGAAGTCATACTTGTGTCGTCCGGAGCCGTAGCTTCCGGACGTAGCGAAGTGCACTCCGCCAAGAAGTTGGACAGTGTAGATCAGCGCCAGCTTTTCTCTGCCGTAGGCCAAGCCAAACTAATCAACCGTTATTACGAACTCTTTCGCGAACATGGTATTCCTGTTGGTCAAGTGCTGACTATGAAAGAGAATTTTGCTACCCGCAGACACTATCTCAATCAAAAGAACTGCATGACGGTGATGTTAGAGAATGGAGTGATTCCCATCGTCAATGAAAACGATACGATTTCTGTAAGCGAACTGATGTTTACGGATAATGATGAGTTGTCCGGCCTGATAGCCTCCATGATGGATGCACAGGCTTTGATTATTCTCAGTAATATTGACGGAATTTACAACGGTTCTCCTGCTGATCCAGCTTCTGAAGTGATCCGTGAAATCGGTCAGGGAAAAGACCTTTCTTCATACATTCAGACCTCCAAGTCCAGCTTCGGCCGTGGCGGAATGCTAACTAAAACCAATATTGCACGTAAAGTAGCTGATGAAGGTATCACAGTTATCATTGCCAATGGTAAGCGGGACAATATCCTTGTCGATTTGATTCAACACCCTGAAAGTACGCTATGTACCCGCTTCACTCCTTCTCCCGAACCTGTATCCAGTGTAAAGAAATGGATTGCACACAGCGAGGGGTTTGCCAAAGGCGAGTTACACATCAATTACTGTGCTACCGAATTGCTTTTTTCGGATAAGGCAGTCAGCATTCTACCTGTAGGCATCATCGACGTCATCGGCGAATTTGAAAAGGATGACATTGTGCGGATTGTAGACTTCGGAGGTAAGCCCATCGGTGTGGGTAAGGCAAACTGTGATTCCACACAGGCCAGGGAAGCAATGGGAAAGCATGGCAAGAAACCAGTAGTACACTACGATTATCTCTACATAGAGTAATAAAGAAAAGGAAAGAAGGTGCATTAGGATTACTCTTAATGCACCTTCTTTTTATTTCATGCCGTGAAACTCTCAGTTTCATTACTTGAAACCGTTTGTTTCATGCCGTGAAACTATCAGTTTCAAGCTGAGATACCAGTACTGCCACTATAACTTCCAACTTACAGTATGGAATGAGTGGGGAGGCAACGTAAGCGTTACCCTCTGTTCCCTCACTTTTACACACATTGTTTCCTCATTATCAGTCACATTTGCAACGATGGCAGTGATTGTACCATCCGGATTAACGAAAGCAAGCATATTCTTATCCGACGGTGTTTCCAGCCTATAAGCGCCTGTCTGTACAAAATGCCCTAAATGCTTCATCAGATAAAATTCCGGATTATACTTTACGGTTTGTTGCTTCTTGTCAATGGACACCATAGAATTCTGATTCCATCCCCAAGGACTAATGCCCGGAGTAGGAAGAATCATATTCCAATAGTGATAGGAATTGATACCATTACTGAAATAATGCTTCATCAGGTTCCACGTATATTCAGCATAATCCCATGAGTTTGCTCCGTTGCCACATTCAGTCTCAGTTTGCATCAGGTTCAGATTAGGATATTCACGATGGATAGTTGGGATAGCCTTCTTACCATCCCACTGGAAACCAACACCCTTAATGTACTTAGCCGCCTGTTCATCCCGCAAAGCAGTGCGCACATAATCCGGATTGGATGTATTGATAGTTCCAAAATAAATATCAGTTTTGATATTCTCCCGCTCGAAAGTCGGCCCCAGATAATGCCCCAGGAAGAAAGTCAGATCTTCCGTGCGCCATTTACAACTGGGAAAAACCTGGTTGGAACAAGGCTCATTCTGAACATGGATACATTCCAGCGGTAATCCTTCGGCTTCATAAGCTTTAATAAAACGCGCAAAGTAATCGGCATACGTTTTCAGATACCCCTCTTCCATCCGGAAACCGGTACTGAATTCTGCTATAGCTTCATGCGGTAGCAATCCATTCACGTCTTTCTCTCCGGACGGACGAACCGCAGAAGCATAATGATTATTCGTCTTCATCCAAGGCGGAGGACACCAGGGAGAAGCCCAAATGCGCAAGTCAGGATTTATCTGACGGGCAGCTTTAATATAAGGAATCAGAATATACCTGTCACGGTCGATATTGAAATTCACCAGATTAAAGTCTCCTGCAACATCCGCCGAAGAGTAAAAACTCATGGCAAAGTCATTAGCTCCCATCGGAAGACGACAATAGTCGAAGCAAGCTCCATCTTTGCCAAAGATAGCTTGAAGAACAGCTTCACGATCTTCAGCCGACAAGGCATTCAGCGCATCCCAACCCATTTCATTGAAGCAGCCACCTATACCCGTAATCAATTGTAAGCGTTGAGCCGGGTCAAGCACAATCTCTGCTCCGGTAGTTGTACGTTCCGGCTTCACCTTCTGTTTCACCCACGGAGAAGTCTGAGTGGTAGTATACCACTCGATCTTCTGCGCTGAAACAGTTCCACTTAGCAGGAACAGTAAAATCAGACTTATTAACCTCATAAGCTATCTTATTTTCTTTGTTTCACCATCTGGATAGTTCCGTCTTCATTGTAGTAAAGTTTGTCTACACAAATAGAGCGCAACCAGTCATGATTAGATAAAGCACTGTTGTGGTAGAATGCAAACCACTGGCCTTTATATTCTACGATAGAACCGTGATTGGTATAGCTGTCTGTAGGCTCCATATAGATACCCATAGATTTCCAGGGACCGAGCGGGTTATCACTGATAGCATAGCGCATACGGTTGTCACCTTTCACACCGTCATTCCAGTTTTCATCGTGATTATCGGAATAAGAGAGATAGTATTTTCCATTATATTTATGAATCCATGTAGCTTCGTGGAAGTCTTCCAGACCTTCCATTTCCTTCATTTCTCCATCCAGTTCCACCATATTATCTTTCAGTTTGCCACCTTTACAAATCTGGCCGCCACCGTTATAGATATAAGCCTGACCGTCATCATCCACAAATACACAAGGGTCGATCAACGGGTCCATTCCTTCGATATACCCCTGCACAGTAAAATTAGCAGCCGGTTCTTTGCTGGTAGCTACACCGATCTTCCAACTATCATTCCACTTCGTATCACTGGGATGCGGGAAGTAGAAATAGTACGTACCATCCTTGTAAGCACAGTCGGGAGCCCACATAAATCCACCTTCTTTGCGTCCCCAGGGCACTTGTGACGAATTCAGAATTTCACCATGATCTGTCCAATTCACCATATCATCCGTAGAGAACACATGATAACGATCCATCAAATCGCAACCACGCGGAGGATCTATATCATGCGAAGCATATACATACAAACGTCCGTCCGCCCATACATGTGCCGAAGGATCGGCGGTGTACATGTGCGTGATAAATGGATTGGGAGCCATACTGTCAATTCCCGCCGCTTCTTCTTTCGTCGAATTGCTTTTAGGCGACTGACAAGAGAACATAACTCCCACCAGGAATAATGCAAAAATAGGATAAAAATGCTTTTTCATAAGTAATGTGTTTTATATTAGTAATTAATAGCACTGTTTCTGTCATTTCTGCAATACCGAAACCACTTTCTGTAAACGAATATCAGCAGAAGAAGCACCTACCATGATCGTATAATCACCGGAAGGACAGACAAACTTATCTTTCGCCTCATCCCAATAACGCAACAGATCTTTACGCAATTTCAAAGTCACCTTCTTGTTTTCACCACTCTTCAATGTGACACGCTCAAAACCTTTCAGCTCTTTGATAGGCATTATTTCATCCCGTTCAGGCAACTTCACGTATACTTGGGCAACCTCATCACCTGCATATTTACCTGAATTCTTCAGTTGGAAAGAAACATTTATCTCCTCTTCACCATCTGCCACTTGCAGGTTGGAATACTTGAACGTGGTATAACTTAAACCATAACCGAAAGGATACAGAACATCCCCTTTGAAGTATTTATAAGTACGTCCCTTAGTTATATCATAATCATCAAACGGAGGGAGTTCATCCAGACTTCTGTAATAGGTCAACGGCAGACGGCCACCCGGATTATAATCACCAAACAAGACTTCCGCTACAGCTTTACCACCACTTTCACCGGGATACCAAGCATTCACGATAGCCGGAATATGCTCATCCATCCAGTTGATAGCCAATGAGCTACCTGCTACCAATACAACTACGATATTCGGATTTACTTTGTAGATTTCCTGCAAGAACTCTTGTTGGTCCGCCGGAAGCTGAATATCATATCTGTCTTGCCCTTCACGTTCTATTGACTTATTAATGCCCAATACGGCAACCACTGTCTCACACTCACGCACCGCCTTTCCGGCTTCGCCGTACAAATCCAGTCGCGTCACTTTTCCTACCTGTGGAACACGCCATTGCAGTTTGGCAATAGCATAGTCACGGTTATCATAATATTCAGCCTTCAACTGATAATCTTTTCCGGCTTCCAGATAAATAGTAGCGGTATCAGTCCGGACAGCATGTCCCGGCCACGCATCAATCAACATCTTACCGTCAATGCTCAGGCGACAACCGTCATCCGATGTGAAACTAAGTGTATATTGTCCGGTAACCGTAGGACGCAATTTTCCGGTCCAACGGACAGACAAAGGAGATTTAGGCAAGAAGGGATCCGGCGCCTGGTTGGCAGGCTCAAAGTTGATCCATTCTTCTTTACGCACTTTCGGAGTTCCCTGCAACTTGGTATTGTCAAAATACTCGGCCTTCAATCCTTCCGGAAAACTGGCACCCTGTATAAGTTCCATTCCGTCTACAGCAGACTTCCATGGGGCGTATACCACTTTTACATCATCGCCTACCCTGTCTTTAATACCTTGCAATACAGAGATCGGAGCGATTACCGGCAATCCGCTATAATCACCAAACTCACTGCTACCCGCATTGATGCCTACCACTGCTATGGATTTTACCTTCTTGGCGTTAAGCGGCAACATTTTCTTTTGATTCTTGAGTAATACAATACACTCACGTGCAGCATTCAAAGCCACTTCCTGATGTTCTGCCGATCCTATCACAGCAGGAGATATTTTCGTATAAGGATTCTGTTCTCCACTATCGAACAAGCCTAATTCCATACGCGCTCTCAACACACGATAGGCTGCGGAGTCGATGTCCGCATCCGTAACCATATATTGACGGTATGCGCTCAGCAAAGGCTGGTCATATACATCATCTCCACATTCCAGATCCAAACCTGCTTTTATGGATAAAGCAGCGGCTGCTTCTTTAGTCTTTACATATTTATGCGCATTCACTAACAAAGAAGGTCCACCGCAATCGGAAACCACATATCCTTTAAATCCCCAGTCCTTACGAAGTACTTTCGTCAATAACCAGGCGTTCAAGGTACAAGGCACATCATTCAGCGCATTGTATGCTGACATGATGGAAGCTGATTTACCATCCTTCACGCACGCTTCAAAAGCCGGAAGGTAATATTCACGTAACTGTTTTTCTGAAATCTGCGGATTACATACAAAGCGATTATGTTCTTCATTATTGGCTGCAAAATGCTTGGGAGTTGACACAATCTTCAGATAACGGTCATCATCGCCTTGCAGACCTTTCACAAAAGCAGTACCCATGATACCACTTAAATAGGGGTCTTCTCCGTAAGTTTCCGGAGTACGCCCCCAACGTGGGTCACGCGCCATATTCACTGTGGGAGACCAGAAGGTCAGCAAGTCACTGAACTGGCTTTTCTGCTCCCGTCCCTGATCCAATTCATTCCAACGGGCACGGGCCTCATCAGAAATAACCGTAGCTACCTGCAATTGCAGCTCCGGATTCCAGGTTGCCGCCAGTCCGATAGCTTGCGGGAAAACGGTAAAGCGTCCCGGTCGAACCACTCCATGAAGTGCCTCGTTACCGTGATAATACTTAGGAATATCCAGACGGGAAATTCCCGGAGAGGTGGCACGCAACAGGCTGATTTTTTCTTCAACCGTCAAGCGTGATAATAAATCCATGATGCGCTCATGCATCGGTGCTTTCTCATCCTTATATAGCTCTTGAGCCTGTGCCACTCCGGCACAGGCTATTAGAGCTAATAATCCTGTAAATACAATCTTTTTAAGTGTTTTCATGGTTTTTTCCTATTGACTTATACCTTATTGTTTTTCTGCGGATGGGGGCACTGCATCACCTGTGCTACCCCATGCCTTATTGGGTCTGCTACCCATCACCAATACCAATTTCCCACCTTCTTTTATGTCGTCATGACTAAACCAAGGCTTATTCCATTCTTTTCCGTTCAATGTTGCAGATTGGATGTATTTATTTTCATCCGACGCACCTTGTGCTTCTATTTCAAATACCTTTCCGTTGCTCAACATCACCTTAGCCTTAGCAAACAAAGGACTACCGATATTATAAGCCGGGAATCCCGGTGTAACCGGATAGAAACCTAAAGAAGAGAATACAACAAATGCCGACATACCGCCACCGTCTTCATCTCCCGGTACCCCCATCAGGTCGTTACGGAACCAAGTCTTCAGCAACTGACGGATACGTTTCTGTGTCTTCCAAGGCTGACCTGCATAGTTATACAGATAAGGAATATGCAAAGAAGGTTCATTGGCCATCGAGAATTGTCCCACATTTCCCGTATGATCCGGTATCTGTGCATAGAAAGCATATTTGCCACGTCCCAGCGGTTCACGGAAAGTCTGATCCAGATTTGCTATAAACTGTTGGTTACCACCCATCAAATCAATCAGATCGGCTACATTGTGAGGAACGTCCCAACGATAAATCCAACCATTATTCTCACCATAATATTCACGGGCACCCATACCTCCGGAGAAACGATAATCGAATGGTTCGATCCACTTACCATTCTTATCCTTCGGATGGAAGAAAGCTGTTTCTGCATTATACACGTTGCGATAATTATGAGCACATTGCAGATAGTGAGCAGCATCTTCTTTCTTTCCCAACATATCGGCTATACGCGACAAGCACCATTGGTCGTATGCTGTTCCCAGTGTAACTGCAATCGGCTGACGCTTTTCGAAATGATGTACATTCGGGTCTGTTTCTTTTTCTCCTTCCTGAAGTGCAGGGATATATCCGTTCTTCTTATAGAAATCATCAATCCAACCGGCGGCAGCCCCCGACCACGGAGCCAGTGTTTTTTCTTCAATTCCTTTACGGCAAGCTTCATAGGCCTTAGCCAAATCGAATTGTAAGCCTTTAGCAGCCGCATCAGCTACTGTTGCTACGGCATGATTGGAATTCATACGGCGGGAGTCACCTGTAATTTCAGGGAAGGTAGGCATCCACATATTACCCATTTGTTCAGCCATACGCAGATAAGAGTCAATCACATTCTTTTCCGTACCTTCGTCAATCAGGAGACGCAGGGGATGAGCTGCGCGATAGGTATCCCAAATCCAGTCGTCCGTATAGAAAGGTTCGCCATTATCCTCGTGCACTTTTCCGTCAAATGCACTGAAATAACGACCGCCCTCACTGATACAAACGGGGCGTTCGAATATGCGATAGAGTGACGTATAAAGAATTTGCTTATCTGTATCACTGCCACCTTCTACTTGAATATCGCTCAATGCTTTATCCCAGATTTGGCGTCCTTTTTCTGCCAAAGCCTGTAGATTATAGTCCGGCAATTCACGTTGCAGATTCTCTTTAGCCTGTTCCTCGCTTATAAACGAAATACCATAACGCAGATTTACCGTTTTCGTTCCGTCGGCAAAGTGCAAAACAGCACAGGCATTGCGACCTTCAGCTTCCTTCGTGCCTGCATCTATTTTACCATCAGCCAAGATACCCGTTTCTATAGGAGCAATATCCGATTCTATATACAAGTACACACGCGTATTATTCTCCAATTGCTGGTAACCGCTCACAAATCCGTCACCTGCTTTGATGGCACCGTTTCGTGAATTAATCATCATGTATACAGGTTTATCCTGCTGGCTATAATCTATCTGATAAAGAGCCGACTGATGAGAGGGTGCATACTTCACTTTAATTTCCTCGTCATCGAGAATCACCTCATAATAATAAGGTTTCAACTTTTCATCATCATAGCTATAAGCTACAACCGGACGAAGATTCTCTCCCTGATACGGACTCAGGTTGAAAGCTGAACTTCCACGATGGCTGGTTACAATCAAAGGAAGACCGTTCAACTGATCTGTTGTATAGTCCGCCCGTTCGGGATAAACACGAAGCATACTATTCGGCAGATGAATAGTCGGGAAAGTAGGCACCAGCAAGTGACTGATATTTCCCATGTAAGGATTTACATAGTCAACCGGACCTTTCACGGCAGTTACTTGATTTTGTACTCCACTACAAGCGCCCAACATGGAAACTAAAGCTACAGAAGCCAGGCAATGTGTAATTTTCATAATATAACAGTTTTAGTTTATATTTATTCGTGAAGGCAAATGTAAGACCTAAAGCTTTCCCTTTCGATTAAAAAAGACTTAATAGCCGATTAAAATTGAATAAATAGCTAAATAAGTCTCTTTTTAATAATTATTTCTGTCCTCGTGTCTGTTTTACCACCTGTATTGTTCCATCCGAGTTATAATACAGCTTGTCTACACAGACCGAACGTAGGTTTCCCTGTCCTGAAATAGAACAGTTATGATAGAAAGCATACCATTCACCTTTATATTCAGCTATAGATCCATGGCTTGTATCGCAACCTGTCGGTTCCAGATAAATGCCCTGATATTTCCACGGCCCCATCGGAGAGTCACTTGTTGCATAATTCAAGCGGTTGGCACCTTTTCCATTATCCGAGTGATTGTCAGCATACGACATATAGTAAACACCGTCTTTCTTATGCACCCAGGTAGCTTCATGAAAATCTTTCAGTCCTTCCATGTCTCTCAAAGGTTCAGCTATTTCCATCATATTATCTTTCAGTTTGGCTGCCGCACAACGACCGCCACCGCCATAATAGAAGTAAGCCTGCCCGTCATCATCTACAAACACACAAGGGTCAATCATTGCAAAAGCATTACCCAATCCTTCAATATATCCCTGCACTTCAAAGTCTTTGGCGGGATACTTGCTGGTAGCTACACCGACTTTCCAGGTATTATTCCAGTCATCACCACTCGGATGCGGAAAATAGAAGTAATAAGTACCGTTCTTATATGCACAATCGGGCGCCCACATGAATCCACCGTCTTTACGTCCCCAAGGCACCTGTGAAGAGTTCAGAATTTCACCATGATCTGTCCAATTTACCATATCATCCGTAGAGAATACATGATAGCGGTCCATCAAATCGCACCCACGTGGCGGATCAATGTCATGCGAAGCGTACACATACAAGCGTCCGTCCTCCCATACATGGGCCGAAGGGTCGGCAGTATACATGTGAGTAATAAAAGGATTCGGCCCTAAAGTAACCGTTTTTTGCTTTTGGCTGTTACAACTCATCAATGTGAGCGACAAGGCAGCCAAGGTGATAAAAAAAGTTTTCATACGTATATTTCCTGTTAAATCATATTATCGATTCTATTTAACGCTTCGGCTGTGTTTCCTGAAGAGCAATCTGCTTGCGCAACATTTTACCGGCCTGTCCGGTGAGCCACAGATAATAGTCAGTTTCCAGATCATCATCGATACCTTCAAAAGTGATACCCAATTCTTTTTCTGATTTGCACCAACCATCAGTAGGAGCTGTTACTTTATTCTTCGCCATGAAAACAGTATTCTCAGTGCTTCTTCCGATGCCGTTCATGTCTGAATAAGAAATCTTTTCATTCTTCGGGTTATAAACCACATAGTATTCCACGTCGGCCGCATTACTGGGCACATCACTCTTTCTAAGTACCTTATAAATAGCTGTACCTTCATCTATTTCATCGAACATAGCAATATACAACATCGTACAACCTCTGCGAATGCAGTTATGGAGTTGAGTCCAGAAGAACTTACCTCTTTCGCGGGATCCCCGTTCATAGTAAGGATGCATATTCAAATCCGAAGCACCCGGATAGCAATGAGGTGCATACTGTACTTTGCTTTCTCCAGACTCATTGCATTTCTTACACCATTCTATATCCTTACCGACCATGTTGGCAAATCCACCGTCACTACCACCCGTGTTATAACTATTGATATCATTGAAACGACCTACATACCAGGGCATAATTACATCTACACTCTTGATGAGAGCATGCAAGCTAGCTCTTCCGGGAGTATAGGTATCACCTCCGCCGGCACGCCAGTAAGTAGATACACCCAGCATGATACTGTACCCCACTTCTTTCAGCTTGTCAGACAACTTCTGGATATCCTCATTGCTGTAACCACGTTCAGCAGGATTGAAACCTACCCCCCAAAGAGCAATTAGCGGTTTGCCATTCTCGTGCAGATAATATTTCCGTTTGGAGGCATAAGTATCATAGATTGCCTGGGCATCAGCAACGACTTTCTCAAAACGCGCAGGATTATAACCGCCAAGGTCATACATCACCGCAATAGCACGCTGATATTGGTCGGAACCATCCATAGCACTTGCCAATACCTTATCGAAGTGATCCTTACCGTCGGGATTATCAATCACTTCGCCTACAAAACGCTGCATAAATGCACCGTCAATGCCATACTCCTGCATCCACTTGAAATGCAACATCACAGTAGACTTGTCATAAGCACTATACACCTGCGCCGTCGTTCCATCAGGATATTTGAATTCTGTATCATACTTGATTTCATACTCACTCATATCCGGCCAGAGGTCAATGCTGTTACGCAGTACACCGGGTTTGAACATATCGTTTTCACGATAGTGATACCACTCCGTATTCTTATGATTCGCATGGCTACAGCCATCGCCCGGTGTACCAAACCACCCTTGATAACCGGTCATCAGCAACCCTTTGTAAGTGGTGTAAGGCTCTCCATCTACATGAATGGGGACATCCGCACGCGGGTCTTCAGGTTCAACAGGTACCTCAGGCTTTTCGGGCTCTAAAGCAGGCGGAATATAATCATCATTACTATCTTTGCAAGAGGCTGTAGTGCATGCCACGAGAGCACAGAGCACTAAATAATATATCTTTTTCAAATTCATCATAGCTTTATTTATTGTTGTTCAGTTAAATAGAACCGGGAAAAGAAGCTGTATGCCTCCTCTCCCAGCTGCACCATCATACCAATCTAATTACGTTTCTGTTGTATTTACTTTTGAGGAATTTCAACTTTCACTATTTCCGTATAGTTGCACTTTTGGAAAGTATCGTCAACCCTGGCACCCACACGAACAAAGTAAGTATAACCGGGCTTCACATCCACCTTGAAAGAGAAGATCTTGCTCTTACCATCTTCCAGTTTTTCCAGTTTCTCCCAAGTACTTCTTACCTTGGCAATATAGTTCTTAGCATAAGGTTTCTCGTCATCACTACCCATATCATTATAGTAACTAATGCAATTGCCTTCGCCACAGAACTGATTAAGGCTCAAGAAAGGACGTATATCCAGAATTCGGGGAAGTCCCGCTGTAATAGGAGGAACATCCAGACGGCAGGAGATAGCCAGTGAGTCATCCACCAGTTCCGTCTTCAGATCAATCAGTTTCAGATAAGGAGTTACTTCGAAGTCATGAACAGCCTTTTTACCAATACCTATACGAATAGTATCGGCAGGCCACCAGGCGCCTTCGGGAACCACGTCATACGTGCCTTTAAACAGTTTCGTATTGTTGAAAGTGCCATCCTGCTTCACAGGAATCGTTTGAGAACCGGGATTAAGACTGAAGCTTTTCTCCCAGATCTTCACCCGTCCTGCACCCTGATCGGCCAGGATATTCTCCCCCGTAGTTTTATCTATAATACGTCCAGTGAAGTGAGCGTCGGGTTCATCAAAATTGTCCACTTCCATACAGGAAGTCACAAATAGAGTTAATACTCCAAACAACAGACTATATTTCAACTTTTTCATATCCATATACAATTTAGTATTAATAACCATCATTACGTATAAGATTCGGATTCTTGCCGATTTCTCCACCCGGAATCTGTTCATAGTACCATTTCTTATCGAACGTAGCCTTACGGGCTACAACCGGCACTTCATTCAAGAAAATCCACTTATTCTCATTAAGTACGTAGTAAGGGAGCAACGTATGCGGTTGTTTACCATCCATAAAGTCAATATCAGCCACTCTCCAACGACGCAGGTCATAGATGCGCAGATTCTCAAAGCAAAGTTCACGTGCACGCTCATCACGAATGTACTGCAAGTTCTCATCTACCGGGAATCCGTATTTCTCCATACCCAGATCTTCCGGATTATTGACCATCTGATGAGGAGTAGCGCCTGCACGCGCACGGACTTCATTAACGTAAGTAAATGCTTCCGCCTTCAACTTATCATCACCGGTTTCCAAACCCAATTCATAAGCGGCCTCTGCCCAGTTCAGTAAAACTTCACCGTAGCGGAATACCTTCCATGACTGCGAACTTCCAAAAAGACCACCTCTAATAGCAAGGTTTGAGTTAGGGTTCGTATATTTACGAATCAATACTCCCATGTAGGAGTATCCTTCATCACCCGTACCTCTGAAACAACCATGCGGACCGGCTACTTTTACGTTCTTCTGATCACCGATATCCTGATACATCTGACTTGCTTCCACATTCTGTGCCGTCACGCGATAGGCGTTCGTATAGTCATTCGTGCTGCCACCGGTTTCCGTAGTTCCGTCAGCCGCCGTTCCGGGATAGCTTTTGTATACACCAGCCTGAAAATCGAATTTGGTACCCGAACCTTTCTCAGTCATACCCGAGAAGAAGAAGATAGCGCGGGCACGAGGCTCCATCTCGCCCGAGTTCCAGAGGTCCTCCACATTGTCAAAGCGAACAGGCTTGCCTTCCTCGTCGGTCACGGCAGGTATCTCGAACATACGAATCAGCTCCCATGCGGGCTGTATGGTGCAACCCGGAGCACTGATACTCAAGTTACTGCCCTTAGGTAGAATCATTGAATCCCAACTGTGAAACAGCATAGTACCCTGATTATCCTTCAAGGCTATGTAATCACCATACTGTTTGATAAAGATATCCTCTGGAGTATTGTCTTTAAAGAACTGCTCGGCATAGGCAGTTTCCTTGTCACTACCGTCGTTCAGCGCATAACCACCCTCCTTGACAAACTTGCAGGCGTCATAGGCATATTGATAAAATTCCTTAGCCTTTTCGGGAGCAACACCCATAAGTCCTGCATCCACGGCTGGTCCTGTTATTTTGCCATAACTGCCATATTTTGCAGCAGAAGCCGCATAGAGCATAGCGCGGCTCATTAACGCTGCCGCTGCATAGCGGTTGGGACGACTGGCATCTCCCTTGGCAGTAGACATATGATTCATGGCATATTCCAGATCATTGTGAATAAACATCCAACAATCATACTCTGTGCTACGAGGCAATTGCAATTCAGCAAGCGGTGCTTTCGGATCGAGTACCTTGTCCACAATGGGCACACCTCCATAGCGCTTCACCAGTCCAAAGTAGTAAAAAGCCCGCAAGAAAAAGGCCTCAGCATAAAGATTTTCGTATGTTTCTTCATTATAGTATTCCTTGTAATTCGGAAATTGCTCCATGAAATTATTAATGTCACGGATACGGTCGTAAGGCCAATATCCCCAACCGTCACCATAGGAAGTGGTACGTCCGGTAGCCTCCATAGCTGCGGATGCAGGACTCGCTTTCTGCGCACCCCACTGATTCGCTTCGTGCCAACCAGCCGCACAGACTGTGCCGAAGCCATTGTGTTCACCATTCATCGCAAAGTTGAAGTCTTCAATCGGCAGGTCCTGGAAAACCATGGCCCAGTATTTCTGCAGACCACTTTCGGATTTCATCAACACATTTTCATAGATCAGACCTTTGGGTTCCAAGTCCAAATCATAACAAGATGACATCGTCAGGCCTAATGCTGCTGCTACAAATATATATTTGATCTTTTTCATGTTCTATCCTCTCGTATTAGAATTTAATTGTTGCACCAATATTGAATGTACGGTTTACCGGGTAGTTGTAGAACAAGACACTCTTTTTATTGGGATCTTCGTTCGCACCGCCCTTTTCTCCCGGACGCTCCGGATCTATATTATCCAGTCCGGTAAAAGTCAAAAGATTGTAAGCATTGAAATAAACGCGAAGATCTTTAATACCTGCCTTAGCCAACCATGTCTTAGGCAAGGTATAGCCCACTTCCAAAGTTTTCAAACGAATATATGAAGTATTCTTAATGCCCGTGCTACCCGTATTAAAACTATGTCCGGTAGCCGGATAGAGACCGGATACCCACTTAGTATTCGGATTCCACGGATCGTCCGTCGGTTTCTCCGTATGCCAGCGATCTTCGTAAATATTCAGTACAGCAGCACCGTTGAATGGTCCTACCTCAGTAAAAACTTCACTATAGGAACTGTATACACCAGCTGAACCTTGCCAGTTCATAGAAAGATCGATACCTTTCCAAGCAGCCCCCAGTGTGATACCGTAGTTGAATACCGGCAAGTTGAAGGTAGCCATCGGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellulosilyticus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATGTTTCATATGATTGAAAACGATCACGTCGTTTTATGGGGTCGTTGCCTGAACCTTATCAGAGACAACGTACCAGAAACGACCTTTAAAACGTGGTTTGAGCCTATCGTACCGCTTAAATATGAGGACAAGGCACTGACAATTGGCGTCCCCAGCCCATTCTTCTATGAATTTCTAGAAGAAAAGTTTGTGGACTTGCTGCGCGCTGCCCTATATAAAGAAATTGGGGAAGGAACGCAGCTTATGTATTGTATCTTGACCGATAAGACCAACCATATAACTGTTAACATGGAGGGAAGCAAACGCTCTTCAGCACTACCCACACAAACAGTTATACGAGATGGTAACAAGGCACCTAATCCAATGCAGGCACCGGCTCCGCAGGATTTAGACCCACATTTGAATCCAAATTACAATTTTGAGAATTTCATAAAAGGAAATAGTAATGAGTTCTCACGTACAGTAGGAGAAACTGTAGCTAAAAATCCGGCAAAAACATTCAACCCTTTGTTTTTGTATGGACCATCCGGTGTGGGCAAAACTCACTTGACTAATGCTATTGGTACCCGCATCAAGGAATTATATCCTGAAAAAAGAGTATTGTACGTATCAGCACATCTGTTTCAGGTGCAATACACTGACTCTGTTCGTACCAATCATTTCAATGATTTCATTAGTTTTTATCAAACCATAGACGTTTTGATTATTGATGATATTCAAGAATTCGCCGGAGTAACCAAAACCCAGAACACATTCTTCCACATCTTTAACCATCTGCACCAGAACGGTAAGCAACTTATTCTGACTTCTGACCGTGCGCCGGTAATGCTACAAGGTATGGAAGAACGCCTTCTGACCCGCTTTAAATGGGGCTTAGTGGCCGAATTGGAAAAGCCGGACGTAGAATTGAGAAAGAATATCTTACGTAATAAAATACGTCGTGACGGTTTGAATATACCGGAAACAGTAATTAATTATATTGCTGAAAACGTAAATGAAAGTGTACGTGAATTAGAGGGCATCATTAATTCACTTTTGGCACAATCCATTATTTTCAAGCGTGATGTCGATTTGGATTTGGCTGAAAGAATTGTACGAAAAGCTGTACGCTGTTGCGAGAGCAAGCCTGTCACAGTAGAAGATATCATACAGAAAGTATGCAGCCATTACGAGATAGAAGAATCTGCCATCCATACTAAAACAAGAAAAAGAGAAGTGGTACAAGTACGTCAGGTAGCTATGTATCTGGCCAAAAAACATACAGACTCCTCTTCTTCCAAAATTGGTAAATTAATAGGTAATAAAGATCATGCAACCGTATTGCACGCTTGCAAAATAGTAAAAGACCAAGTAGAGGTTGACAAAGCATTTAAAGCGGATATTGAGGAAATTGAAGCTTCTCTCAAAAGGAAATAGAATAAAACCACAGAGGTGCGCAAAGGGCATTTTCTTTATTTCCCTCTGCGCACCTCTGTTTTAAGATTGATAGTTCCCGGCAATTCACTTCTCAAAACCCTGTTTCTTCAAGGTTTCTTTCAAAGTTACAGACATACATTCATTATCCGACTTCTTGTATCTGACCTCAGTAAATACCTGAGCCAGTGTTTCCTTATGATTTTCTTTAATAAACTGATGATTTTCCGGAAGTGACTCTTTATATCTATAAATACGATCAATATCCTCTTTGGTATAATCATGATACAATTCTTCATGCAAAATACCCTCTATAGGAAGACGATCGACTTGTGGAGGGCATTCATCCGGATATCCTACTGTAATAGTAGCCACCGGCATAACCAATTCCGGCAACTGAAGGATATCAATAATTTGATCAGGATTATAAATCGTTGTTCCCAAAAAACAAATACCTAATCCATTTTCCTCAGCCAATGTACAAAAGTTCTGAGCCACAAGCAATGCATCCGTAGCAGCATTCAAAAAAGAAATGGGATTGTCATAACCCGGTACCGCCTTACGCTCTCTGCACCATTTACTAAAACGGTTAAAATCCGCACAAAAAGTCAGTACAACCGGAGCACCTGTTACCATCGGTTGATTAAAATGGGCAGGTGCCAATCTCTCTTTCATCTGCTTGTCACGAGTCACAATCACACTATATAATTGCATATTACCCATTGTAGAAGCACGGAACGCCTTTTCAAGCAAATCATTTAACAAAGAAGCAGAAATATCTTCCTGCTTATATTTACGGATCGTCCGTCTATTATTTATCGATTCCATATATATTTTTCTTGCAAAGATAAAAAAAGAAAAGAGTAACAATGCATTTTTTGCAAAATATTATATGCTAAGAATCTGGCCTTTTCAACTAGTCAATCACTCATCCCCTCCATCAAAATTTTCAAAACAGAAAACTTCTACAAATAAGCAAGCATATATATCTTTTGATAATCAATAAATTAACAAATATTCTTGGATAACTTTCAATTTGTTGAAAACTTATCTGCTTTTTATTTTGTTAATTGAAAAAACATATATAGCTTTGCCGAAACTTTTATTATAATGAGTTGTAACTTCTACACTAAAACAACTTATTGATATTACAGTAAATCTAAAAATAAAAGTGGAAAGACAAACGTACACCTATGACGAAGCTTTTGAAGCATCTTTACAATACTTCAAAGGTGATGAACTTGCTGCAAGGGTTTGGGTAAACAAATATGCAGTAAAAGATTCTTTCGGGAACATTTTCGAAAAGTCTCCCGAAGATATGCATTGGCGCATTGCAAATGAAGTAGCCCGCATTGAAGCTAAATATAAGAACGGGTTAAACGCACAGCAGCTTTACGAATTATTGGATCACTTTAAATACATTGTTCCGCAAGGTAGCCCTATGACAGGTATCGGGAACGACTTTCAAGTGGCTTCCTTATCAAACTGCTTTGTCATTGGAATTGATGGAGCAGCCGACTCATACGGAGGTATAATCCGCATTGATGAAGAACAAGTACAATTAATGAAACGTCGTGGTGGCGTAGGACATGATTTATCTCATATACGACCAAAAGGTTCTCCGGTTAAAAATTCAGCACTGACTTCCACCGGACTGGTGCCCTTCATGGAACGTTATTCCAATTCAACACGTGAAGTAGCGCAAGACGGACGTCGTGGTGCTTTAATGTTAAGCGTATCCATCAAGCATCCAGATTCAGAAGCATTTATTGATGCCAAAATGACCGAAGGCAAAGTAACCGGTGCTAATGTATCCGTGAAACTAGATGATGCATTTATGCAGGCAGCTGTAAATGGCACTCCTTACAAACAACAATACCCGGTAGATTCCGATCAACCTGTTTTCACGAAAGACATTGATGCATCTGCGTTATGGAAAAAGATTGTCCATAACGCATGGAAGTCTGCTGAACCCGGTGTATTATTTTGGGACACCATCATCCGTGAATCCGTACCAGACTGTTATGCCGATTTAGGATATCGTACTGTTTCTACCAATCCTTGTGGTGAAATACCCCTGTGTCCCTACGATTCTTGTCGCTTATTAGCTATCAACTTATACTCATACGTAGTAAACCCTTATACAAAGGAGGCTTACTTTGATTTCGACTTATTCAAAAAGCATGTGGCATTGGCCCAGCGCATTATGGATGACATCATTGACTTGGAATTGGAAAAAATCGAGAAAATCATAGCTAAAATCGATTCCGATCCCGAAAGTGAGGAAGTAAAAGAAGCAGAGAAACATTTATGGGAAAAAATTTATAAAAAGAGCGGACAGGGAAGACGTACAGGCGTAGGTATCACAGCTGAAGGGGATATGCTTGCCGCTATGGGGTTACGCTACGGAACAGAAGAAGCAACAGAGTTTTCTGAACAAGTACATAAAACAATCGCTCTGGAAGCCTATCGTTCATCTGTTAACATGGCAAAAGAACGTGGAGCATTCGCTATCTATGACAGTGAACGAGAAAAAAACAATCCGTTCATCAACCGCTTAAAAGAAGCTGATCCAGAATTATATGAGGAGATGAAAAAATACGGACGACGTAATATCGCCTGCCTGACCATAGCTCCCACCGGAACTACCAGCCTAATGACCCAAACTACTTCCGGCATAGAGCCGGTGTTTATGCCGGTGTATAAACGTAGAAGAAAAGTCAATCCGAATGATCCTCAGACACACGTAGATTTTGTAGATGAAACAGGAGATGCATTTGAGGAATATATTGTATTCCACCATAAATTTGTGGAATGGATGACAGTAAACGGTTACGATCCCACCAAGCGTTATACACAAGAAGAAATTGACAAATTGGTAGAAAAGTCACCTTATTATAAAGCCACATCAAATGATGTAGACTGGCTGATGAAAGTAAAAATGCAAGGACGTATCCAAAAATGGGTTGACCATTCAATCAGCGTAACTATCAATTTGCCCAATGACGTAGATGAAGCATTGGTAAACCGCTTGTATGTAGAGGCATGGCGTTCAGGATGCAAAGGATGTACCGTTTATCGTGATGGCTCCCGCTCCGGAGTTTTACTTTCTACCCAAAAGGACAAGAAAGACAAAAAAGAAGAACTTCCCCCTTGCAAACCACCTACGGTAGTAGAAGTGCGCCCCAAAGTACTGGAAGCGGAAGTAGTACGTTTCCAAAACAACAAAGAAAAATGGGTTGCATTTGTAGGCTTGTTGGATGGACATCCATACGAAATCTTTACCGGTCTGCAAGATGATGAAGAAGGTATTTCATTGCCCAAATCGGTCACTACCGGACGCATCATCAAAAACATTGATGAAGAAGGCAACAAACGATATGATTTCCAGTTTGAAAACAAACGTGGATACAAAACAACCATTGAAGGTTTGTCTGAAAAGTTCAACAAAGAATATTGGAACTATGCTAAATTGATTTCGGGTGTACTTCGTTGGAGAATGCCTATTGATCGTGTTATCAAACTGGTAGATTCTCTGCAACTTGACAGTGAAAACATTAACACATGGAAAAATGGTGTAGAACGAGCACTGAAAAAATATGTAACAGATGGTACTAGTGCCGAAGGACAAAAATGTCCCAATTGCGGAAATGAAACTCTCGTATATCAAGAAGGATGCTTGATCTGCAAGACTTGTGGCACATCGAGATGTGGATAATGGTTTATTATATAATGTAACAACACAAAGGAAAAGCTCCTTCATGACTTTCGTGAAGGAGCTTTTTTATATAAACAAAATAAATCCCTTTTCTATCTTACCCCTACAATACGATGAAACCGTTCCACAATACGCCTTCCTAAATCCATACGCGTACTATCTACTTTATGAATGGCAGCAGGAGTCACATCATCTTTATATTTGGCTTTACCTACACGTATTTTCATCTTATCCAGATTACCGGAAATATTCACTCCAGCCTTAAAAGGCAAAGGCGATTTCAAAATGGATATATGATATTTAAAATTCATATCCAGTCCTTGCTCTCCCCCTATAGCAGCTTTATAACGATCTATAGACACTTGAAATGGATAAACAAGAACACTACCGTCATTAACAACTACATTAACCGAAATACTATCAAATACATTCTTCTTTTTATTTTTAAACATCAACATCTTTGAAATTTCGGCAAAGGTCTCACCATCCATCAACACCAAACTGTCCCCTTTTATATACATGGCCGAACGCAAAGTAGGTATACGAATATTCATATTTGAATCCAGACGTGCCTCTGCAGCCACATCAAACTGAACCCTTCCTTCAAAAGATCTCAACATAGGTACAATGGTATCCATTGAAGGTATAAAATCTACCAGCTTAGCTATATTTATATCCCTAATTTTAAAGTCAAAGCCTGTATATCCTCCTCTGACTGAATCCGCACGATATACCATAACCGCCTTCATATCAGCATCCAATGCACGCATTTCCAAATTTCTTAAATATAATGTACGATTTTTCAAATCTACCTTTCCACACACATCTTCAAATTCCACCTTTCCAAACACTACTTTTTTCAAATCTGTCTGTAATTCAAAATCCAAATTACCCGGTAACACAAACAACTTCATTTCTGTTGGAGACACTGTGTCTGTCACCGCCACAGATACTGAATCTTCAGATAAAGAGAATGAATTTATCAATTGATTACAATCAATCATCTCAGAAGAGATTGCTAAACGCGCTTTTAAAGTTTCATTTTTAGTCATCGCACGATATAATCCCATTACCTCACCGGTAGCAACCATATCTGAATGCCCTATTTTCAAAGAGGCATTTCTTAATGTTATTTTCGGACCATCTACTGTTACAGCTGTCTTACGTACTCGTAAAGGTAAACCAAATTCAGGAGTATGTACCAACAACCTATCAAAACCAACAATTCCCCGAGGTATCCATAACGAATCATTTTTCTTTTCCAATTTCGCCTTAATACCTGCCACGCCTAACGCCAACTTCGTTTCATTGGCATTAAAGAAAAGAGAATCCGTACGCATGGAAAAGCTAATCATCGGCATCGCCGAATTTTGTTCCTTCGGAGCAAGTTCGCCAGTTCCAGTAGTCTTGCCACTATATATTTTAAGCGAATCTCCTATATTCGCACGCAATTTATTCATTTCCAATTCACATTGCAAAGTGACAATCTTTGTGGTATCTTGAGGATTGGTTGAAACAACCTTCGCTTTCATCCGATCTATCTCTGAAACAAATTTCCTACTATTCAATATTATTTCTCTGATATCCAATTCGGCCTGCAAAGTTTCACTATCACTGAATTTTAAATCGGCATTACCTAAAAAATTAAAATCTTTAGCAGTGTCTTTTAACTCAAAATCCTTTAAAGCCAATCTTCCCCCTAACCTGATACGTCCAATATCCTGCTTTTTCAAAGAAGAAAGACGACATTTTAAATTTAAACCCGCATCTAATTTACCACGGATGGTTACATTTTCCTGCAAAGGGAAAGTTTTAGCTAAAGCATCCAAGTCAACTGTAGATTCAGTATGAAGCGTTATAAGTGGATCTACCAATAAATCCTCCACTTTGGCATCTGCTAGAATCTTGGTATGTGCTCCCTCAAAATGAAGAATTTTCAAGTTCAAAAATGAAGGATTGCGACGCATCAAATCAATATACGATTCAAAATCAGCCGTAAAATTATCAATACCATAAGGAAGTCCTTCATATCGGGCGGATGCATCATTAATCTTTATATTCAATGATACCGCCGGAAGCTGTTTGTTTCCATAATTACCTTCCAATGTTCCATCAACCTTAACCTCACCTTTTGCCGAAATTTGTCCACGTTTCACATAAGCCTCGGGAATCATATTCATGACTGTTTCCATGGAAGGTGCATGTAGTCCATATTTCAAGTTCACACCCACCATCTTGGTAACTGTATCACGTTTTAATTCACCGTTTACATCCAGCCGGATACCATTTATAGTCAATCCTGTATTTTTCAATGTCCACAATGCCGTAGACCTGTCTATCTCAATATCAGTCTGCAAGGAAGCCGCTACCTTATTAATCAATAATTCACCTTGCTGCCAAAAAAGAATATTTTTATTTTCAAATTCTACTCCCAATGAAGAAATTCCTTTTGTCAACGCCAGCTTTAGGCGCAAATCAACATCATCTATACGTGAATAAACCTCTGTATTACGATCATCAAAAATCAAATTGGCATGTTCTAACTCAACCTGACGGATATCTATCTCGCTATCAAATTTATTTTGTGAAATTGTATCTTTTTCCACAGCCAATGTATCCGAGGAAGTTTTCACTATCTCCCAATTCGCCTTACCTGTTTTATTTCGATAAGCATAAACAGCAACATTTTTCAAAGACAAATTATAGACACTGATCTTATTTTTCAAAAAATAATCCAAGGGATTCACTGTCAACACACATTCTTTAAACGCCAATAAAGAATCGGTCTTTTGTGGAAGACTATCATTCAATACTTTAGAAACCAAGAAACCTTCGTCAACTTTTAACCCAAATTGAGGAAAGGTAGAAAAGAAAGTCAATTCTACACTTTCTACCTTCAAATCAGCATCCAGTGAACGATTAGCAACATTCAACACTATCGGAGTTAATTTATCTGGTGTAAATACATAGTTAATCACAAAAGCCACTACCACAAACCCAGTAAGCAGCAAGGCTCCCACTGTAATGGCACTTACCCTTATTAATTTACGAATTCTTCTTTCCATATTATGCAAAATTAATGAAAACACCCATGCCATCAACTTTATTTCGTGTTAATACTATAAAATAGACCAATAAAACAGATAAAAAAGAAAACAAGAACAATGATTTTTAATTTTGAGATATGAAGCGAAAGTTCTACTTTTGTTTCTCAAACTGAAAAAATATGAAAGCAACATCTATGTATATTTATCTGGAAGGTGCCAGGTTTTTCGCTCACCACGGAGTCGATCCACAAGAAACAATAGTAGGAGCTAATTTTATAATTGATTTAAGACTAAGAACCGATTTCACCCATGCAGCACAAACTGACGAACTGAAAGGCACCGTAAGTTATGCTGATATATATGCAGTCGTCAAAAAAGAGATGAAAACTCCATCCAAACTTTTAGAGCATGTCTGTGAACGCATAGGGCAAAGACTGTTTAATGATTTTCCAACTATTCAGGAAATAATCATCCGGTTGTCAAAAGAAAATCCGCCTATGGGCAGTGATTGCAGAAATGTTGGAGTAGAAGTACATTATACACGATGAAAAAAATTATCTGACAAACATCCAGTCATTTAATTAAGTTCACCCTATTACATGCCCTCCTCTTAAAAACGTAAATATGCTATCGTGCAAATAACAACACAAACCAATAATAATGAATATACAGACCATGTTCATGACCCTACTTATTAAAATAAAGAAAGTTGTTTTCTTCCTTCAGAATGATAAAATTTCATGGTAGCACTGATTCCTAATGTTTCTATTCTGCGATAAAAAACCTCATTCAAATAGGGAGCATTAGGAGAAATGCATTCAGAACGGTCTTCAAAATAAGTTTGATATCGCTTGGCCATCTTTGGAAAAATCCGCTCTACCTTATCATAAAAATAATCACGGGAGCCCCGTCTTAAAGTTACCCCGAACAAAGGAAGCACATAGGACGCTCCTGCTTCGGCAGCCTTCTCTACTATTTCCTCAATATCTTCTATAGAATCGTTTATAAAAGGCAAAACAGGCATCAATGCCACTCCTGTATATATACCCCGATCGGACAATATCTTCATCGCCTTAAAACGCTCGGAAGATGCCGGTGCATTAGGCTCCAGTTTGCGCGCCATCTCGTCATCCGCTGTAGTGATAGTAAAACTAACGGCAGCATAAGTGCGCCCTATATCCTGCAATACATCGGCATCACGAGTCACAAGACTACTCTTTGTTATCACATGAACAGGAAAACGATGTTTGGCAATAATTTCCAACGCACCTCCAGTCAGCTTCATCTGTTTTTCCAACGGCATATAAGGATCATTCATTGAACCTGTGCCAATGGTTGCTTTTCCACGTTTCGTTCCCAGTTCATGATCCAGTAATTCCAAAGCATTCTTCTTTACAGAGATATGAGAAATATCACCAACACCATAGCAAGAACTACGTGTATCACAATAAATGCAACCATGTTGGCACCCTCTATACAAGTTCATGTTATAAGCAATTCCCCAATAATTATCTTTACTTTTCAAACGTGACAGAATAGACTTTGTTTCAATAGATTTTACCTCATGAACATTCATTTTACAGCTCCTTTTCTTTTTTGATCAAATTTCATCAAACAAAGATACAGGAATAATGCTATAAAAAGAAATATAAAGAGAAGCAATTTAAAAAAGTTTCAACTGGGAAAAATGTTTTTTGCCCAACAAATAATATTTCATAACAATGCTAAAATGAGTCCGTTCCGGAATTATCTCATCTGTAGACTTCATCATATTTTCTATACGAGAAGCGGCAAAAGAATATCTTATATCCTCAAATTCTCTCCGCGCCTGCATTACAGCACGCGCATTCGCTCTATCCTTTTTCAGATAAAAAACAAGGGCAGCCACTCTATCCAGTATACCACGTATAAAAAGTACATGTTCCAATTCCTTATCCGGCAAATTCTTATAAAGCATCAACAGATTATTTCTGAAATTCAAAAAAGTCTTTCTCGGATTCTCTTTTTTCAACGTAGCCCCTCCTACATGATATACCACACTTTGCGGAATACAGACAAGCTTTTTTCCCCTACTGCGCAAACGCCAGCACAGGTCAATTTCTTCCATGTGGGCAAAAAAATGACCATCCAAACCTCCAACTTCACGATAATCAGCCAACCGGATAAAAAGAGCAGCTCCTGTAACCCACATCACCTCCGTTATCGTATCATATTGTCCGCAATCCTTCTCAACAACATCAAAAATACGTCCTCTGCAAAAAGGATATCCATACCGGTCGATAAATCCCCCCGACGCTCCGGCATATTCAAAATATTCCTTATTATGCCAACTTAATAATTTAGGTTGGCAGGCAACTGTTCCGGAATGGGTGTCCATATAATCCAGCAAAGGTTCCAACCAATGCGGAGTAACCTCCACATCACTATTCAGTAAAACTACATATTCTGCATCAACTTGCTCCAAAGCCCGGTTATATCCTTCGGCAAAACCATAATTCTGATCCAGCTCAATCAAACGGACTACAGGAAATTCAGAACGAAGCATTTCAAGCGACCCATCAGAGGACGCATTATCAGCCACACATATTTCAATCCCCTCTCCTACTGAATTATCCATAACAGAAGGTATAAACTTACGGAGCATATCCACCCCATTCCAATTCAATATAACAACAGACACCCTTTTCATTTCTTTTCAGACTAATACCAAATGTATGGAATAATTCAGACTAAAACACCCTTCAACGCTGTACCCTCTTCATTAAAGCCTCCCATTCTTACACGAATCAACTGATTATCCAATTGATCATCGTGATCCATCTCCACCCGGATGTAATTATCAGTAAATCCATGCATAGGAGTTCCAGCCTTAGATTTTTCCATTAATACCCAAGCTTCCCTTCCTATATGAGAGGTATAGAACGCCTTTGTCTTCGCATCAGATAAAGCCAACAATCTCTGGCTACGGCGATGCTTCTCCTCAGGACTCACCACATACTCTATTTTCAAGGCCTGCGTACCGGGACGTTCCGAATAACTGAAAACATGTAACTGCGTCACATCAAGCCCTTCAATAAAACGATAAGCATCTTCAAAATATTCCTCTGTTTCACCACGTGTTCCCACAATTACATCCACGCCAATAAACGCATCCGGCATGATTTCCTTAATTTTGCGTATCTTGGAAGCAAACAATGCAGTATCATATCGACGTCTCATCAATTTCAACACATCATCGCTGCCCGACTGCAAAGGAATATGAAAATGCGGCATGAATGCACGTGAACGTGACACATATTCTATTATCTCATCCGTCAGCAAGTTGGGTTCAATAGACGAGATACGATAACGTTCAATCCCTGCCACCTGATCTAAAGCCTTTACCAGATCAAAGAAACTTTCACCGGTTGTCTTCCCGAAGTCTCCAATATTCACCCCGGTAATTACAATTTCCTTCCCTCCTTCAGCTGCAGCCTGCCGCGCCTGTTCCACAATCTCTTCAATACGTCCGTTCCGGCTACGCCCACGAGCAAACGGAATTGTACAATAAGAACAGAAATAATCGCAACCATCCTGCACTTTCAGAAAATAACGAGTGCGGTCACCCCTAGAACACGAAGGTGAAAAACTACGTATGTCTTTTGCAGCTGTCGTAATTGCCTCACCTTGAGGATGCTTTTCCAAATTTCCGAGATAATTCATCAACTCTCCCTTTTGTTCAGCTCCTAAAACAACATCCACCCCTTCTATATTAGCCACCTGGTCAGGTTTTAACTGGGCATAACATCCCGTCACTACTACATAGGCACCCGGATGCTGTTTAACCAAACGATGGATGGCCTGACGGCATTTCTTATCCGCAACCTCGGTTACAGAGCAAGTATTAATAACACAAATATCAGCTTTCTCACCCTTACGTGCTGTACGTATACCTGCTTCTTTCAGTGTTTTACCGATGGTTGAAGTTTCTGAAAAGTTTAATTTGCAGCCTAATGTATAATAAACAGCCGTTTTATCCTGGAAAATTGTCGTATCAATCATACCTTTTTATCTAATTAGCGAGCAAAGGTACATATTATTCTGCTTAAATTCTTTAGAATACCAATAATTATGCTTATTTTTGCACATTACATCAAAAATTGTGCAATGATAAAAGAAAACTTTATCAAGCTATATGAGAATAGCTTCAAAGAAAACTGGGATCTTCCCTGTTACACAGATTATGGTGAAGATACCACGTTTACATACGGACAAGTAGCGGAAGAAATAGCTAAGATACACTTGTTATTCCAATATTGCAGCCTGCGCCGTGGTGATAAAATATCTATTATAGGTAAGAATACTTCCCGTTGGTGTATCGCTTATTTGGCAACTGTTACATACGGAGCTATTGTAGTTCCTATTCTACAAGACTTCAAGCCGAATGATGTCCATCATATTGTAAATCATTCCGAATCCACATTCCTGTTTACCAGCGATAATATTTGGGAAAATTTGGAAGAAGAAGCATTAAGTGGATTACGCGCTGTATTTTCTCTAACAGATTTCAGATGCCTGCATCAACGTGACGGTGAAACTGTCCAAAAATTCATGAAAAATATGGATGCAGCAATGAAAAAGAATTTCCCCAAAGGCTTCTATAAGGAAAATATCAATTATACAGAACTCTCCAATGAGAAGGTCATGTTACTGAATTATACCTCAGGAACTACTGGATTCAGTAAGGGAGTAATGATTACGGGCAATAATCTGGCAGGAAACGTTACCTTCGGTATCCGTACAGAACTTTTAAAGAAAGGAGAAAAGGTACTTTCCTTCCTTCCCTTGGCCCATGCATACGGATGTGCTTTTGATTTTCTAACCGCTACGGCTGTCGGCACACATGTCACCTTATTAGGCAAGACACCTTCTCCCAAAATATTGATGAAAGCTTTTGAGGAAGTAAAACCCAACCTTATTATTACAGTACCATTAGTTATAGAAAAAATTTATAAGAATGTAATTCAGCCGCTCATCAACAAACGCAGCATGAAATGGGCGCTTAACATACCTTTACTAGACAACCAGATTTATGCACAGATTCGCAAAAAACTGATTGACGCATTAGGCGGACGTTTTAAAGAAGTCATTATCGGTGGAGCTGCCATGAATCCGGAAGTCACCGATTTTTTCCACAAAATAAAATTTCCGTTCACCATCGGTTACGGCATGACCGAATGCGCCCCACTGATCAGTTATGCTCCATGGAATGAATTTATACCTGGTTCTGCCGGAAAGATACTGGATATCATGAAAGTCCGTATCGACTCGGATGATCCTTATAACATAACCGGAGAAATACAGGTATGTGGTGAAAACGTAATGAAAGGTTATTATAAGAATGAAGAAGCTACCCGTGAGGTATTTACTGAAGATGGTTGGTTGAAAACAGGCGATTTAGGTACAATAGATGCTAACGGATTCATTTATATAAGAGGCCGTAGTAAAACCATGATCTTGAGTTCTAATGGACAGAATATTTTTCCTGAAGAGATAGAATCCAAGCTAAATAATATGCCATTCGTTCTAGAAAGTTTAATCATAGAGCGCAACAAGAAACTGGTAGCTTTAGTATATCCTGATTATGAAAGTCTGGACAGTCTGGGACTCAATACCCCCGAAAACCTAAAAACAGTAATGGATGAAAACTTGAAGAATCTGAATAAACTGGTAGGAAACTATGAACAAGTGAGTAAAATACAACTTTATCCCACAGAGTTCGAAAAAACTCCCAAAAAAAGCATCAAGCGATTCTTATATAACAGTATTACCGAAGAATAAATATGTTGTAAAACATGCTACTAATCAGCAAAATAGGTTGTATAACATAAAAAATTAGAAAAAAAGTTGTTCTTTTTGGTACAACGTATTAAAAAAGTGTATACCTTTGCATCGTTTTAAGAAAGCAACATTAGTATTACAGATTTAAAAAGCAAAGAAAATGAAAAAATTAGTATTTTTGTTCGTAGCCTTCGCAGCTGTTTCTTTCGCATCTTGCGGAAACAAAGCTGCTAACAACAACGCAGAAGCAACTGATTCAGTTGCAGTAGTAGAAGAAGCTGCTGTTGTAGAAGAAGTTGTAGCAGATTCAGCTGCTTGTGACTCTACAGCTGCTTGCTGTGACTCTACTAAGGCTGAATAATTCAGTACGAACTCTAGAGAGAATTGAAAGTCTGCCGTGCGAAAGCACAACAGACTTTTTTTATGTTTTTACCTCTCCCTTTCTGCCAGCATTCCATTGCTTTACAATACAAATTATCTACTTTTGTTTCTCGAACCACAAACAAAAGCAGGATATGAAAAAGACAAATCTAAAAGAGAAACTTCAAAACTGGAAGTTGGGAAATTATTTCCGCGAATTATCAATTGTCACTGCCGGAGTATTTATCACTCTTGCCGGAACTGATTTTATAAACAGTGCCTCACAAGAGAAGCAGATAAATAAAAGTATGCAAATGATAAAAATGGAATTAGAAGAGAATTTAAAAAGTATCAATCAGGCCGAAGCCGCATATTTAAATGAAATTAATTTCTTCCGATTGTTAATACAAAAACAGGATTCACTTCAAACCATTAAAGCTTCTATTTTAGAAAACAATGCCAATGCTCCTTTTGCGTATGAAAATTGTGAGTATTCGGAAGATGCGCTAGAAGTACTGAAAAGCTCAGCGCTGATGCAGCAGATACCTGACAAAGAGTTCATTTTAAAACTTTTACAAGCCTATAAAGGATGCAGAAAAATAAATGAAGACAACAAAGACTATTATAAATACAAACAGGACCATATAACTCGCTATTTATCTCACCAAACCAGCAATAATATTCATAAAAATTATAACAGTATTTATGAAGTATGGGCAGCCAGACTACAAGAATATGATATCAAACAACTGATCCTCACTATGCCAAATACTTTTAATGAAAATCCTTTTACCACTCCTCAAAAAGTTATAAAAGAAACGATTGAATTAATAAATCAAACATATTAAAAAGAAAAAGCCCGGCTCTCACGAACCGGGCTTTTTCAGCATCATTATACTTTAAAGTATTTACAGATTTTATTCAGCAACTACTTCGAACGGGATCTCTACAGAAACTTCCTTGTGAAGTTTAACGATAGCTTTGTAAGAACCAACTTCTTTCACTGCATCTTTCACAACGATAATCTTTCTGTCAACCTTGTGACCCAATTTTTCCAATTCCTCAGCAATTTGAATGTTGCTAACAGAACCGAAAATAGTACCTGTGGCACTCACTTTAGTAGCAATAGTCAAGGTTACATCCTTCAACTGTTCTGCCATAGCTTCAGCATCTTTCTTAATCTTTTCCAATTTGTGAGCGCGTTGTTTCAGCTCTTCTGCCAACATTTTCTTAGCTGAAGGTGAAGCAATCACTGCCTTACCAGTCGGAATAAGATAGTTACGACCGTAACCAGACTTCACAGTTACAATATCATTTTTGTAGCCTAAGTTCACTACGTCTTCTTTCAAAATTATTTCCATACTTATTCCTCCTTATTATTTCATCATGTCAGTTACAAATGGAAGTAACGCCAAGTGACGTGCTCTTTTAACAGCCTGCGCAATACGACGTTGGAACTTCAGAGAAGTACCTGTAATACGGCGAGGAAGGATTTTACCCTGTTCGTTCAAGAATTTCTTCAAGAATTCAGGATCTTTGTAATCAATGTACTTAATACCACTTTTTTTGAAACGGCAGTATTTTTTCTTCTTTACGTCTACTGAGGGCGGAGTTAAATATCTGATTTCTGATTGTTGCTGTGCCATGATTAATCCTCCTTTTTAGTTGATTTAACATTTCTTCTCTTAGCAGCATATTCAGCAGCGTATTTATCCATTTTAAAAGTCAAGAAACGGATAACACGTTCGTCACGACGGAAGTTAATTTCCAACTTTTCAATAACCTGCGGTTCTGCTTTGAACTCTATCAACTGATAGAAACCAGTTGATTTCTTTTGGATGGGGTAAGCCAGCTTTTTCAAGCCCCAGTTTTCCTCATTGATAATCTCTGCACCTTCTGCAGTCAGAATACCTTTGAATTTCTCTACCGCTTCCTTCATCTGAACATCAGATAAAACGGGAGTTAAAATGAAAACGGTTTCGTATTGATTCATACTACGTTTATTAAATTATTAAATTAAATTTCAAATGCGAGTGCAAAAGTAGATATTTTATCTTAATCTACAAAGAGTTATCGCAATTTTCTTCAAAAAATATAGTTTCATTTTACAATTAATCTTCCTTTTCATATTTTTTATCTGTGAAAAACAAGTTATATCCGCCAAGAATTGTATATTTGCAAAGTTGTTTAAACAATAATTCCATGATAGAACAATTTAGTTTTGATATCCAATTAATATTTGCCATATTAAATGGCAAAGTATCTGCCGCCATCAACCGGAAACTAAGCCGGAATTTTCGCCAGAATGGTGTAGAAATTACCCCCGAACAGTGGACAGTCCTTCTTTTTCTATGGGAAAAAGATGGTGTCACACAGCAAGAACTATGTAATGCCACTTTTAAAGACAAACCCAGCATGACCCGCTTGATAGACAATATGGAACGCCAGCATTTGGTGGTACGCATCGCCGACAAAAGAGATCGACGCACCAATTTAATTCATTTGACCAAAACCGGCAGAGAATTGGAAGGCAAAGCACGTTTCATCGCAAACAAGACATTGAAAGAAGCACTGCAAGGATTAACATTGGAAGAACTGAAAGTCAGCCAAGATGTATTAAGAAAGGTATTCACCAACATCAAAGACTAAAGTTTTTCAAGGTTTTCATCTTTTTTTCCTAAAATAATTTCCATGATAAGAGAATTATGCTTTAATTTGTACACAAGAATAAATATAATCTATTAATAAAATACACACATGAAAAGCTTACTTAAGAATTTAGGTCTGATACTGATGATCATCGGCGCCGCTATTTTAGTCGGTGTTTTCTTCACCGGAAGTGCAGCAATTAACGACAACGGTGTTTTAGGTGGAAGTGCCGCCCTTATCGTTATAGGTTTAATCGTTTATATTGTATTAAACAAACGCATTGTTGATTAAAGTATAAGAGAACAAAAATAAAAAAGTCCGAAACAAATGTTCCGGACTTTTTTATTTCATCTATTTCACTCAGCCTTATTCTACTTCAGGAGTAATCAGTTTATACCCCTTCCCGTGAATGTTGATAATCTCGATAGAATCATCTTCTTTCAAATGTTTACGCAACTTAGTGATATACACGTCCATGCTTCGTGCATTGAAATAATTATCATCAATCCAAATGGTTTTCAATGCGAAATCACGCTGCAGAATCTCATTAGCATGAGCACAAAGCAAGCCCAATAATTCGGATTCTTTCGTAGTCAGTTTAGTCTGTTTTCCATCGATAGCCAAAATTTGTTTCTGAGTATCGAAAGTAAAACGACCAATCTTGTAGATATTGCTTTCCTTGTTTCTCTTACCACGTACACGACGCAAAATAGCCTCGATACGGAAAGTCAACTCTTCCATACTGAACGGTTTAGTGATATAGTCATCCGCACCAATCTTGAAGCCTTCCAATATATCCTCTTTCAAAGTTTTAGCAGTCAGGAAGATAATAGGAATTTCAGCATTAGCCTGACGGATTTCCTGTGCTAAAGTAAAACCGTCTTTCTTCGGCATCATCACATCCAATACACATAAGTCGTATTTGTTCTTAAGGAAAGCCTTGTAGCCAGCCTCACCATCCGGGCAAAGTTCGGCCGAGTAGCCTTTTGCCTGCAAATATTCTCTCAATAGCATGCCAAGATTCTCATCATCTTCGCATAACAAGATACGCAATTTCTCGTCCATATTATTCATTTTTTAATAAAGGTAATACAATTATAAATTTAGTTCCTACATTCAATTCACTCTCGGCACGTATAGCCCCTTTGTGATCTTGAATTATTTTTTTCACATAAGCCAGTCCCAAACCAAAGCCTTTCACATCGTGTAGGTTACCGGTATGCACACGATAGAATTTATCGAATATCTTCTTCAGGTTTTCTTTCTTAATACCTATTCCATTGTCCTGGATAGAGATATAAAGCTTGCCCGATTCATTCCAAGTACGTACATTCAACAACAATTCGCCTTCCTGTTTTTTATATTTCACTGCATTGTCCAGCAAATTAAAAATAACATTTGTAAAATGCATCTCGTCTACAAATATATCCGGATTTACCGCATCCAGATTCGAAGTGATTTTACCATTGTATTTCTCTACCTTCAACGTGAAAGTATTGACAACACCGGCTATCAAATCATTTGCATTCACCTCTTTCATCTTCAGCGTCGCTTTTTGCTTTTCGAACATAGACATCTGCAACACCTTTTCCACTTGGAAACGCAAACGTTTGGTCTCATCATTTATCACTCCGGATATATGCTGGAACATAGCAGGAGATTTTCCCACTGCCGGATCTTTCAACATCTGGGCCGCCAACGATATGGTAGAGATAGGCGTCTTGAATTCATGTGTCATATTGTTTATGAAATCATTCTTTATCTCGGTCAACTTCTTCTGACGGAAGATGATATAGATAGTAAAGATGAACGTCACAAGCAATACGAATGTGAAGATCAGTGACGGGATCATAAATTTAACAGAACTGAATATGTAACTGTTCAATGTAGGGAAATGAATATTTACTGTCGCCATACGAGCCGGAGGATCATTTTTAAATAAAACCTGCGGATATGTATTCTCACTACCCTCTTTGGTATAATCAGGGCAATGGTAAACTTCCGTCCCGTCACGGTCTGTCACCGTAAAATGATAAGGAATGTCAATGCCATTATTCAGCAATTCCGTCTTTAAAAACAAGTCCAACTGTTTAAAGTTGATTCTTTTGTTCAAAGGTTTGTCACTAGCTGTATACAAAATGTTATAGACCACTTCGTCCAACAATGCACGTTGGTACACATATCTGTCTTTGATTATTTCCTGCAAGGCTCTTGAAGTCTGAGGAATGTTCTTACCAGTCGAAATAATTGCTTTAGGAATATTAGAAGGACGATTCGCACTGAACCTCATCTTCAATTCAAAAGTAGAGTAACCGTTCAATCCGTCGGAAGTAATGGAATACTCATGCGTATGCGCCACCACATCACCACTTCCTTCCCCCTTCTTCTCTTCGGACTGCTCCCTGGACAGCTGTGCTGCTTTTTCCGTAGCAATCGCATCATCCTCAAGATACTTTTTAGTTTCCACCAACTCAATATTCCGACACGCCTGGACCAAGCTGCGCTGAACAGACTCATCAAATTGCCCTTTGCGCATTTTCACCATTTCTTCAATATAGCTTACCTGCAAATACAACAAGCTAAGAAATGATAGCCCCATTACAATACCTAATACCCAAATAGTAGACTTTTTCATGCCAGCAAAATTAAAAGCGTTAAATCTCATCACACAATAGATTAACCAAATTTAAACGGCCATTCTCTATAATTAACCGAAAAAGTCATTTAAGCTAAGATTCTGACTATTATAACAAAATTTACGCCAATTGGTTTGCAAAAATAATAAAAAATTAAGTTCAAAGCCAAATAACAAACCTAAAAGTTTAAGTTACCTTAAATAAAAAGAGACGCATTTTTAACGAAATACGTCTCTTCTAAGTACGAAATTTTACACTTTATCAATCATCTTTATTCTCTTTAGCTTCAAATTCCTTCATCAATTTTTCTTGTACGTCTGTCGGAACCAATTCATAGCTGGCAAACTTCATAATAAATGAAGCGCGACCGCCTGTCAAAGAACTTAAAGAAGTGGAATAAGAAGACATTTCTTTCAGAGGTACTTTTGCAACCAGTTTTTCGTATCCACTTTCACTGCTCATCCCCATAATCATACCACGACGACCTTGCAAATCACTCATCACATCGCCCATTTTATCGCTGGGAACGAAAACCTCCACATCATAAATCGGCTCCAGAATCTTAGGTCCGGCATTCTTAAATGCCTCACTGAATGCATTACGTCCTGCAAGCATAAAAGAGATTTCATTTGAGTCTACCGGATGCATCTTACCATCATAAACAATCACTCGTACATCACGCGCATACGAACCTGTCAACGGACCCTGCTCCATCCGGCTCATAATCCCTTTCAAGATAGCAGGCATAAAACGGGCATCAATAGATCCTCCCACGATACTGTTAATAAAGACTAATTTACCACCCCATTCCAAAGGTATTTCCTCAGTCCCCTTCACATTTATCTTGAATTCCTGACCGTTAAACTTATACGTTTCGGGTACAGGCATTCCTTCATAATAAGGTTCAACAATGAGATGGACCTCACCAAATTGCCCAGCACCGCCTGATTGTTTCTTATGACGATAATCGGCACGGGCTGCTTTAGTGATTGTTTCACGATAAGGGATCTTAGGCTCCTCGAACTTAATCTGCAATTTTTCGTTATTTTCCAAACGCCACTTCAAGGTACGGAGATGAAACTCACCTTGTCCATGCACAATAGTCTGTTTCAATTCCTTAGATTGCTCCACTTCCCAAGTAGGATCTTCCTCACGCATACGGTTCAATATAACCATCATCTTCTCTACATCAGCCTCATTTACAGGCTTGATGGCACGCGAGTATTTAGCATTAGGATATTTAATGAAGTTAAACCGGTTTTCACAGTCTTTGCCGTTCAAGGTATTTCCAGTCTTTACATCTTTCAATTTCACAGTACAACCAATATCTCCGGCTACCAGTTCCTGCACCGGAATACGATTAGCTCCCGCACAAACAAAAAGCTGTGCCATACGCTCTTTAGAGCCACGATCAGCATTAGTCAAATCGTCACCTTCGTGTACTTTTCCGCTCATCACTTTAAAATACTGCACACCACCGATATGGGGTTCAACGGCAGTCTTGAAGAAATAAAGAGAAGTAGGGCCATTCGCATCGGGAGGCACAGGAACACCACGGGTATTATGAACCACAGGCATATCCGACACGAATGGAACAACATTACCTAAGAATTCCATCAGACGACGGACACCCATATCCTTACCTGCACATACACAGAAAACAGGGAACATACCACGTGCCGCCAATCCCTTACGGATACCTTCACGCATTTCATCTTCAGTCAATGATTCCGATTCAAAGAACTTTTCCATCAGTGTCTCATCATTTTCAGCAGCAGCCTCTACCAAAGCTTTATGCATCTCCAATGCCTTTTCTTTCTCAGAATCAGGAATCTCTTCAATTGTAGGAGCGCCCCCTTCAGGTCCCCATGAATATTTCTTCATCAACAGCACGTCAATGAGTTCATGAAAATTAGGTCCCGTTTCAAGAGGATACTGCACGGGAACTACCTTGGAGCCATAAATGCTACGCAACTGTTCGAGCACATTGTCATAGTCACATTTCTCATTATCAAGCTGATTGACCAAAAAGATAACCGGCTTGCCCAGCTTTTCAGTATAACGGAAGTGGTTCTGAGTACCTACTTCGGGACCGTATTGTCCATTCAGCAGCAAAATAGCAGTATCGGTTACATTTAGCGCGGTTATGGCAGCCCCTACGAAGTCATCACTACCCGGACAGTCAATTATATTTAGTTTTTTTCCATTCCATTCTACATGATAAACGGTAGAGAACACTGAATAACCATATTCTTGCTCTACCGGAAAATAATCACTAACCGTGTTTTTGGCAGTAATTCTGCCACGACGTTTTATAATACCACTCTCAAAGAGCAAAGACTCTGTGAGGGTGGTTTTACCTGAGCCATCATTGCCAAGAAGTGCAATGTTTTTAATTTCGTTAGTCTGATATACTTTCATGATATCTAAGGTTTAATTATTAACAAACGGATATGTGTTTCATATCTCCTAAAAATGTGGAGCGCAAATTAGAAAATAAAGAGAAAAAAAGCAACTCAAAGGATAGTGTTACTAAACTATGTTTTACGGCAGATATTCTATCTTATCACTATTTTTTTCGTAGCTTTGCTGAAAAATAAATGATCATGGCAGGTATTTATCTACATATCCCCTTTTGCAAAAAACGTTGTATTTACTGCGATTTTTTCTCCACCACCCGTAGCGAACAGAAAACAGCATACATCCGTGCCTTATGCCGCGAACTAACCGACCGGGAAGCCTATCTGGAAGGCGAGCATATAGAAACGATATATCTGGGCGGCGGCACTCCCTCGCAACTGGCAAAAGAAGATTTCGAAGCAATCTTCTCCCATATTTATAAGGTATACAAAGTAATCCCCGATGCTGAAATCACTTTGGAAGCTAATCCCGATGACTTAACGCCAGAATACATTTCCATGTTACGCACCTTTCCTTTTAACCGGATAAGTATGGGAATTCAAACTTTTCAAGACTCCACTTTAAAACTGCTTCAACGCCGCCACACAGCCGAACAAGCCATCCGTGCTTTCCAAAACTGTCGTACTGCCGGTTTCCGGAATATTAGTATTGACTTGATGTACGGACTACCCGGAGAAACACTTGCTTCGTGGAAAGAAGATTTAAAACAAGCCCTCGCTTTGCATCCGGAACATATTTCCGCTTATCACCTTATTTATGAAGAAGGAACCACTCTTTGGCAACTTCGTGAACAACATAAACTGGAAGAGGCCGATGAAGATCTGAGCGTTTCCTTATTCGGCACACTGATTGACAGCCTCACCGCTGCCGGATACGAACATTATGAAATATCCAATTTCTGCCTACCCGGTTTTCATTCCCGGCACAACTCCAGTTATTGGACTGAAAAGAAATATTTGGGCTGTGGTCCTTCCGCACATTCATACAATGGTACTTCACGCCAATGGAATGTAGCCTCACTAAACGAATATATAAGAGGTATTTCTAACGGAAATCCCACATTCGAAGTAGAAGAACTTGACTTATATACCCGTTACAATGATTTTGTCATTACCCACATACGTACACAATGGGGAATGCCACTGCCCAAACTCAGGAAACAATATGGAGAAGAACTGTACAAATACTGCCTACGTATGGCCACTCCACATTTACAACAAGGAACACTGGAAATAAAAAACGATACGCTAAAACTGACCCGTAAAGGCGTTTTTATATCAGACGGGATCATGAGCGACATGCTTTGGGTGGAGTAACTAATACTTCAGCGAATATTCACATATGCTATTTTAAAAGCATCCCCCAAAAATAAATGAATAATTTTATAAAATACGATAGGGAGATTTTCAAGTTTCCCTGTCTTTACTTATATAAACCAATAAACTAAAAAGATATGAAAACAAGTACGCGCATAGTTCTTCCATTCTTCCATGCATTAATGGAAGCTTATGCTTACAATAGCGAAAACGATTCTGAAGAACACAGGAAAACGGAACAAAAGAGTTCCGAATGCAACCATAACACAAATCAAATTTTGGAAACTCTTTCTCCGAATATTACAAGGAGGATAACAGACCCTGAATAAAGGCATATAAATTATTGAATAATAAAAGAAAACTAAAAACTAAATGATTTTTTCAACTTGCAATCAATACAGTATCAAGGGGATTTTCTTGATACTGTTACTAATGATTTCCACTACATTCATACAGGCTCAAAAAGCAGATCTTTCTTTCAGCATTCACTTAAAAAAAGCGAATCTGAAAGAATTCATATTTGAAATAGAAAAAGCCTCCGGCTACTCTTTTATTTATGGAGAGGAAATCATCTTTAAACATCCTATAACCCTCAGTCTAAGAAAAGCTCCATTAAGCCTGATTTTACAGAAAGCCTTTGCAGGACAGAATATCAGTTTCAAAATAAACAAAAATCACATTATATTAAAAAAATACGCTCTACAATCCAGCAAGAAGTCTTTTACCCTAAACGGGTATGTATTGGACAGTATATCGAAAGAAACATTGATAGGTGCCAATATTTATGATCAGAAAAACGGAGTGGGTACCACTACCAATCCTTTCGGATACTTTAGCATCACATTGCCTGAGGGGGGCACTAAACTAAACTTTTCATACATAGGCTATGCAGTAAAACAAGTGTCTTTGCACCTATGGAAAGATACTATGCTGACCATCCAACTCCACAATGACAACCAACTGAATGAGGTCATTATCTTGTCCGACAAACCCGAAACGGGTATTCAAAGCAGTCGTATGGGAGCAAGCAGTATTCCTATTCCCCACATAAAAAACACACCGGCATTGATGAGTGAGGCAGACGTACTAAAATCCATCCAACTACTGCCCGGTGTACAAAACGGAATGAACGGAACCAGTGGGTTATATGTACGCGGAGGAGGTCCGGACCAAAATCTTTATTTATTAGACGGTGTACCTTTATATAATGTAGATCATACACTGGGCCTGTTATCGGTCTTCACTCCGGAAGCCGTGAAAAAAGTCGATTTATACAAAAGTAGCTTTCCGGCACGATTCGGCGGACGTCTTTCATCTATTGTCGATGTCCGTACCAATGACGGAAACATGCAGCACTATCATGGAAGCTTGACTATCGGTCTTCTCACTTCACATCTGCAATTTGAAGGACCTATATGGAAAGATCATACTTCCTTCATTATCTCAGCACGACGCAGTTATATTGACTGTTTCCTCCCACTAGTTATGCCAAAGGACGAACGGGGCGGTTATAGTTTGTATGACATCAACGCCAAGCTAAATCATCGCTTTAGTGAACAAGATCGCCTTTTCATCTCTTTCTATAAAGGAAAAGACCACGTCTACTATAAATAACGTGAGTTCGAAATAAAATCAAAAAATAGCAAGTTGTCCGTCATTGACAAACTTTACGTCAATGGCGGGCTTCTTTTCAAAAAAGCAGTATGCCGCGATAGCCGACAAGGAGTTGGCTATAAAGTTACTGAATGAACGATGTCTTGAGTGTTCAATCTGTGCGATGTTCTTCAGTTCGTCATTGACCGTTTCAATCAAGGCTCTTTTTCTTAGCAAAATCTTGTCGGCAATACTCATCAGTGAGTTCCTCATATTATTTTTAACTTTAGTAACAAGTTGTATGCCATTAAGGAAAAGGTTTTCAAACAGAGCCTGACCTATATATCCCTTGTCTGCACATAGTTTTCCTTTGATGTTTTCCAGAAACCTACCCTGTTTCAACGGTTCCCGGTCATCCACGTTTCCAGGCGTGAACATGAAATTGAGGATTTCACCCTTGTCATTGATTATCAGATGCAGCTTGAATCCGAAGAACCATCCCATAGAACATCTTCCACGCTCGGCAAGCCCTTCAAATGTCTTATGAATCAAGATTCTTTGGTTACGACATACACATAAGGGAGTGGAATCAACGAAACTGATGCCGGTACAAGTTCCCAGCAGTACTCTTTTGATGAATATGGTCATGGGAAGCAATACTTCCTTCTCCAGTTCCACAAAACGGTTATAAGAAACCTGACGAGGAAAAAGGTGTTTCAGATGTTTACAGACATACTCCTTGTAGTAATGCTTGAAACAACGGAAACCACCGGAGTGAAACAGGATTAGAATAACCATAATCTCTGCATCACTCATACGGTTGGGTTTGTTACGATGCATGGTCTTCATATCCTTAATCATATATTTTTCCTGTTGCAATGTAAATTCCTTGCAAAAATCATCGGCCATACAATAAATCTCTGTAACTTTAGACTCTGGAAACATAGTGGTAATCGTTTAAATGTTATAATTCAGCACTATAAATTTAATACTTTTATCGCTATGTTTCTAATTATAAGTGAAATATATTTATTCTTATTTCGAACTCACGTTAAATACAAAGATGAAGATAAGTTCAAGCAAACTCACAATTGGGGAAACATATTACTGAACACACGCTGGAATCATGTTTTCACCCCCCAACTATTCAGTAATACTACGCTGGCATACAATCGTTATGTTTTTGATATCAGACAAGAGGAAACTTCCAGCATACAACAACCTGATGGTTCCACAATCATCAATGGTTCCAACAATCTGTTTCACTCCGGCATCAGTGATCTTAGCATTAGTACGGATTTTGATTATCATCCGTTACCGGCACACAACATCAAATTTGGAGCGAAATACATATATCATCAGTTCGCTCCGGAAGTGCAGACCGTAAATCAACACAATTCCGACAATGGATATCCACAAACTAACGACAATTATAGTTTGAACAATTCTCATATCCATGCTCATGACTTTTCCTTGTATGCCGAAGATGATCTTATTCTGAACGAACATTGGAAAATAAATGCCGGATTGCACTTTTCATTTTTTAATGTACAAAAACAGACTTATCTTTCTTTGCAATCCCGTCTTTCCATAAGTTTCCAAGCGACCTCAAATATCATCTTAAAAAGTTCTTTTTCACAGATGAGCCAGTGTACCCAATTATTATCTACTGCATCACTGGCCATGCCTTCCGACCTTTGGGTGCCCGTCACACGCCACATCCGCCCCATGAAATCTTTTCAATATGCTGTAGGAGTATACTATACCGGTATCAAGAATTGGGAATTTTCCATAGAAGGATACTATAAAGATATGTATAATGTATTAGAATATAAAGACGGAGAAAGTTTTCTAGGTTCTTCCCATAACTGGGAAGACAAAGTAGAAATGGGCAAAGGACGTTCATTCGGAGTGGAGTTTATGGCACAAAAAACTGCAGGGCTCCTTACTGGATGGATTAATTACACCCTATCCAAATCCGACCGGCAATTCAGTACGGACGGGATCAATAATGGTAAACATTTCCCTTACCAATATGACCGCCGACATACCTTGAATCTCACTCTAAATTATCAATTGACACGACGGATCGACTTCAATATGTCATGGACTTATGCATCAGGTTGCATGGCAACACTTCCTACAGAGAAGACACATACAGAACTACCACCTACCAATGTACCACCTTCCTGGATTATGGATAATTTGAACAAAGGAGATATGGATCATTATAGTTCACGAAATAACTACAGATTGCCTGCAAGCCACCAATTGAATATAGGATTCAACTTCCATAAACAGACCCGGCACGGAGAACGGATATGGAATATCAGTATCCTAAATGCCTACAATGCCATGAACCCCAACTTTGTCTATATCAGCAGGGAAGCACAAACAGGAAAGCCTATATTGAAAAAAATGACAATCTTGCCATGTATCCCTTCATTTTCATACACTTATAAATTTTAAAATCCAATGAAAAAATACCTTTTATTTCTTTGTGTATTTGTTATTTTAGGCGCATGTACCAATACCATTGGCTATTTACCCGATGATGAACCTAAAAAACTGATCGTAAATGCCATGATGCAAACTGAAAATAACGATAACCGGATTTATCTGCATTACACAGGATGGACAGCTACCACTCCTGTCACCGATGGTATCATACACCTGTATATCAATGGAAAACTGTCAGAAACAATCACTGCGGAAGATGATTACTACCCAGTAAAAAGCATATTCCGAACAGGAGATAAAGTGAAAATAGAGGCTTCTTCAGAAAATGGTAAATATAAAGCAAAAGCGGAAACACGCATCAGTGCACCCTTACAGATTATAAATGTAGATACAACCTATATAAGTTTAAGAGATTATAACAGCTGGGTAGGAGGCAAGCCTGTATATGACAATTATCTTCGGCTTAACATTCAATTAAAACAACCCGATATAGAGGCAGAGAATACATACTATCGTCTTGAAATAAAACAGATTTTTTATTCTCATAAATGGCATGACGGCAGGGACACTCTCAGTATTGACACGACTTATAACTATAATTATATTTATGACACCGCCTTGACAGACGGCAAACCCGGACATGCTATAGATGAAGGATTCGAGCTTATTCAGAAATGGAACAATTATTTTGGCCTTTTTAAAAGCTGTTATTTTAAAAACAGGGAATATAACATGACGATAGATTTAAAAGAAGACATCAACTATATACATATAGATTCTCAGAAAGCAGAGCGATATATCAGTATCCGGTTTTACAGTATTTCAGAAAGCGAACATAGATATTTGTATGCCATGTCCTCTGCATTAGATTTTGATGCCGAAAATTTTATTTATGCAGTTCCCCTTATTCCCAATAATATAAAAGGAGGAATAGGTATATTCAGTATTGCCAACCAAGTAAAATACAAATTGAAAGAAGAAAATTGCCAAGACAGATACTAAGAAGAAGGCTTCAGTTCCTCTCATACAATAAATCAAAACTAAAAGTTCTAAAATGAATAGCACATCTATTTACATTTTAGTAGCTTTGCATCCGATTATAACATTAACAAACATGCCCAACACGGCAATGGAGGCAACTGAACTACTCAAAGAAATACAGAAGCATGATTCCCAACAGGCTTTCCGGTCTTTATACGATATGTATTATGACCGTTTCTTTCGTATCGCCTTTTATTACCTTCAACGGGATGAATGGGCTCAAGAAGTAATTTTAGATGTTTTTACCACGCTTTGGAATCATCGAAAAAGTCAGCTTATTCCCGATGATTTTAATAAGTACAGCTATATATTAATAAGAAATGCCGCTCTGAACTATTTGGAAAAAGAACAAAGGAGGGAAGCCTCGCCTCTGGAAAATATGCCGGAAATATCTTCTTCCAACCTTTCTCCTGAAGAACAAATGATGAATGAAGAGTTATTTAACATTTATGAGAACTCACTGAATGAATTACCTGAACGTTGCCGAACAATCTTTATTAAAGTCCGCGAAGAAAAACAAAGTTATGCTTCCGTTGCCGAAGAACTTAATATAAGCCCTAAAACAGTAGATGCCCAGTTACAAAAAGCTGTAACCCGACTCAAAGAAAAAATTAACAATTATTTTAGAAATAGACGATAGGGAGTTTTCCAGATTCTCCTGTCTTTATCAATAGAAACTAATAAACTAAAAAGACATGAGAACAAATACACGTTTAGTATTACCATTTTTTTATGCCCTGCTTATAAGTGCATGTAGTAACAACGACAACTATCCCAAAGAGTATATAGGCTTTGAAAAACAATTCATATCACACACCTATGATACAAAGAACGAGGAAGAAACCCTTACTTTAAAAATAATAGCTGCCGAAAAACAAGACACAGACCGTAAACTGACCATTAGCAGTTCTACAAGTAACAATAGCTTCCACATTCAAAATGCCCATCCGGTCATCTTGAAAGGAAAGAAATCAGTAAAAATAGATATCATTCTTTATCCTAAACAAATAAAAAGCGTACAACGTATCATACGGTTGATCTGTACTCCTGACGGAAAAGACGCAAAAATTTCTGAAATTTCTATCCGTCTGCAAAAGAAGTAGTATCTTTGTCCTGCAAATAAAATAACATGAATTCACCGAAATCAGACAAAGAACTGGACGAATGGTTGGAATTATTATCTTCTTCCACTCATTCACCGCAGGGAAAATTCTCGGCGGAGAAAAGTTATAATATATTGCAACAACGTCTTCAACCGGCATACCGCAAGCACAAAATACTTTCCATTCGGTATACAGTTGCTGTGGCTGCCGGTTTCGTCCTGCTTATAGGTTTCGGTTGGATGTTTTATTTTTACCAACGTCCGGTACGTACACTGATTGTTTCCACCAATATACAAACTCAATGCATCCAATTACCGGATGGCTCTAAAGTAACCCTAAACCGACATTCCCAATTGAGCTATCCGGAAACTTTCAACAAGGAACGAATCGTAAAGCTGAATGGAGAAGCTTATTTTGAAGTCAGTAAAAATCCTAAAAAACCATTTCGTGTCAAAGCAAATGGAGTTACCATCAGGGTATTAGGCACGCATTTTAATGTCAATGCCTATGCCGCCGATTCTTTAGTAGAAACAACCCTGCTGGAAGGTAGTGTATCCGTCAGTAACAATGCCAACGGTAAACAAATGATATTAAAGCCCAATGAAACAGCCATTTATCGTAAATCGACTGGAATATTGTCTATGCACATTAATGCAAATGCACAGAACGAAATAAGTTGGCGTGAAGGTGTTCTTTCTTTTAATGACATATCTATGGGAGAAATCGCTCGTCAACTATCCCATCATTTTAATGTCACCATACAGATAAAAAGCGAACAGTTACGTAATTATAAATTAAATGCACGTTTCAAGCAAAACGAAACGTTGGAAGAAATTCTAGAAATGTTGGCTCCCATCGTAGGTTTTACTTATCACATGCCCCAATCCAATCTTATTGAACTAAAGCAAGAAAACTAAAAAACAAATGATTTCTTCACTTTATAAGAAACACAGTATCACTTTTTTTTACTTAATGCTGTTACTAGTCTTTTCCCATTCATTCATATCAGCACAAACTCCGGATATGCCTTTTAATATTTATCTGAAACAGGCTAGTTTAAAGGAGTTTACAGCTAAAATAGAACAACTGTCAGAGTATTCTTTTATTTATGGCGAAGAAGTTGTACTCAAACATCCCATAACTCTCGATCTGAAAGAAACCCCATTAACAACTATTCTACAAACAGCTTTCATTAAACAAGACATCAGTTTCGAGATTACCAAACACCATATCATATTGAAAAAAACAACGTCACTTCCTATAAAACAACATTTTACACTAAACGGTTATGTATTGGACGAAATATCGAAAGAAACACTGATAGGTGCCAATATCTATGACCAGCAAAATAAACAAGGAACAATCACAAATCCATTCGGATTCTTCAGTATCACACTGCCCGAAGGAAACACTGAACTGAATTTTTCCTATATAGGTTACGGTTCAAAACAAATAGCATTGTATTTATGTAAAGATACGCTGCTGACTGTCCAACTTAAAAACGATAATACATTGGAAGAAATCGTTGTCCTTTCTGATAAAATGGAAACAGGCTTTCAAAGTAGCCGTATGGGAGCAAACAATATACCTTTGACACATATTAAAAATACCCCTGCTTTACTGAGTGAGGCAGATGTATTAAAATCAATCCAGCTTCTGCCCGGTATACAAGGAGGTATAACCGGTACCAGTGGCCTGTATGTACGTGGAGGAAGTCCCGATCAGAATCTTTATCTGCTAGACGGTGTACCCTTATATAATGTGGACCATACACTAGGTATTCTCTCCATCTTTACCCCAGAATCGGTCAAGAAAGTCGATTTGTATAAAAGCAGTTTTCCTGCCCGTTACGGAGGAAGACTGTCCTCCGTCATTGATGTACGCACTAACGATGGAGATATGAGGAATTATCACGGCAGTCTGACCATCGGGCTGCTGACTTCTCGAATGCACTTTGAGGGTCCTCTATGGAAAGACCGGACATCATTTATTATTTCTGCCAGACGCAGTTATGCCGATTTAATTATCAAGCCTTTCATGGATAAAGATACGAAAGGAGGTTACTACTTATATGATATCAACACAAAACTAAATCATCGATTCAGTGACCGTGACCGCCTGTTTTTCTCCTTTTATCATGGCAAAGATCATGCCAGTTTTACAAATACTTCTTCTTATTACTTTGAAGAAGAAAAGGAGACAGACACAAGAGAGAGACAAGTCATGGCTTGGGGAAGTACATTAGGGGCATTACGTTGGAACCACATAGTCAGTAATCGTCTGTTCCATAACATCACCCTATCCTATAACCGTTTCCGATTCAATATAAAAAACAATTTCACGTCCGCCAACAAACACCTTGACAGCCAATATTATTCCGGTATAGAAGATTGGGGATTAACATCTGACTTCGACTTTCATCCATCCCCCTCCCATTTCATCAAATTCGGAGGAAACTATCTCTACCATACGTTCCGCCCCGAAACCCAACATACATTTGTGCACTCTCCGAATGAACAAGAACAACCTGATAAAACATACACCATCGGAGGAAATGAAGCGACACACTCACACGAAATTTCCCTTTATGTAGAAGATGATTTCAAATGGAACGAACAATGGAAAACAAATATAGGCGCACATTTCTCACTCTTCCAAGTACAAAAGCACACTTATGCCTCCTTGGAACCTCGCATTACCGTTAGTTTCAAAACCAGTCCCAACCTTACTTTCAAGGCGGCCTATACCCACATGACACAATATGTACATTTACTTTCTTCATCCAATCTCTCTCTCCCCACTGATCTATGGGTACCGGTCACACAGAAGATCCTCCCGATGCAAGCATGCCAATTTTCTATCGGGGGTTACTATACAGGTATTCAAGGATGGGAGTTTTCTGTAGAAGGCTATAGCAAAATGACGAAAAACGTACTGGAATACAAAGATGGTAATACTCTAGTCGGTAATTCCATTCATTGGGAAGAGAAAGTAGAAATGGGCAAAGGACGCAATTTCGGCATAGAATTCATGCTGGAAAAGAAAACCGGACGTACTACCGGATGGATAAATTATACTTTGGCTAAAGCCGACCGTATATTCAGTAAAGGAAATGTAAATGGAGGGAAACGTTTTCCCTATAAATACGACAGACGCCACTCCGTGAACATCACGATAAACAGGCGCCTCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phocaeicola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vulgatus</t>
   </si>
 </sst>
 </file>
@@ -205,10 +285,10 @@
   <dimension ref="A1:AMJ118"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.45"/>
@@ -929,7 +1009,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
@@ -958,7 +1038,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>29.3</v>
+        <v>22.3</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
@@ -987,7 +1067,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
@@ -1016,7 +1096,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
@@ -1045,7 +1125,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
@@ -1074,7 +1154,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
@@ -1103,7 +1183,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>9</v>
@@ -1129,7 +1209,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
@@ -1158,7 +1238,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
@@ -1187,7 +1267,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
@@ -1216,7 +1296,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>9</v>
@@ -1245,7 +1325,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>9</v>
@@ -1274,7 +1354,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>9</v>
@@ -1303,7 +1383,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>9</v>
@@ -1332,7 +1412,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>9</v>
@@ -1361,7 +1441,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
@@ -2054,7 +2134,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>10</v>
@@ -2083,7 +2163,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>29.3</v>
+        <v>22.3</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>10</v>
@@ -2112,7 +2192,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>10</v>
@@ -2141,7 +2221,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>10</v>
@@ -2170,7 +2250,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>10</v>
@@ -2199,7 +2279,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>10</v>
@@ -2228,7 +2308,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>10</v>
@@ -2254,7 +2334,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>10</v>
@@ -2283,7 +2363,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>10</v>
@@ -2312,7 +2392,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>10</v>
@@ -2341,7 +2421,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>10</v>
@@ -2370,7 +2450,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>10</v>
@@ -2399,7 +2479,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>10</v>
@@ -2428,7 +2508,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>10</v>
@@ -2457,7 +2537,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>10</v>
@@ -2486,7 +2566,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>10</v>
@@ -3179,7 +3259,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>11</v>
@@ -3208,7 +3288,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
-        <v>29.3</v>
+        <v>22.3</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>11</v>
@@ -3237,7 +3317,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>11</v>
@@ -3266,7 +3346,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>11</v>
@@ -3295,7 +3375,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>11</v>
@@ -3324,7 +3404,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>11</v>
@@ -3353,7 +3433,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>11</v>
@@ -3379,7 +3459,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>11</v>
@@ -3408,7 +3488,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>11</v>
@@ -3437,7 +3517,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>11</v>
@@ -3466,7 +3546,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>11</v>
@@ -3495,7 +3575,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>11</v>
@@ -3524,7 +3604,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>11</v>
@@ -3553,7 +3633,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>11</v>
@@ -3582,7 +3662,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>11</v>
@@ -3611,7 +3691,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>11</v>
@@ -3654,13 +3734,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4260,7 +4340,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>547.441565576473</v>
@@ -4274,10 +4354,11 @@
       <c r="E24" s="5" t="n">
         <v>618.414612143125</v>
       </c>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
-        <v>29.3</v>
+        <v>22.3</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>1041.12839765868</v>
@@ -4297,10 +4378,11 @@
       <c r="H25" s="5" t="n">
         <v>1381.20593089827</v>
       </c>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
-        <v>29.6</v>
+        <v>22.6</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>917.794333225346</v>
@@ -4323,10 +4405,11 @@
       <c r="H26" s="5" t="n">
         <v>1120.49911960984</v>
       </c>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>456.643989035197</v>
@@ -4349,10 +4432,11 @@
       <c r="H27" s="5" t="n">
         <v>486.279768299847</v>
       </c>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5" t="n">
         <v>398.095511075017</v>
@@ -4375,10 +4459,11 @@
       <c r="H28" s="5" t="n">
         <v>709.920530916242</v>
       </c>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B29" s="5" t="n">
         <v>546.637570500028</v>
@@ -4401,10 +4486,11 @@
       <c r="H29" s="5" t="n">
         <v>547.167590388153</v>
       </c>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B30" s="5" t="n">
         <v>486.018748563777</v>
@@ -4427,10 +4513,11 @@
       <c r="H30" s="5" t="n">
         <v>521.315550217284</v>
       </c>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5" t="n">
         <v>514.930009425794</v>
@@ -4451,10 +4538,11 @@
         <v>645.710623091875</v>
       </c>
       <c r="H31" s="5"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>726.687743639098</v>
@@ -4477,10 +4565,11 @@
       <c r="H32" s="5" t="n">
         <v>567.976254764885</v>
       </c>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B33" s="5" t="n">
         <v>483.278041335033</v>
@@ -4503,10 +4592,11 @@
       <c r="H33" s="5" t="n">
         <v>597.239048168088</v>
       </c>
+      <c r="J33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B34" s="5" t="n">
         <v>532.306248426993</v>
@@ -4529,10 +4619,11 @@
       <c r="H34" s="5" t="n">
         <v>600.570306222386</v>
       </c>
+      <c r="J34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>802.706496963046</v>
@@ -4555,10 +4646,11 @@
       <c r="H35" s="5" t="n">
         <v>718.613435376441</v>
       </c>
+      <c r="J35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>532.306248426993</v>
@@ -4581,10 +4673,11 @@
       <c r="H36" s="5" t="n">
         <v>592.370534567066</v>
       </c>
+      <c r="J36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B37" s="5" t="n">
         <v>523.166374655926</v>
@@ -4607,10 +4700,11 @@
       <c r="H37" s="5" t="n">
         <v>781.101560191784</v>
       </c>
+      <c r="J37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B38" s="5" t="n">
         <v>563.372902298604</v>
@@ -4633,10 +4727,11 @@
       <c r="H38" s="5" t="n">
         <v>481.996816411028</v>
       </c>
+      <c r="J38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B39" s="5" t="n">
         <v>651.092709904829</v>
@@ -4659,10 +4754,11 @@
       <c r="H39" s="5" t="n">
         <v>672.49920422929</v>
       </c>
+      <c r="J39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B40" s="5" t="n">
         <v>618.162094947476</v>
@@ -4685,6 +4781,7 @@
       <c r="H40" s="5" t="n">
         <v>186.652840357517</v>
       </c>
+      <c r="J40" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4704,11 +4801,11 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.08"/>
@@ -4744,6 +4841,282 @@
       </c>
       <c r="B4" s="2" t="n">
         <v>5163189</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
